--- a/uploads/saturday schedule.xlsx
+++ b/uploads/saturday schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\nso_schedules\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2254CDF5-5E81-4B0F-98C0-2E990B9808E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C97E8CB-E235-4BA5-9E78-DEEBAAA98A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{CFEFD664-C137-4AB8-9587-3576B7D9DF99}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="298">
   <si>
     <t>Names</t>
   </si>
@@ -946,6 +946,15 @@
   </si>
   <si>
     <t>Eat Lunch</t>
+  </si>
+  <si>
+    <t>Walk to the Hart Auditorium for Viking Village</t>
+  </si>
+  <si>
+    <t>Swing dance with the students in the MC Ballrooms.</t>
+  </si>
+  <si>
+    <t>Swing dance with the students in the Taylor Quad.</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1036,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1041,11 +1050,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1054,20 +1059,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="31">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1183,6 +1179,12 @@
         </left>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1197,44 +1199,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C4363A96-9F1E-460F-8AC0-1700060DE7DE}" name="Table1" displayName="Table1" ref="A1:AB234" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="30">
-  <autoFilter ref="A1:AB234" xr:uid="{C4363A96-9F1E-460F-8AC0-1700060DE7DE}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Magenta"/>
-        <filter val="purple"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C4363A96-9F1E-460F-8AC0-1700060DE7DE}" name="Table1" displayName="Table1" ref="A1:AB234" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" tableBorderDxfId="28">
+  <autoFilter ref="A1:AB234" xr:uid="{C4363A96-9F1E-460F-8AC0-1700060DE7DE}"/>
   <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{1988F4F0-4E1A-4F27-B43E-68FB0C69FF93}" name="Names" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{446E9DC9-61C9-43DE-B980-2DD1E02E886F}" name="Color" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{FE36C58C-3759-4114-9C04-891215C65D54}" name="Group Number" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{BEE28494-9BF3-4FE8-9C3A-5571D84AD25A}" name="Arrive_x000a_5:00 AM" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{D32A0A4D-6F2D-4A41-88D0-28BA99B55F76}" name="Arrive_x000a_6:00 AM" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{38780053-6E19-4913-89AE-A59ED2C702FF}" name="Set-up Check-ins_x000a_6:30 AM - 7:30 AM" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{C0B03FA5-D117-4325-B01A-34BBB22B63CA}" name="Places, Everyone_x000a_7:30 AM - 8:00 AM" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{ACE0A924-04D7-4826-9A0B-718E41188550}" name="Check-ins_x000a_8:00 AM - 8:30 AM" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{2D033748-3174-4097-9971-55EDF595EBE4}" name="Mentor Connections_x000a_8:30 AM - 9:00 AM" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{E6B8F2B7-0D6A-42AB-BEA6-8D0679FC6A02}" name="BYUI Photo_x000a_9:00 AM - 10:00 AM" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{00B9C697-2605-4BDA-BDBF-665B472C0BB7}" name="Transition to Legacy Walk_x000a_10:00 AM - 10:10 AM" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{F1CE06EA-BAAA-4BAE-936E-AE6CF453AF40}" name="Saddle Up Shuffle_x000a_10:00 AM - 11:00 AM" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{E78D704F-74D7-4C74-A761-2C230B49EC8B}" name="Legacy Walk 1st Rotation_x000a_10:10 AM - 10:40 AM" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{523A7752-60E5-4353-82C3-C5C42821145F}" name="Transition_x000a_10:40 AM - 10:50 AM" dataDxfId="16"/>
-    <tableColumn id="15" xr3:uid="{0B04B511-4B91-4E69-B4D9-E77A974399AF}" name="Legacy Walk 2nd Rotation_x000a_10:50 AM - 11:20 AM" dataDxfId="15"/>
-    <tableColumn id="16" xr3:uid="{3F0CAC3D-8C0D-4697-BCE5-2D6C2FC0FD0F}" name="Lunch_x000a_11:00 AM - 12:00 PM" dataDxfId="14"/>
-    <tableColumn id="17" xr3:uid="{883E7140-D54F-4443-8533-BAC9F35D0F4F}" name="Transition_x000a_11:20 AM - 11:30 AM" dataDxfId="13"/>
-    <tableColumn id="18" xr3:uid="{F2425DE2-C26A-43F6-9323-CA77DB43098D}" name="Legacy Walk 3rd Rotation_x000a_11:30 AM - 12:00 PM" dataDxfId="12"/>
-    <tableColumn id="19" xr3:uid="{25BBB721-76DE-472F-A345-8A530801077B}" name="Transition to Legacy Walk_x000a_12:00 PM - 12:10 PM" dataDxfId="11"/>
-    <tableColumn id="20" xr3:uid="{527DA5D0-F788-4CA7-B279-5D95CDE0A9D8}" name="Legacy Walk 1st Rotation_x000a_12:10 PM - 12:40 PM" dataDxfId="10"/>
-    <tableColumn id="21" xr3:uid="{EDA85AEE-C8E5-42BA-8F04-F2E5ED716900}" name="Lunch_x000a_12:15 PM - 1:00 PM" dataDxfId="9"/>
-    <tableColumn id="22" xr3:uid="{6341155B-4598-46E3-85D4-F65FBBA7912B}" name="Transition_x000a_12:40 PM - 12:50 PM" dataDxfId="8"/>
-    <tableColumn id="23" xr3:uid="{89F9286C-9ED7-40E5-B061-E2CBBE0354ED}" name="Legacy Walk 2nd Rotation_x000a_12:50 PM - 1:20 PM" dataDxfId="7"/>
-    <tableColumn id="24" xr3:uid="{D591A263-0D7C-4AF7-AFAB-E78478D6E052}" name="Saddle Up Shuffle_x000a_1:00 PM - 2:00 PM" dataDxfId="6"/>
-    <tableColumn id="25" xr3:uid="{FD0A9EDE-67C3-411F-8176-FD13125C9B42}" name="Transition_x000a_1:20 PM - 1:30 PM" dataDxfId="5"/>
-    <tableColumn id="26" xr3:uid="{F02F64DC-E1C1-413A-B929-19C742E0FF32}" name="Legacy Walk 3rd Rotation_x000a_1:30 PM - 2:00 PM" dataDxfId="4"/>
-    <tableColumn id="27" xr3:uid="{B49D177A-D32B-4236-821D-B7AB87417000}" name="Legacy Photo_x000a_2:00 PM - end" dataDxfId="3"/>
-    <tableColumn id="28" xr3:uid="{CD87A3D8-2BE8-4314-AD93-C525171744B9}" name="Legacy Walk Clean-up_x000a_2:00 PM - end " dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{1988F4F0-4E1A-4F27-B43E-68FB0C69FF93}" name="Names" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{446E9DC9-61C9-43DE-B980-2DD1E02E886F}" name="Color" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{FE36C58C-3759-4114-9C04-891215C65D54}" name="Group Number" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{BEE28494-9BF3-4FE8-9C3A-5571D84AD25A}" name="Arrive_x000a_5:00 AM" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{D32A0A4D-6F2D-4A41-88D0-28BA99B55F76}" name="Arrive_x000a_6:00 AM" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{38780053-6E19-4913-89AE-A59ED2C702FF}" name="Set-up Check-ins_x000a_6:30 AM - 7:30 AM" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{C0B03FA5-D117-4325-B01A-34BBB22B63CA}" name="Places, Everyone_x000a_7:30 AM - 8:00 AM" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{ACE0A924-04D7-4826-9A0B-718E41188550}" name="Check-ins_x000a_8:00 AM - 8:30 AM" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{2D033748-3174-4097-9971-55EDF595EBE4}" name="Mentor Connections_x000a_8:30 AM - 9:00 AM" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{E6B8F2B7-0D6A-42AB-BEA6-8D0679FC6A02}" name="BYUI Photo_x000a_9:00 AM - 10:00 AM" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{00B9C697-2605-4BDA-BDBF-665B472C0BB7}" name="Transition to Legacy Walk_x000a_10:00 AM - 10:10 AM" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{F1CE06EA-BAAA-4BAE-936E-AE6CF453AF40}" name="Saddle Up Shuffle_x000a_10:00 AM - 11:00 AM" dataDxfId="16"/>
+    <tableColumn id="13" xr3:uid="{E78D704F-74D7-4C74-A761-2C230B49EC8B}" name="Legacy Walk 1st Rotation_x000a_10:10 AM - 10:40 AM" dataDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{523A7752-60E5-4353-82C3-C5C42821145F}" name="Transition_x000a_10:40 AM - 10:50 AM" dataDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{0B04B511-4B91-4E69-B4D9-E77A974399AF}" name="Legacy Walk 2nd Rotation_x000a_10:50 AM - 11:20 AM" dataDxfId="13"/>
+    <tableColumn id="16" xr3:uid="{3F0CAC3D-8C0D-4697-BCE5-2D6C2FC0FD0F}" name="Lunch_x000a_11:00 AM - 12:00 PM" dataDxfId="12"/>
+    <tableColumn id="17" xr3:uid="{883E7140-D54F-4443-8533-BAC9F35D0F4F}" name="Transition_x000a_11:20 AM - 11:30 AM" dataDxfId="11"/>
+    <tableColumn id="18" xr3:uid="{F2425DE2-C26A-43F6-9323-CA77DB43098D}" name="Legacy Walk 3rd Rotation_x000a_11:30 AM - 12:00 PM" dataDxfId="10"/>
+    <tableColumn id="19" xr3:uid="{25BBB721-76DE-472F-A345-8A530801077B}" name="Transition to Legacy Walk_x000a_12:00 PM - 12:10 PM" dataDxfId="9"/>
+    <tableColumn id="20" xr3:uid="{527DA5D0-F788-4CA7-B279-5D95CDE0A9D8}" name="Legacy Walk 1st Rotation_x000a_12:10 PM - 12:40 PM" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{EDA85AEE-C8E5-42BA-8F04-F2E5ED716900}" name="Lunch_x000a_12:15 PM - 1:00 PM" dataDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{6341155B-4598-46E3-85D4-F65FBBA7912B}" name="Transition_x000a_12:40 PM - 12:50 PM" dataDxfId="6"/>
+    <tableColumn id="23" xr3:uid="{89F9286C-9ED7-40E5-B061-E2CBBE0354ED}" name="Legacy Walk 2nd Rotation_x000a_12:50 PM - 1:20 PM" dataDxfId="5"/>
+    <tableColumn id="24" xr3:uid="{D591A263-0D7C-4AF7-AFAB-E78478D6E052}" name="Saddle Up Shuffle_x000a_1:00 PM - 2:00 PM" dataDxfId="4"/>
+    <tableColumn id="25" xr3:uid="{FD0A9EDE-67C3-411F-8176-FD13125C9B42}" name="Transition_x000a_1:20 PM - 1:30 PM" dataDxfId="3"/>
+    <tableColumn id="26" xr3:uid="{F02F64DC-E1C1-413A-B929-19C742E0FF32}" name="Legacy Walk 3rd Rotation_x000a_1:30 PM - 2:00 PM" dataDxfId="2"/>
+    <tableColumn id="27" xr3:uid="{B49D177A-D32B-4236-821D-B7AB87417000}" name="Legacy Photo_x000a_2:00 PM - end" dataDxfId="1"/>
+    <tableColumn id="28" xr3:uid="{CD87A3D8-2BE8-4314-AD93-C525171744B9}" name="Legacy Walk Clean-up_x000a_2:00 PM - end " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1559,35 +1554,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CB4A9D-89C3-4A17-8052-CF4B27EC2D33}">
   <dimension ref="A1:AB234"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="5" customWidth="1"/>
-    <col min="4" max="4" width="36.54296875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="5"/>
-    <col min="6" max="6" width="18.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="16.6328125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="17.90625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="17.26953125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="19.453125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="19" style="5" customWidth="1"/>
-    <col min="13" max="13" width="22.1796875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="17.90625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="22.08984375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="17.90625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="18.1796875" style="5" customWidth="1"/>
-    <col min="18" max="18" width="22.81640625" style="5" customWidth="1"/>
-    <col min="19" max="19" width="21.90625" style="5" customWidth="1"/>
-    <col min="20" max="20" width="21.6328125" style="5" customWidth="1"/>
-    <col min="21" max="22" width="17.453125" style="5" customWidth="1"/>
-    <col min="23" max="28" width="23.453125" style="5" customWidth="1"/>
-    <col min="29" max="16384" width="8.7265625" style="5"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="36.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" customWidth="1"/>
+    <col min="8" max="8" width="16.6328125" customWidth="1"/>
+    <col min="9" max="9" width="17.90625" customWidth="1"/>
+    <col min="10" max="10" width="17.26953125" customWidth="1"/>
+    <col min="11" max="11" width="19.453125" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="13" max="13" width="22.1796875" customWidth="1"/>
+    <col min="14" max="14" width="17.90625" customWidth="1"/>
+    <col min="15" max="15" width="22.08984375" customWidth="1"/>
+    <col min="16" max="16" width="17.90625" customWidth="1"/>
+    <col min="17" max="17" width="18.1796875" customWidth="1"/>
+    <col min="18" max="18" width="22.81640625" customWidth="1"/>
+    <col min="19" max="19" width="21.90625" customWidth="1"/>
+    <col min="20" max="20" width="21.6328125" customWidth="1"/>
+    <col min="21" max="22" width="17.453125" customWidth="1"/>
+    <col min="23" max="28" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
@@ -1669,14 +1662,14 @@
       <c r="Z1" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="5" t="s">
         <v>278</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1688,7 +1681,7 @@
       <c r="E2" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="2" t="s">
         <v>251</v>
       </c>
       <c r="G2" s="2"/>
@@ -1714,7 +1707,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
     </row>
-    <row r="3" spans="1:28" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1726,7 +1719,7 @@
       <c r="E3" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="2" t="s">
         <v>252</v>
       </c>
       <c r="G3" s="2"/>
@@ -1752,7 +1745,7 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
     </row>
-    <row r="4" spans="1:28" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1764,7 +1757,7 @@
       <c r="E4" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="2" t="s">
         <v>251</v>
       </c>
       <c r="G4" s="2"/>
@@ -1790,7 +1783,7 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
     </row>
-    <row r="5" spans="1:28" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1802,7 +1795,7 @@
       <c r="E5" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="2" t="s">
         <v>251</v>
       </c>
       <c r="G5" s="2"/>
@@ -1828,7 +1821,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
     </row>
-    <row r="6" spans="1:28" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1840,7 +1833,7 @@
       <c r="E6" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="2" t="s">
         <v>251</v>
       </c>
       <c r="G6" s="2"/>
@@ -1866,7 +1859,7 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
     </row>
-    <row r="7" spans="1:28" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1878,7 +1871,7 @@
       <c r="E7" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="2" t="s">
         <v>251</v>
       </c>
       <c r="G7" s="2"/>
@@ -1904,7 +1897,7 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
     </row>
-    <row r="8" spans="1:28" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1916,7 +1909,7 @@
       <c r="E8" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="2" t="s">
         <v>251</v>
       </c>
       <c r="G8" s="2"/>
@@ -1942,7 +1935,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
     </row>
-    <row r="9" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1976,7 +1969,7 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
     </row>
-    <row r="10" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -2010,11 +2003,11 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
     </row>
-    <row r="11" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="3">
@@ -2060,17 +2053,19 @@
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
+      <c r="X11" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
     </row>
-    <row r="12" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="3">
@@ -2114,17 +2109,19 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
+      <c r="X12" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
     </row>
-    <row r="13" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="3">
@@ -2168,13 +2165,15 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
+      <c r="X13" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
     </row>
-    <row r="14" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -2198,25 +2197,39 @@
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="L14" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
+      <c r="S14" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
+      <c r="V14" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
+      <c r="Y14" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
     </row>
-    <row r="15" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -2240,25 +2253,39 @@
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
+      <c r="S15" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
+      <c r="V15" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
+      <c r="Y15" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
     </row>
-    <row r="16" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -2282,25 +2309,39 @@
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
+      <c r="S16" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
+      <c r="V16" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
+      <c r="Y16" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
     </row>
-    <row r="17" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -2324,25 +2365,39 @@
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
+      <c r="S17" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
+      <c r="V17" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
+      <c r="Y17" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
     </row>
-    <row r="18" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -2366,25 +2421,39 @@
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="L18" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
+      <c r="S18" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
+      <c r="V18" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
+      <c r="Y18" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
     </row>
-    <row r="19" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -2408,25 +2477,39 @@
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+      <c r="L19" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
+      <c r="S19" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
+      <c r="V19" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
+      <c r="Y19" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z19" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
     </row>
-    <row r="20" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
@@ -2450,25 +2533,39 @@
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="L20" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
+      <c r="S20" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
+      <c r="V20" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
+      <c r="Y20" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z20" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
     </row>
-    <row r="21" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
@@ -2492,25 +2589,39 @@
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="L21" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
+      <c r="S21" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
+      <c r="V21" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
+      <c r="Y21" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
     </row>
-    <row r="22" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -2534,25 +2645,39 @@
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="L22" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
+      <c r="S22" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
+      <c r="V22" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
+      <c r="Y22" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
     </row>
-    <row r="23" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
@@ -2576,25 +2701,39 @@
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+      <c r="L23" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
+      <c r="S23" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
+      <c r="V23" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
+      <c r="Y23" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
     </row>
-    <row r="24" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
@@ -2618,25 +2757,39 @@
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
+      <c r="L24" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
+      <c r="S24" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
+      <c r="V24" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
+      <c r="Y24" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
     </row>
-    <row r="25" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
@@ -2660,25 +2813,39 @@
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+      <c r="L25" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
+      <c r="S25" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
+      <c r="V25" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
+      <c r="Y25" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
     </row>
-    <row r="26" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2702,25 +2869,39 @@
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
+      <c r="L26" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
+      <c r="S26" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
+      <c r="V26" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
+      <c r="Y26" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
     </row>
-    <row r="27" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
@@ -2744,25 +2925,39 @@
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+      <c r="L27" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
+      <c r="S27" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
+      <c r="V27" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
+      <c r="Y27" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z27" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
     </row>
-    <row r="28" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2786,29 +2981,43 @@
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
+      <c r="L28" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
+      <c r="S28" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
+      <c r="V28" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
+      <c r="Y28" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z28" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
     </row>
-    <row r="29" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="3">
@@ -2852,17 +3061,19 @@
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
+      <c r="X29" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
     </row>
-    <row r="30" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="3">
@@ -2906,17 +3117,19 @@
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
+      <c r="X30" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
     </row>
-    <row r="31" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="3">
@@ -2960,17 +3173,19 @@
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
+      <c r="X31" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
     </row>
-    <row r="32" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="3">
@@ -3014,17 +3229,19 @@
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
+      <c r="X32" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
     </row>
-    <row r="33" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="3">
@@ -3068,17 +3285,19 @@
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
+      <c r="X33" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
     </row>
-    <row r="34" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="3">
@@ -3122,17 +3341,19 @@
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
+      <c r="X34" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
     </row>
-    <row r="35" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="3">
@@ -3176,17 +3397,19 @@
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
+      <c r="X35" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
     </row>
-    <row r="36" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="3">
@@ -3230,17 +3453,19 @@
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
+      <c r="X36" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
     </row>
-    <row r="37" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="3">
@@ -3284,17 +3509,19 @@
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
+      <c r="X37" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
     </row>
-    <row r="38" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="3">
@@ -3338,17 +3565,19 @@
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
+      <c r="X38" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
     </row>
-    <row r="39" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="3">
@@ -3392,17 +3621,19 @@
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
+      <c r="X39" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
     </row>
-    <row r="40" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C40" s="3">
@@ -3446,13 +3677,15 @@
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
+      <c r="X40" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
     </row>
-    <row r="41" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>43</v>
       </c>
@@ -3476,29 +3709,43 @@
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
+      <c r="L41" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
+      <c r="S41" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
+      <c r="V41" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W41" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
+      <c r="Y41" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z41" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
     </row>
-    <row r="42" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C42" s="3">
@@ -3517,30 +3764,44 @@
         <v>259</v>
       </c>
       <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
+      <c r="K42" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="M42" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
+      <c r="Q42" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
+      <c r="X42" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
     </row>
-    <row r="43" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C43" s="3">
@@ -3559,26 +3820,40 @@
         <v>259</v>
       </c>
       <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
+      <c r="K43" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="M43" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
+      <c r="Q43" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
+      <c r="X43" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
     </row>
-    <row r="44" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>48</v>
       </c>
@@ -3602,29 +3877,43 @@
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
+      <c r="L44" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
+      <c r="S44" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
+      <c r="V44" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W44" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
+      <c r="Y44" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z44" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
     </row>
-    <row r="45" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C45" s="3">
@@ -3643,30 +3932,44 @@
         <v>259</v>
       </c>
       <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
+      <c r="K45" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+      <c r="M45" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
+      <c r="Q45" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
+      <c r="X45" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
     </row>
-    <row r="46" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C46" s="3">
@@ -3685,26 +3988,40 @@
         <v>259</v>
       </c>
       <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
+      <c r="K46" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="M46" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
+      <c r="Q46" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
-      <c r="X46" s="2"/>
+      <c r="X46" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
     </row>
-    <row r="47" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>51</v>
       </c>
@@ -3728,29 +4045,43 @@
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
+      <c r="L47" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
+      <c r="S47" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
+      <c r="V47" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W47" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
+      <c r="Y47" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z47" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
     </row>
-    <row r="48" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C48" s="3">
@@ -3769,26 +4100,40 @@
         <v>259</v>
       </c>
       <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
+      <c r="K48" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+      <c r="M48" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
+      <c r="Q48" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
+      <c r="X48" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
     </row>
-    <row r="49" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>53</v>
       </c>
@@ -3812,25 +4157,39 @@
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
+      <c r="L49" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
+      <c r="S49" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
+      <c r="V49" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W49" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
+      <c r="Y49" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z49" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
     </row>
-    <row r="50" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>54</v>
       </c>
@@ -3854,25 +4213,39 @@
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
+      <c r="L50" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
+      <c r="S50" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
+      <c r="V50" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W50" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="2"/>
+      <c r="Y50" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z50" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
     </row>
-    <row r="51" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>55</v>
       </c>
@@ -3896,25 +4269,39 @@
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
+      <c r="L51" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
+      <c r="S51" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
+      <c r="V51" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W51" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
+      <c r="Y51" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z51" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
     </row>
-    <row r="52" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>56</v>
       </c>
@@ -3938,25 +4325,39 @@
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
+      <c r="L52" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
+      <c r="S52" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
+      <c r="V52" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W52" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="X52" s="2"/>
-      <c r="Y52" s="2"/>
-      <c r="Z52" s="2"/>
+      <c r="Y52" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z52" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
     </row>
-    <row r="53" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -3980,25 +4381,39 @@
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
+      <c r="L53" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
+      <c r="S53" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
+      <c r="V53" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W53" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-      <c r="Z53" s="2"/>
+      <c r="Y53" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z53" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
     </row>
-    <row r="54" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>58</v>
       </c>
@@ -4022,25 +4437,39 @@
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
+      <c r="L54" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
+      <c r="S54" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
+      <c r="V54" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W54" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
-      <c r="Z54" s="2"/>
+      <c r="Y54" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z54" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
     </row>
-    <row r="55" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>59</v>
       </c>
@@ -4064,25 +4493,39 @@
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
+      <c r="L55" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
+      <c r="S55" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
+      <c r="V55" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W55" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
-      <c r="Z55" s="2"/>
+      <c r="Y55" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z55" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
     </row>
-    <row r="56" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>60</v>
       </c>
@@ -4106,25 +4549,39 @@
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
+      <c r="L56" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
+      <c r="S56" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="U56" s="2"/>
-      <c r="V56" s="2"/>
-      <c r="W56" s="2"/>
+      <c r="V56" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W56" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="X56" s="2"/>
-      <c r="Y56" s="2"/>
-      <c r="Z56" s="2"/>
+      <c r="Y56" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z56" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
     </row>
-    <row r="57" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>61</v>
       </c>
@@ -4148,29 +4605,43 @@
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
+      <c r="L57" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
+      <c r="S57" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="U57" s="2"/>
-      <c r="V57" s="2"/>
-      <c r="W57" s="2"/>
+      <c r="V57" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W57" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="X57" s="2"/>
-      <c r="Y57" s="2"/>
-      <c r="Z57" s="2"/>
+      <c r="Y57" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z57" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
     </row>
-    <row r="58" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C58" s="3">
@@ -4189,26 +4660,40 @@
         <v>259</v>
       </c>
       <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
+      <c r="K58" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+      <c r="M58" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
+      <c r="Q58" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
+      <c r="X58" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
     </row>
-    <row r="59" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>63</v>
       </c>
@@ -4232,25 +4717,39 @@
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
+      <c r="L59" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
-      <c r="S59" s="2"/>
-      <c r="T59" s="2"/>
+      <c r="S59" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="U59" s="2"/>
-      <c r="V59" s="2"/>
-      <c r="W59" s="2"/>
+      <c r="V59" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W59" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="X59" s="2"/>
-      <c r="Y59" s="2"/>
-      <c r="Z59" s="2"/>
+      <c r="Y59" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z59" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="AA59" s="2"/>
       <c r="AB59" s="2"/>
     </row>
-    <row r="60" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>64</v>
       </c>
@@ -4274,29 +4773,43 @@
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
+      <c r="L60" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
-      <c r="S60" s="2"/>
-      <c r="T60" s="2"/>
+      <c r="S60" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="U60" s="2"/>
-      <c r="V60" s="2"/>
-      <c r="W60" s="2"/>
+      <c r="V60" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W60" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="X60" s="2"/>
-      <c r="Y60" s="2"/>
-      <c r="Z60" s="2"/>
+      <c r="Y60" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z60" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="AA60" s="2"/>
       <c r="AB60" s="2"/>
     </row>
-    <row r="61" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C61" s="3">
@@ -4315,30 +4828,44 @@
         <v>259</v>
       </c>
       <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
+      <c r="K61" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+      <c r="M61" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2"/>
+      <c r="Q61" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
-      <c r="X61" s="2"/>
+      <c r="X61" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
       <c r="AB61" s="2"/>
     </row>
-    <row r="62" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C62" s="3">
@@ -4357,30 +4884,44 @@
         <v>259</v>
       </c>
       <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
+      <c r="K62" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+      <c r="M62" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
+      <c r="Q62" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="R62" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
-      <c r="X62" s="2"/>
+      <c r="X62" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
       <c r="AB62" s="2"/>
     </row>
-    <row r="63" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C63" s="3">
@@ -4399,30 +4940,44 @@
         <v>259</v>
       </c>
       <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
+      <c r="K63" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+      <c r="M63" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="2"/>
+      <c r="Q63" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="R63" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
-      <c r="X63" s="2"/>
+      <c r="X63" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
       <c r="AB63" s="2"/>
     </row>
-    <row r="64" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C64" s="3">
@@ -4441,30 +4996,44 @@
         <v>259</v>
       </c>
       <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
+      <c r="K64" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+      <c r="M64" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="2"/>
+      <c r="Q64" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="R64" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
-      <c r="X64" s="2"/>
+      <c r="X64" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
       <c r="AB64" s="2"/>
     </row>
-    <row r="65" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C65" s="3">
@@ -4483,30 +5052,44 @@
         <v>259</v>
       </c>
       <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
+      <c r="K65" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+      <c r="M65" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
+      <c r="Q65" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="R65" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
-      <c r="X65" s="2"/>
+      <c r="X65" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
       <c r="AB65" s="2"/>
     </row>
-    <row r="66" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C66" s="3">
@@ -4525,30 +5108,44 @@
         <v>259</v>
       </c>
       <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
+      <c r="K66" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
+      <c r="M66" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="2"/>
+      <c r="Q66" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="R66" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
-      <c r="X66" s="2"/>
+      <c r="X66" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
       <c r="AB66" s="2"/>
     </row>
-    <row r="67" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C67" s="3">
@@ -4567,30 +5164,44 @@
         <v>259</v>
       </c>
       <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
+      <c r="K67" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+      <c r="M67" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
+      <c r="Q67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
-      <c r="X67" s="2"/>
+      <c r="X67" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
       <c r="AB67" s="2"/>
     </row>
-    <row r="68" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C68" s="3">
@@ -4609,30 +5220,44 @@
         <v>259</v>
       </c>
       <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
+      <c r="K68" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+      <c r="M68" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
+      <c r="Q68" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
-      <c r="X68" s="2"/>
+      <c r="X68" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
       <c r="AB68" s="2"/>
     </row>
-    <row r="69" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C69" s="3">
@@ -4651,30 +5276,44 @@
         <v>259</v>
       </c>
       <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
+      <c r="K69" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+      <c r="M69" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
+      <c r="Q69" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="R69" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
-      <c r="X69" s="2"/>
+      <c r="X69" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
       <c r="AB69" s="2"/>
     </row>
-    <row r="70" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C70" s="3">
@@ -4693,26 +5332,40 @@
         <v>259</v>
       </c>
       <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
+      <c r="K70" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+      <c r="M70" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="P70" s="2"/>
-      <c r="Q70" s="2"/>
-      <c r="R70" s="2"/>
+      <c r="Q70" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
-      <c r="X70" s="2"/>
+      <c r="X70" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
       <c r="AB70" s="2"/>
     </row>
-    <row r="71" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>75</v>
       </c>
@@ -4736,21 +5389,35 @@
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
+      <c r="L71" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
-      <c r="S71" s="2"/>
-      <c r="T71" s="2"/>
+      <c r="S71" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="T71" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="U71" s="2"/>
-      <c r="V71" s="2"/>
-      <c r="W71" s="2"/>
+      <c r="V71" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W71" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="X71" s="2"/>
-      <c r="Y71" s="2"/>
-      <c r="Z71" s="2"/>
+      <c r="Y71" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z71" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="AA71" s="2"/>
       <c r="AB71" s="2"/>
     </row>
@@ -4758,7 +5425,7 @@
       <c r="A72" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C72" s="3">
@@ -4777,20 +5444,36 @@
         <v>259</v>
       </c>
       <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
+      <c r="K72" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+      <c r="M72" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="2"/>
+      <c r="Q72" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R72" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
-      <c r="U72" s="2"/>
+      <c r="U72" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
-      <c r="X72" s="2"/>
+      <c r="X72" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
@@ -4800,7 +5483,7 @@
       <c r="A73" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C73" s="3">
@@ -4819,26 +5502,42 @@
         <v>259</v>
       </c>
       <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
+      <c r="K73" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+      <c r="M73" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
-      <c r="R73" s="2"/>
+      <c r="Q73" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R73" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
-      <c r="U73" s="2"/>
+      <c r="U73" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
-      <c r="X73" s="2"/>
+      <c r="X73" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
       <c r="AA73" s="2"/>
       <c r="AB73" s="2"/>
     </row>
-    <row r="74" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>80</v>
       </c>
@@ -4862,25 +5561,39 @@
       </c>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
+      <c r="L74" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
-      <c r="S74" s="2"/>
-      <c r="T74" s="2"/>
+      <c r="S74" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="T74" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="U74" s="2"/>
-      <c r="V74" s="2"/>
-      <c r="W74" s="2"/>
+      <c r="V74" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W74" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="X74" s="2"/>
-      <c r="Y74" s="2"/>
-      <c r="Z74" s="2"/>
+      <c r="Y74" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z74" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="AA74" s="2"/>
       <c r="AB74" s="2"/>
     </row>
-    <row r="75" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>81</v>
       </c>
@@ -4904,25 +5617,39 @@
       </c>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
+      <c r="L75" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
-      <c r="T75" s="2"/>
+      <c r="S75" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="T75" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="U75" s="2"/>
-      <c r="V75" s="2"/>
-      <c r="W75" s="2"/>
+      <c r="V75" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W75" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="X75" s="2"/>
-      <c r="Y75" s="2"/>
-      <c r="Z75" s="2"/>
+      <c r="Y75" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z75" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="AA75" s="2"/>
       <c r="AB75" s="2"/>
     </row>
-    <row r="76" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>82</v>
       </c>
@@ -4946,25 +5673,39 @@
       </c>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
+      <c r="L76" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
-      <c r="T76" s="2"/>
+      <c r="S76" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="T76" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="U76" s="2"/>
-      <c r="V76" s="2"/>
-      <c r="W76" s="2"/>
+      <c r="V76" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W76" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="X76" s="2"/>
-      <c r="Y76" s="2"/>
-      <c r="Z76" s="2"/>
+      <c r="Y76" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z76" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="AA76" s="2"/>
       <c r="AB76" s="2"/>
     </row>
-    <row r="77" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>83</v>
       </c>
@@ -4988,25 +5729,39 @@
       </c>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
+      <c r="L77" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
-      <c r="S77" s="2"/>
-      <c r="T77" s="2"/>
+      <c r="S77" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="T77" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="U77" s="2"/>
-      <c r="V77" s="2"/>
-      <c r="W77" s="2"/>
+      <c r="V77" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W77" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="X77" s="2"/>
-      <c r="Y77" s="2"/>
-      <c r="Z77" s="2"/>
+      <c r="Y77" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z77" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="AA77" s="2"/>
       <c r="AB77" s="2"/>
     </row>
-    <row r="78" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>84</v>
       </c>
@@ -5030,21 +5785,35 @@
       </c>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
+      <c r="L78" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
-      <c r="T78" s="2"/>
+      <c r="S78" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="U78" s="2"/>
-      <c r="V78" s="2"/>
-      <c r="W78" s="2"/>
+      <c r="V78" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W78" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="X78" s="2"/>
-      <c r="Y78" s="2"/>
-      <c r="Z78" s="2"/>
+      <c r="Y78" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z78" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="AA78" s="2"/>
       <c r="AB78" s="2"/>
     </row>
@@ -5052,7 +5821,7 @@
       <c r="A79" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C79" s="3">
@@ -5071,20 +5840,34 @@
         <v>259</v>
       </c>
       <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
+      <c r="K79" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+      <c r="M79" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
+      <c r="Q79" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R79" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
       <c r="V79" s="2"/>
       <c r="W79" s="2"/>
-      <c r="X79" s="2"/>
+      <c r="X79" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
@@ -5094,7 +5877,7 @@
       <c r="A80" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C80" s="3">
@@ -5113,20 +5896,34 @@
         <v>259</v>
       </c>
       <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
+      <c r="K80" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+      <c r="M80" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="P80" s="2"/>
-      <c r="Q80" s="2"/>
-      <c r="R80" s="2"/>
+      <c r="Q80" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
-      <c r="X80" s="2"/>
+      <c r="X80" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
       <c r="AA80" s="2"/>
@@ -5136,7 +5933,7 @@
       <c r="A81" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C81" s="3">
@@ -5155,20 +5952,34 @@
         <v>259</v>
       </c>
       <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
+      <c r="K81" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
+      <c r="M81" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="P81" s="2"/>
-      <c r="Q81" s="2"/>
-      <c r="R81" s="2"/>
+      <c r="Q81" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R81" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
-      <c r="X81" s="2"/>
+      <c r="X81" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
@@ -5178,7 +5989,7 @@
       <c r="A82" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C82" s="3">
@@ -5197,20 +6008,34 @@
         <v>259</v>
       </c>
       <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
+      <c r="K82" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
+      <c r="M82" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
-      <c r="R82" s="2"/>
+      <c r="Q82" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R82" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>
       <c r="W82" s="2"/>
-      <c r="X82" s="2"/>
+      <c r="X82" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
       <c r="AA82" s="2"/>
@@ -5220,7 +6045,7 @@
       <c r="A83" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C83" s="3">
@@ -5239,20 +6064,34 @@
         <v>259</v>
       </c>
       <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
+      <c r="K83" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
+      <c r="M83" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="P83" s="2"/>
-      <c r="Q83" s="2"/>
-      <c r="R83" s="2"/>
+      <c r="Q83" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R83" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
       <c r="W83" s="2"/>
-      <c r="X83" s="2"/>
+      <c r="X83" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
@@ -5262,7 +6101,7 @@
       <c r="A84" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C84" s="3">
@@ -5281,20 +6120,34 @@
         <v>259</v>
       </c>
       <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
+      <c r="K84" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
+      <c r="M84" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="P84" s="2"/>
-      <c r="Q84" s="2"/>
-      <c r="R84" s="2"/>
+      <c r="Q84" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R84" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
       <c r="W84" s="2"/>
-      <c r="X84" s="2"/>
+      <c r="X84" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
@@ -5304,7 +6157,7 @@
       <c r="A85" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C85" s="3">
@@ -5323,20 +6176,34 @@
         <v>259</v>
       </c>
       <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
+      <c r="K85" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
+      <c r="M85" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="P85" s="2"/>
-      <c r="Q85" s="2"/>
-      <c r="R85" s="2"/>
+      <c r="Q85" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R85" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
       <c r="V85" s="2"/>
       <c r="W85" s="2"/>
-      <c r="X85" s="2"/>
+      <c r="X85" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
@@ -5346,7 +6213,7 @@
       <c r="A86" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C86" s="3">
@@ -5365,20 +6232,34 @@
         <v>259</v>
       </c>
       <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
+      <c r="K86" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
+      <c r="M86" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="P86" s="2"/>
-      <c r="Q86" s="2"/>
-      <c r="R86" s="2"/>
+      <c r="Q86" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R86" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
       <c r="V86" s="2"/>
       <c r="W86" s="2"/>
-      <c r="X86" s="2"/>
+      <c r="X86" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
@@ -5388,7 +6269,7 @@
       <c r="A87" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C87" s="3">
@@ -5407,20 +6288,34 @@
         <v>259</v>
       </c>
       <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
+      <c r="K87" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
+      <c r="M87" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="P87" s="2"/>
-      <c r="Q87" s="2"/>
-      <c r="R87" s="2"/>
+      <c r="Q87" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R87" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
       <c r="V87" s="2"/>
       <c r="W87" s="2"/>
-      <c r="X87" s="2"/>
+      <c r="X87" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
       <c r="AA87" s="2"/>
@@ -5430,7 +6325,7 @@
       <c r="A88" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C88" s="3">
@@ -5449,26 +6344,40 @@
         <v>259</v>
       </c>
       <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
+      <c r="K88" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
+      <c r="M88" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="P88" s="2"/>
-      <c r="Q88" s="2"/>
-      <c r="R88" s="2"/>
+      <c r="Q88" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R88" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
       <c r="V88" s="2"/>
       <c r="W88" s="2"/>
-      <c r="X88" s="2"/>
+      <c r="X88" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
       <c r="AA88" s="2"/>
       <c r="AB88" s="2"/>
     </row>
-    <row r="89" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>95</v>
       </c>
@@ -5492,25 +6401,39 @@
       </c>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
+      <c r="L89" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
       <c r="R89" s="2"/>
-      <c r="S89" s="2"/>
-      <c r="T89" s="2"/>
+      <c r="S89" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="T89" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="U89" s="2"/>
-      <c r="V89" s="2"/>
-      <c r="W89" s="2"/>
+      <c r="V89" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W89" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="X89" s="2"/>
-      <c r="Y89" s="2"/>
-      <c r="Z89" s="2"/>
+      <c r="Y89" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z89" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="AA89" s="2"/>
       <c r="AB89" s="2"/>
     </row>
-    <row r="90" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>96</v>
       </c>
@@ -5534,25 +6457,39 @@
       </c>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
+      <c r="L90" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
       <c r="Q90" s="2"/>
       <c r="R90" s="2"/>
-      <c r="S90" s="2"/>
-      <c r="T90" s="2"/>
+      <c r="S90" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="T90" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="U90" s="2"/>
-      <c r="V90" s="2"/>
-      <c r="W90" s="2"/>
+      <c r="V90" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W90" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="X90" s="2"/>
-      <c r="Y90" s="2"/>
-      <c r="Z90" s="2"/>
+      <c r="Y90" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z90" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="AA90" s="2"/>
       <c r="AB90" s="2"/>
     </row>
-    <row r="91" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>97</v>
       </c>
@@ -5576,25 +6513,39 @@
       </c>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
+      <c r="L91" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
       <c r="R91" s="2"/>
-      <c r="S91" s="2"/>
-      <c r="T91" s="2"/>
+      <c r="S91" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="T91" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="U91" s="2"/>
-      <c r="V91" s="2"/>
-      <c r="W91" s="2"/>
+      <c r="V91" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W91" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="X91" s="2"/>
-      <c r="Y91" s="2"/>
-      <c r="Z91" s="2"/>
+      <c r="Y91" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z91" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="AA91" s="2"/>
       <c r="AB91" s="2"/>
     </row>
-    <row r="92" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>98</v>
       </c>
@@ -5618,25 +6569,39 @@
       </c>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
+      <c r="L92" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
       <c r="R92" s="2"/>
-      <c r="S92" s="2"/>
-      <c r="T92" s="2"/>
+      <c r="S92" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="T92" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="U92" s="2"/>
-      <c r="V92" s="2"/>
-      <c r="W92" s="2"/>
+      <c r="V92" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W92" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="X92" s="2"/>
-      <c r="Y92" s="2"/>
-      <c r="Z92" s="2"/>
+      <c r="Y92" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z92" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="AA92" s="2"/>
       <c r="AB92" s="2"/>
     </row>
-    <row r="93" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>99</v>
       </c>
@@ -5660,25 +6625,39 @@
       </c>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
+      <c r="L93" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
       <c r="Q93" s="2"/>
       <c r="R93" s="2"/>
-      <c r="S93" s="2"/>
-      <c r="T93" s="2"/>
+      <c r="S93" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="T93" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="U93" s="2"/>
-      <c r="V93" s="2"/>
-      <c r="W93" s="2"/>
+      <c r="V93" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W93" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="X93" s="2"/>
-      <c r="Y93" s="2"/>
-      <c r="Z93" s="2"/>
+      <c r="Y93" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z93" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="AA93" s="2"/>
       <c r="AB93" s="2"/>
     </row>
-    <row r="94" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>100</v>
       </c>
@@ -5702,25 +6681,39 @@
       </c>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
+      <c r="L94" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
       <c r="R94" s="2"/>
-      <c r="S94" s="2"/>
-      <c r="T94" s="2"/>
+      <c r="S94" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="T94" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="U94" s="2"/>
-      <c r="V94" s="2"/>
-      <c r="W94" s="2"/>
+      <c r="V94" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W94" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="X94" s="2"/>
-      <c r="Y94" s="2"/>
-      <c r="Z94" s="2"/>
+      <c r="Y94" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z94" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="AA94" s="2"/>
       <c r="AB94" s="2"/>
     </row>
-    <row r="95" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>101</v>
       </c>
@@ -5744,25 +6737,39 @@
       </c>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
+      <c r="L95" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
       <c r="Q95" s="2"/>
       <c r="R95" s="2"/>
-      <c r="S95" s="2"/>
-      <c r="T95" s="2"/>
+      <c r="S95" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="T95" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="U95" s="2"/>
-      <c r="V95" s="2"/>
-      <c r="W95" s="2"/>
+      <c r="V95" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W95" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="X95" s="2"/>
-      <c r="Y95" s="2"/>
-      <c r="Z95" s="2"/>
+      <c r="Y95" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z95" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="AA95" s="2"/>
       <c r="AB95" s="2"/>
     </row>
-    <row r="96" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>102</v>
       </c>
@@ -5786,21 +6793,35 @@
       </c>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
+      <c r="L96" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
       <c r="R96" s="2"/>
-      <c r="S96" s="2"/>
-      <c r="T96" s="2"/>
+      <c r="S96" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="T96" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="U96" s="2"/>
-      <c r="V96" s="2"/>
-      <c r="W96" s="2"/>
+      <c r="V96" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W96" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="X96" s="2"/>
-      <c r="Y96" s="2"/>
-      <c r="Z96" s="2"/>
+      <c r="Y96" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z96" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="AA96" s="2"/>
       <c r="AB96" s="2"/>
     </row>
@@ -5808,7 +6829,7 @@
       <c r="A97" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="6" t="s">
         <v>281</v>
       </c>
       <c r="C97" s="3">
@@ -5827,20 +6848,34 @@
         <v>259</v>
       </c>
       <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
+      <c r="K97" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
+      <c r="M97" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="P97" s="2"/>
-      <c r="Q97" s="2"/>
-      <c r="R97" s="2"/>
+      <c r="Q97" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R97" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
       <c r="U97" s="2"/>
       <c r="V97" s="2"/>
       <c r="W97" s="2"/>
-      <c r="X97" s="2"/>
+      <c r="X97" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
       <c r="AA97" s="2"/>
@@ -5850,7 +6885,7 @@
       <c r="A98" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="6" t="s">
         <v>281</v>
       </c>
       <c r="C98" s="3">
@@ -5869,20 +6904,34 @@
         <v>259</v>
       </c>
       <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
+      <c r="K98" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="L98" s="2"/>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
+      <c r="M98" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N98" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O98" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="P98" s="2"/>
-      <c r="Q98" s="2"/>
-      <c r="R98" s="2"/>
+      <c r="Q98" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R98" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
       <c r="U98" s="2"/>
       <c r="V98" s="2"/>
       <c r="W98" s="2"/>
-      <c r="X98" s="2"/>
+      <c r="X98" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
       <c r="AA98" s="2"/>
@@ -5892,7 +6941,7 @@
       <c r="A99" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="6" t="s">
         <v>281</v>
       </c>
       <c r="C99" s="3">
@@ -5911,20 +6960,34 @@
         <v>259</v>
       </c>
       <c r="J99" s="2"/>
-      <c r="K99" s="2"/>
+      <c r="K99" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="L99" s="2"/>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
+      <c r="M99" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="P99" s="2"/>
-      <c r="Q99" s="2"/>
-      <c r="R99" s="2"/>
+      <c r="Q99" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R99" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
       <c r="U99" s="2"/>
       <c r="V99" s="2"/>
       <c r="W99" s="2"/>
-      <c r="X99" s="2"/>
+      <c r="X99" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
       <c r="AA99" s="2"/>
@@ -5934,7 +6997,7 @@
       <c r="A100" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="6" t="s">
         <v>281</v>
       </c>
       <c r="C100" s="3">
@@ -5953,20 +7016,34 @@
         <v>259</v>
       </c>
       <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
+      <c r="K100" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
+      <c r="M100" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N100" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="P100" s="2"/>
-      <c r="Q100" s="2"/>
-      <c r="R100" s="2"/>
+      <c r="Q100" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R100" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
       <c r="U100" s="2"/>
       <c r="V100" s="2"/>
       <c r="W100" s="2"/>
-      <c r="X100" s="2"/>
+      <c r="X100" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
       <c r="AA100" s="2"/>
@@ -5976,7 +7053,7 @@
       <c r="A101" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="6" t="s">
         <v>281</v>
       </c>
       <c r="C101" s="3">
@@ -5995,20 +7072,34 @@
         <v>259</v>
       </c>
       <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
+      <c r="K101" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
+      <c r="M101" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N101" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="P101" s="2"/>
-      <c r="Q101" s="2"/>
-      <c r="R101" s="2"/>
+      <c r="Q101" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R101" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
       <c r="U101" s="2"/>
       <c r="V101" s="2"/>
       <c r="W101" s="2"/>
-      <c r="X101" s="2"/>
+      <c r="X101" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
       <c r="AA101" s="2"/>
@@ -6018,7 +7109,7 @@
       <c r="A102" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="6" t="s">
         <v>281</v>
       </c>
       <c r="C102" s="3">
@@ -6037,30 +7128,44 @@
         <v>259</v>
       </c>
       <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
+      <c r="K102" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
+      <c r="M102" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N102" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="P102" s="2"/>
-      <c r="Q102" s="2"/>
-      <c r="R102" s="2"/>
+      <c r="Q102" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R102" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
       <c r="U102" s="2"/>
       <c r="V102" s="2"/>
       <c r="W102" s="2"/>
-      <c r="X102" s="2"/>
+      <c r="X102" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
       <c r="AA102" s="2"/>
       <c r="AB102" s="2"/>
     </row>
-    <row r="103" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C103" s="3">
@@ -6079,20 +7184,34 @@
         <v>259</v>
       </c>
       <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
+      <c r="K103" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
+      <c r="M103" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N103" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="P103" s="2"/>
-      <c r="Q103" s="2"/>
-      <c r="R103" s="2"/>
+      <c r="Q103" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="R103" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
       <c r="U103" s="2"/>
       <c r="V103" s="2"/>
       <c r="W103" s="2"/>
-      <c r="X103" s="2"/>
+      <c r="X103" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
       <c r="AA103" s="2"/>
@@ -6102,7 +7221,7 @@
       <c r="A104" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="6" t="s">
         <v>281</v>
       </c>
       <c r="C104" s="3">
@@ -6121,20 +7240,34 @@
         <v>259</v>
       </c>
       <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
+      <c r="K104" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
+      <c r="M104" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N104" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O104" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="P104" s="2"/>
-      <c r="Q104" s="2"/>
-      <c r="R104" s="2"/>
+      <c r="Q104" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R104" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
       <c r="U104" s="2"/>
       <c r="V104" s="2"/>
       <c r="W104" s="2"/>
-      <c r="X104" s="2"/>
+      <c r="X104" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
       <c r="AA104" s="2"/>
@@ -6144,7 +7277,7 @@
       <c r="A105" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="6" t="s">
         <v>281</v>
       </c>
       <c r="C105" s="3">
@@ -6163,20 +7296,34 @@
         <v>259</v>
       </c>
       <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
+      <c r="K105" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
+      <c r="M105" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O105" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="P105" s="2"/>
-      <c r="Q105" s="2"/>
-      <c r="R105" s="2"/>
+      <c r="Q105" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R105" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
       <c r="U105" s="2"/>
       <c r="V105" s="2"/>
       <c r="W105" s="2"/>
-      <c r="X105" s="2"/>
+      <c r="X105" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
       <c r="AA105" s="2"/>
@@ -6186,7 +7333,7 @@
       <c r="A106" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="6" t="s">
         <v>281</v>
       </c>
       <c r="C106" s="3">
@@ -6205,20 +7352,34 @@
         <v>259</v>
       </c>
       <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
+      <c r="K106" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
+      <c r="M106" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N106" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O106" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="P106" s="2"/>
-      <c r="Q106" s="2"/>
-      <c r="R106" s="2"/>
+      <c r="Q106" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R106" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
       <c r="U106" s="2"/>
       <c r="V106" s="2"/>
       <c r="W106" s="2"/>
-      <c r="X106" s="2"/>
+      <c r="X106" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
       <c r="AA106" s="2"/>
@@ -6228,7 +7389,7 @@
       <c r="A107" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="6" t="s">
         <v>281</v>
       </c>
       <c r="C107" s="3">
@@ -6247,20 +7408,34 @@
         <v>259</v>
       </c>
       <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
+      <c r="K107" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
+      <c r="M107" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N107" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O107" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="P107" s="2"/>
-      <c r="Q107" s="2"/>
-      <c r="R107" s="2"/>
+      <c r="Q107" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R107" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
       <c r="U107" s="2"/>
       <c r="V107" s="2"/>
       <c r="W107" s="2"/>
-      <c r="X107" s="2"/>
+      <c r="X107" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
       <c r="AA107" s="2"/>
@@ -6270,7 +7445,7 @@
       <c r="A108" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="6" t="s">
         <v>281</v>
       </c>
       <c r="C108" s="3">
@@ -6289,20 +7464,34 @@
         <v>259</v>
       </c>
       <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
+      <c r="K108" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
+      <c r="M108" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N108" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="P108" s="2"/>
-      <c r="Q108" s="2"/>
-      <c r="R108" s="2"/>
+      <c r="Q108" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R108" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
       <c r="U108" s="2"/>
       <c r="V108" s="2"/>
       <c r="W108" s="2"/>
-      <c r="X108" s="2"/>
+      <c r="X108" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
       <c r="AA108" s="2"/>
@@ -6312,7 +7501,7 @@
       <c r="A109" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="6" t="s">
         <v>281</v>
       </c>
       <c r="C109" s="3">
@@ -6331,20 +7520,34 @@
         <v>259</v>
       </c>
       <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
+      <c r="K109" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
-      <c r="O109" s="2"/>
+      <c r="M109" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N109" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O109" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="P109" s="2"/>
-      <c r="Q109" s="2"/>
-      <c r="R109" s="2"/>
+      <c r="Q109" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R109" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
       <c r="U109" s="2"/>
       <c r="V109" s="2"/>
       <c r="W109" s="2"/>
-      <c r="X109" s="2"/>
+      <c r="X109" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
       <c r="AA109" s="2"/>
@@ -6354,7 +7557,7 @@
       <c r="A110" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="6" t="s">
         <v>281</v>
       </c>
       <c r="C110" s="3">
@@ -6373,20 +7576,34 @@
         <v>259</v>
       </c>
       <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
+      <c r="K110" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="L110" s="2"/>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
+      <c r="M110" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N110" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O110" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="P110" s="2"/>
-      <c r="Q110" s="2"/>
-      <c r="R110" s="2"/>
+      <c r="Q110" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R110" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
       <c r="U110" s="2"/>
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
-      <c r="X110" s="2"/>
+      <c r="X110" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
       <c r="AA110" s="2"/>
@@ -6396,7 +7613,7 @@
       <c r="A111" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="6" t="s">
         <v>281</v>
       </c>
       <c r="C111" s="3">
@@ -6415,30 +7632,44 @@
         <v>259</v>
       </c>
       <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
+      <c r="K111" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="L111" s="2"/>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
+      <c r="M111" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N111" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O111" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="P111" s="2"/>
-      <c r="Q111" s="2"/>
-      <c r="R111" s="2"/>
+      <c r="Q111" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R111" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
       <c r="U111" s="2"/>
       <c r="V111" s="2"/>
       <c r="W111" s="2"/>
-      <c r="X111" s="2"/>
+      <c r="X111" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
       <c r="AA111" s="2"/>
       <c r="AB111" s="2"/>
     </row>
-    <row r="112" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C112" s="3">
@@ -6457,20 +7688,34 @@
         <v>259</v>
       </c>
       <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
+      <c r="K112" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="L112" s="2"/>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
+      <c r="M112" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N112" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O112" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="P112" s="2"/>
-      <c r="Q112" s="2"/>
-      <c r="R112" s="2"/>
+      <c r="Q112" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="R112" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
       <c r="U112" s="2"/>
       <c r="V112" s="2"/>
       <c r="W112" s="2"/>
-      <c r="X112" s="2"/>
+      <c r="X112" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
       <c r="AA112" s="2"/>
@@ -6480,7 +7725,7 @@
       <c r="A113" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="6" t="s">
         <v>281</v>
       </c>
       <c r="C113" s="3">
@@ -6499,30 +7744,44 @@
         <v>259</v>
       </c>
       <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
+      <c r="K113" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="L113" s="2"/>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
+      <c r="M113" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N113" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O113" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="P113" s="2"/>
-      <c r="Q113" s="2"/>
-      <c r="R113" s="2"/>
+      <c r="Q113" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R113" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
       <c r="U113" s="2"/>
       <c r="V113" s="2"/>
       <c r="W113" s="2"/>
-      <c r="X113" s="2"/>
+      <c r="X113" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
       <c r="AA113" s="2"/>
       <c r="AB113" s="2"/>
     </row>
-    <row r="114" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C114" s="3">
@@ -6541,30 +7800,44 @@
         <v>259</v>
       </c>
       <c r="J114" s="2"/>
-      <c r="K114" s="2"/>
+      <c r="K114" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="L114" s="2"/>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2"/>
+      <c r="M114" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N114" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="P114" s="2"/>
-      <c r="Q114" s="2"/>
-      <c r="R114" s="2"/>
+      <c r="Q114" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="R114" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
       <c r="U114" s="2"/>
       <c r="V114" s="2"/>
       <c r="W114" s="2"/>
-      <c r="X114" s="2"/>
+      <c r="X114" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
       <c r="AA114" s="2"/>
       <c r="AB114" s="2"/>
     </row>
-    <row r="115" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C115" s="3">
@@ -6583,30 +7856,44 @@
         <v>259</v>
       </c>
       <c r="J115" s="2"/>
-      <c r="K115" s="2"/>
+      <c r="K115" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="L115" s="2"/>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
+      <c r="M115" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N115" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="P115" s="2"/>
-      <c r="Q115" s="2"/>
-      <c r="R115" s="2"/>
+      <c r="Q115" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="R115" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
       <c r="U115" s="2"/>
       <c r="V115" s="2"/>
       <c r="W115" s="2"/>
-      <c r="X115" s="2"/>
+      <c r="X115" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
       <c r="AA115" s="2"/>
       <c r="AB115" s="2"/>
     </row>
-    <row r="116" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C116" s="3">
@@ -6625,30 +7912,44 @@
         <v>259</v>
       </c>
       <c r="J116" s="2"/>
-      <c r="K116" s="2"/>
+      <c r="K116" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="L116" s="2"/>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-      <c r="O116" s="2"/>
+      <c r="M116" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N116" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O116" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="P116" s="2"/>
-      <c r="Q116" s="2"/>
-      <c r="R116" s="2"/>
+      <c r="Q116" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="R116" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
       <c r="U116" s="2"/>
       <c r="V116" s="2"/>
       <c r="W116" s="2"/>
-      <c r="X116" s="2"/>
+      <c r="X116" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
       <c r="AA116" s="2"/>
       <c r="AB116" s="2"/>
     </row>
-    <row r="117" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C117" s="3">
@@ -6667,30 +7968,44 @@
         <v>259</v>
       </c>
       <c r="J117" s="2"/>
-      <c r="K117" s="2"/>
+      <c r="K117" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="L117" s="2"/>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
-      <c r="O117" s="2"/>
+      <c r="M117" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N117" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O117" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="P117" s="2"/>
-      <c r="Q117" s="2"/>
-      <c r="R117" s="2"/>
+      <c r="Q117" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="R117" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
       <c r="U117" s="2"/>
       <c r="V117" s="2"/>
       <c r="W117" s="2"/>
-      <c r="X117" s="2"/>
+      <c r="X117" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
       <c r="AA117" s="2"/>
       <c r="AB117" s="2"/>
     </row>
-    <row r="118" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C118" s="3">
@@ -6709,30 +8024,44 @@
         <v>259</v>
       </c>
       <c r="J118" s="2"/>
-      <c r="K118" s="2"/>
+      <c r="K118" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="L118" s="2"/>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
-      <c r="O118" s="2"/>
+      <c r="M118" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N118" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O118" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="P118" s="2"/>
-      <c r="Q118" s="2"/>
-      <c r="R118" s="2"/>
+      <c r="Q118" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="R118" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
       <c r="U118" s="2"/>
       <c r="V118" s="2"/>
       <c r="W118" s="2"/>
-      <c r="X118" s="2"/>
+      <c r="X118" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
       <c r="AA118" s="2"/>
       <c r="AB118" s="2"/>
     </row>
-    <row r="119" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C119" s="3">
@@ -6751,30 +8080,44 @@
         <v>259</v>
       </c>
       <c r="J119" s="2"/>
-      <c r="K119" s="2"/>
+      <c r="K119" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="L119" s="2"/>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
-      <c r="O119" s="2"/>
+      <c r="M119" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N119" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O119" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="P119" s="2"/>
-      <c r="Q119" s="2"/>
-      <c r="R119" s="2"/>
+      <c r="Q119" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="R119" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
       <c r="U119" s="2"/>
       <c r="V119" s="2"/>
       <c r="W119" s="2"/>
-      <c r="X119" s="2"/>
+      <c r="X119" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
       <c r="AA119" s="2"/>
       <c r="AB119" s="2"/>
     </row>
-    <row r="120" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C120" s="3">
@@ -6793,30 +8136,44 @@
         <v>259</v>
       </c>
       <c r="J120" s="2"/>
-      <c r="K120" s="2"/>
+      <c r="K120" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="L120" s="2"/>
-      <c r="M120" s="2"/>
-      <c r="N120" s="2"/>
-      <c r="O120" s="2"/>
+      <c r="M120" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N120" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O120" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="P120" s="2"/>
-      <c r="Q120" s="2"/>
-      <c r="R120" s="2"/>
+      <c r="Q120" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="R120" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
       <c r="U120" s="2"/>
       <c r="V120" s="2"/>
       <c r="W120" s="2"/>
-      <c r="X120" s="2"/>
+      <c r="X120" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
       <c r="AA120" s="2"/>
       <c r="AB120" s="2"/>
     </row>
-    <row r="121" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B121" s="8" t="s">
+      <c r="B121" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C121" s="3">
@@ -6835,30 +8192,44 @@
         <v>259</v>
       </c>
       <c r="J121" s="2"/>
-      <c r="K121" s="2"/>
+      <c r="K121" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
-      <c r="O121" s="2"/>
+      <c r="M121" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N121" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O121" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="P121" s="2"/>
-      <c r="Q121" s="2"/>
-      <c r="R121" s="2"/>
+      <c r="Q121" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="R121" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
       <c r="U121" s="2"/>
       <c r="V121" s="2"/>
       <c r="W121" s="2"/>
-      <c r="X121" s="2"/>
+      <c r="X121" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
       <c r="AA121" s="2"/>
       <c r="AB121" s="2"/>
     </row>
-    <row r="122" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C122" s="3">
@@ -6877,30 +8248,44 @@
         <v>259</v>
       </c>
       <c r="J122" s="2"/>
-      <c r="K122" s="2"/>
+      <c r="K122" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="L122" s="2"/>
-      <c r="M122" s="2"/>
-      <c r="N122" s="2"/>
-      <c r="O122" s="2"/>
+      <c r="M122" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N122" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O122" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="P122" s="2"/>
-      <c r="Q122" s="2"/>
-      <c r="R122" s="2"/>
+      <c r="Q122" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="R122" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
       <c r="U122" s="2"/>
       <c r="V122" s="2"/>
       <c r="W122" s="2"/>
-      <c r="X122" s="2"/>
+      <c r="X122" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
       <c r="AA122" s="2"/>
       <c r="AB122" s="2"/>
     </row>
-    <row r="123" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B123" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C123" s="3">
@@ -6919,26 +8304,40 @@
         <v>259</v>
       </c>
       <c r="J123" s="2"/>
-      <c r="K123" s="2"/>
+      <c r="K123" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="L123" s="2"/>
-      <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
-      <c r="O123" s="2"/>
+      <c r="M123" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N123" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O123" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="P123" s="2"/>
-      <c r="Q123" s="2"/>
-      <c r="R123" s="2"/>
+      <c r="Q123" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="R123" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
       <c r="U123" s="2"/>
       <c r="V123" s="2"/>
       <c r="W123" s="2"/>
-      <c r="X123" s="2"/>
+      <c r="X123" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
       <c r="AA123" s="2"/>
       <c r="AB123" s="2"/>
     </row>
-    <row r="124" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>130</v>
       </c>
@@ -6962,29 +8361,43 @@
       </c>
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
-      <c r="L124" s="2"/>
+      <c r="L124" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
       <c r="P124" s="2"/>
       <c r="Q124" s="2"/>
       <c r="R124" s="2"/>
-      <c r="S124" s="2"/>
-      <c r="T124" s="2"/>
+      <c r="S124" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T124" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="U124" s="2"/>
-      <c r="V124" s="2"/>
-      <c r="W124" s="2"/>
+      <c r="V124" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="W124" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="X124" s="2"/>
-      <c r="Y124" s="2"/>
-      <c r="Z124" s="2"/>
+      <c r="Y124" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z124" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="AA124" s="2"/>
       <c r="AB124" s="2"/>
     </row>
-    <row r="125" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C125" s="3">
@@ -7028,17 +8441,19 @@
       <c r="U125" s="2"/>
       <c r="V125" s="2"/>
       <c r="W125" s="2"/>
-      <c r="X125" s="2"/>
+      <c r="X125" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
       <c r="AA125" s="2"/>
       <c r="AB125" s="2"/>
     </row>
-    <row r="126" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C126" s="3">
@@ -7082,17 +8497,19 @@
       <c r="U126" s="2"/>
       <c r="V126" s="2"/>
       <c r="W126" s="2"/>
-      <c r="X126" s="2"/>
+      <c r="X126" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
       <c r="AA126" s="2"/>
       <c r="AB126" s="2"/>
     </row>
-    <row r="127" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C127" s="3">
@@ -7136,17 +8553,19 @@
       <c r="U127" s="2"/>
       <c r="V127" s="2"/>
       <c r="W127" s="2"/>
-      <c r="X127" s="2"/>
+      <c r="X127" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
       <c r="AA127" s="2"/>
       <c r="AB127" s="2"/>
     </row>
-    <row r="128" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C128" s="3">
@@ -7190,17 +8609,19 @@
       <c r="U128" s="2"/>
       <c r="V128" s="2"/>
       <c r="W128" s="2"/>
-      <c r="X128" s="2"/>
+      <c r="X128" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
       <c r="AA128" s="2"/>
       <c r="AB128" s="2"/>
     </row>
-    <row r="129" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C129" s="3">
@@ -7244,17 +8665,19 @@
       <c r="U129" s="2"/>
       <c r="V129" s="2"/>
       <c r="W129" s="2"/>
-      <c r="X129" s="2"/>
+      <c r="X129" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
       <c r="AA129" s="2"/>
       <c r="AB129" s="2"/>
     </row>
-    <row r="130" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C130" s="3">
@@ -7298,17 +8721,19 @@
       <c r="U130" s="2"/>
       <c r="V130" s="2"/>
       <c r="W130" s="2"/>
-      <c r="X130" s="2"/>
+      <c r="X130" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
       <c r="AA130" s="2"/>
       <c r="AB130" s="2"/>
     </row>
-    <row r="131" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C131" s="3">
@@ -7352,17 +8777,19 @@
       <c r="U131" s="2"/>
       <c r="V131" s="2"/>
       <c r="W131" s="2"/>
-      <c r="X131" s="2"/>
+      <c r="X131" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
       <c r="AA131" s="2"/>
       <c r="AB131" s="2"/>
     </row>
-    <row r="132" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C132" s="3">
@@ -7406,17 +8833,19 @@
       <c r="U132" s="2"/>
       <c r="V132" s="2"/>
       <c r="W132" s="2"/>
-      <c r="X132" s="2"/>
+      <c r="X132" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
       <c r="AA132" s="2"/>
       <c r="AB132" s="2"/>
     </row>
-    <row r="133" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C133" s="3">
@@ -7460,17 +8889,19 @@
       <c r="U133" s="2"/>
       <c r="V133" s="2"/>
       <c r="W133" s="2"/>
-      <c r="X133" s="2"/>
+      <c r="X133" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
       <c r="AA133" s="2"/>
       <c r="AB133" s="2"/>
     </row>
-    <row r="134" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C134" s="3">
@@ -7514,17 +8945,19 @@
       <c r="U134" s="2"/>
       <c r="V134" s="2"/>
       <c r="W134" s="2"/>
-      <c r="X134" s="2"/>
+      <c r="X134" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
       <c r="AA134" s="2"/>
       <c r="AB134" s="2"/>
     </row>
-    <row r="135" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C135" s="3">
@@ -7568,17 +9001,19 @@
       <c r="U135" s="2"/>
       <c r="V135" s="2"/>
       <c r="W135" s="2"/>
-      <c r="X135" s="2"/>
+      <c r="X135" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
       <c r="AA135" s="2"/>
       <c r="AB135" s="2"/>
     </row>
-    <row r="136" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="B136" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C136" s="3">
@@ -7622,13 +9057,15 @@
       <c r="U136" s="2"/>
       <c r="V136" s="2"/>
       <c r="W136" s="2"/>
-      <c r="X136" s="2"/>
+      <c r="X136" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
       <c r="AA136" s="2"/>
       <c r="AB136" s="2"/>
     </row>
-    <row r="137" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>145</v>
       </c>
@@ -7652,25 +9089,39 @@
       </c>
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
-      <c r="L137" s="2"/>
+      <c r="L137" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
       <c r="P137" s="2"/>
       <c r="Q137" s="2"/>
       <c r="R137" s="2"/>
-      <c r="S137" s="2"/>
-      <c r="T137" s="2"/>
+      <c r="S137" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T137" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="U137" s="2"/>
-      <c r="V137" s="2"/>
-      <c r="W137" s="2"/>
+      <c r="V137" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="W137" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="X137" s="2"/>
-      <c r="Y137" s="2"/>
-      <c r="Z137" s="2"/>
+      <c r="Y137" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z137" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="AA137" s="2"/>
       <c r="AB137" s="2"/>
     </row>
-    <row r="138" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>147</v>
       </c>
@@ -7694,25 +9145,39 @@
       </c>
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
-      <c r="L138" s="2"/>
+      <c r="L138" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
       <c r="P138" s="2"/>
       <c r="Q138" s="2"/>
       <c r="R138" s="2"/>
-      <c r="S138" s="2"/>
-      <c r="T138" s="2"/>
+      <c r="S138" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T138" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="U138" s="2"/>
-      <c r="V138" s="2"/>
-      <c r="W138" s="2"/>
+      <c r="V138" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="W138" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="X138" s="2"/>
-      <c r="Y138" s="2"/>
-      <c r="Z138" s="2"/>
+      <c r="Y138" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z138" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="AA138" s="2"/>
       <c r="AB138" s="2"/>
     </row>
-    <row r="139" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>148</v>
       </c>
@@ -7736,25 +9201,39 @@
       </c>
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
-      <c r="L139" s="2"/>
+      <c r="L139" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
       <c r="P139" s="2"/>
       <c r="Q139" s="2"/>
       <c r="R139" s="2"/>
-      <c r="S139" s="2"/>
-      <c r="T139" s="2"/>
+      <c r="S139" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T139" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="U139" s="2"/>
-      <c r="V139" s="2"/>
-      <c r="W139" s="2"/>
+      <c r="V139" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="W139" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="X139" s="2"/>
-      <c r="Y139" s="2"/>
-      <c r="Z139" s="2"/>
+      <c r="Y139" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z139" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="AA139" s="2"/>
       <c r="AB139" s="2"/>
     </row>
-    <row r="140" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>149</v>
       </c>
@@ -7778,25 +9257,39 @@
       </c>
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
-      <c r="L140" s="2"/>
+      <c r="L140" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
       <c r="P140" s="2"/>
       <c r="Q140" s="2"/>
       <c r="R140" s="2"/>
-      <c r="S140" s="2"/>
-      <c r="T140" s="2"/>
+      <c r="S140" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T140" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="U140" s="2"/>
-      <c r="V140" s="2"/>
-      <c r="W140" s="2"/>
+      <c r="V140" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="W140" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="X140" s="2"/>
-      <c r="Y140" s="2"/>
-      <c r="Z140" s="2"/>
+      <c r="Y140" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z140" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="AA140" s="2"/>
       <c r="AB140" s="2"/>
     </row>
-    <row r="141" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>150</v>
       </c>
@@ -7820,25 +9313,39 @@
       </c>
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
-      <c r="L141" s="2"/>
+      <c r="L141" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
       <c r="P141" s="2"/>
       <c r="Q141" s="2"/>
       <c r="R141" s="2"/>
-      <c r="S141" s="2"/>
-      <c r="T141" s="2"/>
+      <c r="S141" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T141" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="U141" s="2"/>
-      <c r="V141" s="2"/>
-      <c r="W141" s="2"/>
+      <c r="V141" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="W141" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="X141" s="2"/>
-      <c r="Y141" s="2"/>
-      <c r="Z141" s="2"/>
+      <c r="Y141" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z141" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="AA141" s="2"/>
       <c r="AB141" s="2"/>
     </row>
-    <row r="142" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>151</v>
       </c>
@@ -7862,25 +9369,39 @@
       </c>
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
-      <c r="L142" s="2"/>
+      <c r="L142" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
       <c r="Q142" s="2"/>
       <c r="R142" s="2"/>
-      <c r="S142" s="2"/>
-      <c r="T142" s="2"/>
+      <c r="S142" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T142" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="U142" s="2"/>
-      <c r="V142" s="2"/>
-      <c r="W142" s="2"/>
+      <c r="V142" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="W142" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="X142" s="2"/>
-      <c r="Y142" s="2"/>
-      <c r="Z142" s="2"/>
+      <c r="Y142" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z142" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="AA142" s="2"/>
       <c r="AB142" s="2"/>
     </row>
-    <row r="143" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>152</v>
       </c>
@@ -7904,25 +9425,39 @@
       </c>
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
-      <c r="L143" s="2"/>
+      <c r="L143" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
       <c r="P143" s="2"/>
       <c r="Q143" s="2"/>
       <c r="R143" s="2"/>
-      <c r="S143" s="2"/>
-      <c r="T143" s="2"/>
+      <c r="S143" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T143" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="U143" s="2"/>
-      <c r="V143" s="2"/>
-      <c r="W143" s="2"/>
+      <c r="V143" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="W143" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="X143" s="2"/>
-      <c r="Y143" s="2"/>
-      <c r="Z143" s="2"/>
+      <c r="Y143" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z143" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="AA143" s="2"/>
       <c r="AB143" s="2"/>
     </row>
-    <row r="144" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>153</v>
       </c>
@@ -7946,25 +9481,39 @@
       </c>
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
-      <c r="L144" s="2"/>
+      <c r="L144" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
       <c r="P144" s="2"/>
       <c r="Q144" s="2"/>
       <c r="R144" s="2"/>
-      <c r="S144" s="2"/>
-      <c r="T144" s="2"/>
+      <c r="S144" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T144" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="U144" s="2"/>
-      <c r="V144" s="2"/>
-      <c r="W144" s="2"/>
+      <c r="V144" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="W144" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="X144" s="2"/>
-      <c r="Y144" s="2"/>
-      <c r="Z144" s="2"/>
+      <c r="Y144" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z144" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="AA144" s="2"/>
       <c r="AB144" s="2"/>
     </row>
-    <row r="145" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>154</v>
       </c>
@@ -7988,25 +9537,39 @@
       </c>
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
-      <c r="L145" s="2"/>
+      <c r="L145" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
       <c r="P145" s="2"/>
       <c r="Q145" s="2"/>
       <c r="R145" s="2"/>
-      <c r="S145" s="2"/>
-      <c r="T145" s="2"/>
+      <c r="S145" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T145" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="U145" s="2"/>
-      <c r="V145" s="2"/>
-      <c r="W145" s="2"/>
+      <c r="V145" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="W145" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="X145" s="2"/>
-      <c r="Y145" s="2"/>
-      <c r="Z145" s="2"/>
+      <c r="Y145" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z145" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="AA145" s="2"/>
       <c r="AB145" s="2"/>
     </row>
-    <row r="146" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>155</v>
       </c>
@@ -8030,25 +9593,39 @@
       </c>
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
-      <c r="L146" s="2"/>
+      <c r="L146" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
       <c r="P146" s="2"/>
       <c r="Q146" s="2"/>
       <c r="R146" s="2"/>
-      <c r="S146" s="2"/>
-      <c r="T146" s="2"/>
+      <c r="S146" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T146" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="U146" s="2"/>
-      <c r="V146" s="2"/>
-      <c r="W146" s="2"/>
+      <c r="V146" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="W146" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="X146" s="2"/>
-      <c r="Y146" s="2"/>
-      <c r="Z146" s="2"/>
+      <c r="Y146" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z146" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="AA146" s="2"/>
       <c r="AB146" s="2"/>
     </row>
-    <row r="147" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>156</v>
       </c>
@@ -8072,25 +9649,39 @@
       </c>
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
-      <c r="L147" s="2"/>
+      <c r="L147" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
       <c r="P147" s="2"/>
       <c r="Q147" s="2"/>
       <c r="R147" s="2"/>
-      <c r="S147" s="2"/>
-      <c r="T147" s="2"/>
+      <c r="S147" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T147" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="U147" s="2"/>
-      <c r="V147" s="2"/>
-      <c r="W147" s="2"/>
+      <c r="V147" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="W147" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="X147" s="2"/>
-      <c r="Y147" s="2"/>
-      <c r="Z147" s="2"/>
+      <c r="Y147" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z147" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="AA147" s="2"/>
       <c r="AB147" s="2"/>
     </row>
-    <row r="148" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>158</v>
       </c>
@@ -8114,25 +9705,39 @@
       </c>
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
-      <c r="L148" s="2"/>
+      <c r="L148" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
       <c r="P148" s="2"/>
       <c r="Q148" s="2"/>
       <c r="R148" s="2"/>
-      <c r="S148" s="2"/>
-      <c r="T148" s="2"/>
+      <c r="S148" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T148" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="U148" s="2"/>
-      <c r="V148" s="2"/>
-      <c r="W148" s="2"/>
+      <c r="V148" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="W148" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="X148" s="2"/>
-      <c r="Y148" s="2"/>
-      <c r="Z148" s="2"/>
+      <c r="Y148" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z148" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="AA148" s="2"/>
       <c r="AB148" s="2"/>
     </row>
-    <row r="149" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>159</v>
       </c>
@@ -8156,25 +9761,39 @@
       </c>
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
-      <c r="L149" s="2"/>
+      <c r="L149" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
       <c r="P149" s="2"/>
       <c r="Q149" s="2"/>
       <c r="R149" s="2"/>
-      <c r="S149" s="2"/>
-      <c r="T149" s="2"/>
+      <c r="S149" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T149" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="U149" s="2"/>
-      <c r="V149" s="2"/>
-      <c r="W149" s="2"/>
+      <c r="V149" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="W149" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="X149" s="2"/>
-      <c r="Y149" s="2"/>
-      <c r="Z149" s="2"/>
+      <c r="Y149" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z149" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="AA149" s="2"/>
       <c r="AB149" s="2"/>
     </row>
-    <row r="150" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>160</v>
       </c>
@@ -8198,25 +9817,39 @@
       </c>
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
-      <c r="L150" s="2"/>
+      <c r="L150" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
       <c r="P150" s="2"/>
       <c r="Q150" s="2"/>
       <c r="R150" s="2"/>
-      <c r="S150" s="2"/>
-      <c r="T150" s="2"/>
+      <c r="S150" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T150" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="U150" s="2"/>
-      <c r="V150" s="2"/>
-      <c r="W150" s="2"/>
+      <c r="V150" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="W150" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="X150" s="2"/>
-      <c r="Y150" s="2"/>
-      <c r="Z150" s="2"/>
+      <c r="Y150" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z150" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="AA150" s="2"/>
       <c r="AB150" s="2"/>
     </row>
-    <row r="151" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>161</v>
       </c>
@@ -8240,25 +9873,39 @@
       </c>
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
-      <c r="L151" s="2"/>
+      <c r="L151" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
       <c r="P151" s="2"/>
       <c r="Q151" s="2"/>
       <c r="R151" s="2"/>
-      <c r="S151" s="2"/>
-      <c r="T151" s="2"/>
+      <c r="S151" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T151" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="U151" s="2"/>
-      <c r="V151" s="2"/>
-      <c r="W151" s="2"/>
+      <c r="V151" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="W151" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="X151" s="2"/>
-      <c r="Y151" s="2"/>
-      <c r="Z151" s="2"/>
+      <c r="Y151" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z151" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="AA151" s="2"/>
       <c r="AB151" s="2"/>
     </row>
-    <row r="152" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>162</v>
       </c>
@@ -8282,25 +9929,39 @@
       </c>
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
-      <c r="L152" s="2"/>
+      <c r="L152" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
       <c r="P152" s="2"/>
       <c r="Q152" s="2"/>
       <c r="R152" s="2"/>
-      <c r="S152" s="2"/>
-      <c r="T152" s="2"/>
+      <c r="S152" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T152" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="U152" s="2"/>
-      <c r="V152" s="2"/>
-      <c r="W152" s="2"/>
+      <c r="V152" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="W152" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="X152" s="2"/>
-      <c r="Y152" s="2"/>
-      <c r="Z152" s="2"/>
+      <c r="Y152" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z152" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="AA152" s="2"/>
       <c r="AB152" s="2"/>
     </row>
-    <row r="153" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>163</v>
       </c>
@@ -8324,25 +9985,39 @@
       </c>
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
-      <c r="L153" s="2"/>
+      <c r="L153" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
       <c r="P153" s="2"/>
       <c r="Q153" s="2"/>
       <c r="R153" s="2"/>
-      <c r="S153" s="2"/>
-      <c r="T153" s="2"/>
+      <c r="S153" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T153" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="U153" s="2"/>
-      <c r="V153" s="2"/>
-      <c r="W153" s="2"/>
+      <c r="V153" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="W153" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="X153" s="2"/>
-      <c r="Y153" s="2"/>
-      <c r="Z153" s="2"/>
+      <c r="Y153" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z153" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="AA153" s="2"/>
       <c r="AB153" s="2"/>
     </row>
-    <row r="154" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>164</v>
       </c>
@@ -8366,25 +10041,39 @@
       </c>
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
-      <c r="L154" s="2"/>
+      <c r="L154" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
       <c r="P154" s="2"/>
       <c r="Q154" s="2"/>
       <c r="R154" s="2"/>
-      <c r="S154" s="2"/>
-      <c r="T154" s="2"/>
+      <c r="S154" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T154" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="U154" s="2"/>
-      <c r="V154" s="2"/>
-      <c r="W154" s="2"/>
+      <c r="V154" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="W154" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="X154" s="2"/>
-      <c r="Y154" s="2"/>
-      <c r="Z154" s="2"/>
+      <c r="Y154" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z154" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="AA154" s="2"/>
       <c r="AB154" s="2"/>
     </row>
-    <row r="155" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>165</v>
       </c>
@@ -8408,25 +10097,39 @@
       </c>
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
-      <c r="L155" s="2"/>
+      <c r="L155" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
       <c r="P155" s="2"/>
       <c r="Q155" s="2"/>
       <c r="R155" s="2"/>
-      <c r="S155" s="2"/>
-      <c r="T155" s="2"/>
+      <c r="S155" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T155" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="U155" s="2"/>
-      <c r="V155" s="2"/>
-      <c r="W155" s="2"/>
+      <c r="V155" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="W155" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="X155" s="2"/>
-      <c r="Y155" s="2"/>
-      <c r="Z155" s="2"/>
+      <c r="Y155" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z155" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="AA155" s="2"/>
       <c r="AB155" s="2"/>
     </row>
-    <row r="156" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>166</v>
       </c>
@@ -8450,25 +10153,39 @@
       </c>
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
-      <c r="L156" s="2"/>
+      <c r="L156" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
       <c r="P156" s="2"/>
       <c r="Q156" s="2"/>
       <c r="R156" s="2"/>
-      <c r="S156" s="2"/>
-      <c r="T156" s="2"/>
+      <c r="S156" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T156" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="U156" s="2"/>
-      <c r="V156" s="2"/>
-      <c r="W156" s="2"/>
+      <c r="V156" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="W156" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="X156" s="2"/>
-      <c r="Y156" s="2"/>
-      <c r="Z156" s="2"/>
+      <c r="Y156" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z156" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="AA156" s="2"/>
       <c r="AB156" s="2"/>
     </row>
-    <row r="157" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>167</v>
       </c>
@@ -8492,25 +10209,39 @@
       </c>
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
-      <c r="L157" s="2"/>
+      <c r="L157" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
       <c r="O157" s="2"/>
       <c r="P157" s="2"/>
       <c r="Q157" s="2"/>
       <c r="R157" s="2"/>
-      <c r="S157" s="2"/>
-      <c r="T157" s="2"/>
+      <c r="S157" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T157" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="U157" s="2"/>
-      <c r="V157" s="2"/>
-      <c r="W157" s="2"/>
+      <c r="V157" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="W157" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="X157" s="2"/>
-      <c r="Y157" s="2"/>
-      <c r="Z157" s="2"/>
+      <c r="Y157" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z157" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="AA157" s="2"/>
       <c r="AB157" s="2"/>
     </row>
-    <row r="158" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>168</v>
       </c>
@@ -8534,25 +10265,39 @@
       </c>
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
-      <c r="L158" s="2"/>
+      <c r="L158" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
       <c r="O158" s="2"/>
       <c r="P158" s="2"/>
       <c r="Q158" s="2"/>
       <c r="R158" s="2"/>
-      <c r="S158" s="2"/>
-      <c r="T158" s="2"/>
+      <c r="S158" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T158" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="U158" s="2"/>
-      <c r="V158" s="2"/>
-      <c r="W158" s="2"/>
+      <c r="V158" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="W158" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="X158" s="2"/>
-      <c r="Y158" s="2"/>
-      <c r="Z158" s="2"/>
+      <c r="Y158" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z158" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="AA158" s="2"/>
       <c r="AB158" s="2"/>
     </row>
-    <row r="159" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>169</v>
       </c>
@@ -8576,25 +10321,39 @@
       </c>
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
-      <c r="L159" s="2"/>
+      <c r="L159" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
       <c r="P159" s="2"/>
       <c r="Q159" s="2"/>
       <c r="R159" s="2"/>
-      <c r="S159" s="2"/>
-      <c r="T159" s="2"/>
+      <c r="S159" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T159" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="U159" s="2"/>
-      <c r="V159" s="2"/>
-      <c r="W159" s="2"/>
+      <c r="V159" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="W159" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="X159" s="2"/>
-      <c r="Y159" s="2"/>
-      <c r="Z159" s="2"/>
+      <c r="Y159" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z159" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="AA159" s="2"/>
       <c r="AB159" s="2"/>
     </row>
-    <row r="160" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
         <v>170</v>
       </c>
@@ -8618,25 +10377,39 @@
       </c>
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
-      <c r="L160" s="2"/>
+      <c r="L160" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
       <c r="P160" s="2"/>
       <c r="Q160" s="2"/>
       <c r="R160" s="2"/>
-      <c r="S160" s="2"/>
-      <c r="T160" s="2"/>
+      <c r="S160" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T160" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="U160" s="2"/>
-      <c r="V160" s="2"/>
-      <c r="W160" s="2"/>
+      <c r="V160" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="W160" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="X160" s="2"/>
-      <c r="Y160" s="2"/>
-      <c r="Z160" s="2"/>
+      <c r="Y160" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z160" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="AA160" s="2"/>
       <c r="AB160" s="2"/>
     </row>
-    <row r="161" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
         <v>172</v>
       </c>
@@ -8660,25 +10433,39 @@
       </c>
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
-      <c r="L161" s="2"/>
+      <c r="L161" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
       <c r="P161" s="2"/>
       <c r="Q161" s="2"/>
       <c r="R161" s="2"/>
-      <c r="S161" s="2"/>
-      <c r="T161" s="2"/>
+      <c r="S161" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T161" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="U161" s="2"/>
-      <c r="V161" s="2"/>
-      <c r="W161" s="2"/>
+      <c r="V161" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="W161" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="X161" s="2"/>
-      <c r="Y161" s="2"/>
-      <c r="Z161" s="2"/>
+      <c r="Y161" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z161" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="AA161" s="2"/>
       <c r="AB161" s="2"/>
     </row>
-    <row r="162" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
         <v>173</v>
       </c>
@@ -8702,25 +10489,39 @@
       </c>
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
-      <c r="L162" s="2"/>
+      <c r="L162" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
       <c r="P162" s="2"/>
       <c r="Q162" s="2"/>
       <c r="R162" s="2"/>
-      <c r="S162" s="2"/>
-      <c r="T162" s="2"/>
+      <c r="S162" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T162" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="U162" s="2"/>
-      <c r="V162" s="2"/>
-      <c r="W162" s="2"/>
+      <c r="V162" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="W162" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="X162" s="2"/>
-      <c r="Y162" s="2"/>
-      <c r="Z162" s="2"/>
+      <c r="Y162" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z162" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="AA162" s="2"/>
       <c r="AB162" s="2"/>
     </row>
-    <row r="163" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
         <v>174</v>
       </c>
@@ -8744,25 +10545,39 @@
       </c>
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
-      <c r="L163" s="2"/>
+      <c r="L163" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M163" s="2"/>
       <c r="N163" s="2"/>
       <c r="O163" s="2"/>
       <c r="P163" s="2"/>
       <c r="Q163" s="2"/>
       <c r="R163" s="2"/>
-      <c r="S163" s="2"/>
-      <c r="T163" s="2"/>
+      <c r="S163" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T163" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="U163" s="2"/>
-      <c r="V163" s="2"/>
-      <c r="W163" s="2"/>
+      <c r="V163" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="W163" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="X163" s="2"/>
-      <c r="Y163" s="2"/>
-      <c r="Z163" s="2"/>
+      <c r="Y163" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z163" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="AA163" s="2"/>
       <c r="AB163" s="2"/>
     </row>
-    <row r="164" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>175</v>
       </c>
@@ -8786,25 +10601,39 @@
       </c>
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
-      <c r="L164" s="2"/>
+      <c r="L164" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
       <c r="P164" s="2"/>
       <c r="Q164" s="2"/>
       <c r="R164" s="2"/>
-      <c r="S164" s="2"/>
-      <c r="T164" s="2"/>
+      <c r="S164" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T164" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="U164" s="2"/>
-      <c r="V164" s="2"/>
-      <c r="W164" s="2"/>
+      <c r="V164" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="W164" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="X164" s="2"/>
-      <c r="Y164" s="2"/>
-      <c r="Z164" s="2"/>
+      <c r="Y164" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z164" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="AA164" s="2"/>
       <c r="AB164" s="2"/>
     </row>
-    <row r="165" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>176</v>
       </c>
@@ -8828,25 +10657,39 @@
       </c>
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
-      <c r="L165" s="2"/>
+      <c r="L165" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
       <c r="P165" s="2"/>
       <c r="Q165" s="2"/>
       <c r="R165" s="2"/>
-      <c r="S165" s="2"/>
-      <c r="T165" s="2"/>
+      <c r="S165" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T165" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="U165" s="2"/>
-      <c r="V165" s="2"/>
-      <c r="W165" s="2"/>
+      <c r="V165" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="W165" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="X165" s="2"/>
-      <c r="Y165" s="2"/>
-      <c r="Z165" s="2"/>
+      <c r="Y165" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z165" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="AA165" s="2"/>
       <c r="AB165" s="2"/>
     </row>
-    <row r="166" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
         <v>177</v>
       </c>
@@ -8870,25 +10713,39 @@
       </c>
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
-      <c r="L166" s="2"/>
+      <c r="L166" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>
       <c r="P166" s="2"/>
       <c r="Q166" s="2"/>
       <c r="R166" s="2"/>
-      <c r="S166" s="2"/>
-      <c r="T166" s="2"/>
+      <c r="S166" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T166" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="U166" s="2"/>
-      <c r="V166" s="2"/>
-      <c r="W166" s="2"/>
+      <c r="V166" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="W166" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="X166" s="2"/>
-      <c r="Y166" s="2"/>
-      <c r="Z166" s="2"/>
+      <c r="Y166" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z166" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="AA166" s="2"/>
       <c r="AB166" s="2"/>
     </row>
-    <row r="167" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
         <v>178</v>
       </c>
@@ -8912,25 +10769,39 @@
       </c>
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
-      <c r="L167" s="2"/>
+      <c r="L167" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
       <c r="P167" s="2"/>
       <c r="Q167" s="2"/>
       <c r="R167" s="2"/>
-      <c r="S167" s="2"/>
-      <c r="T167" s="2"/>
+      <c r="S167" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T167" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="U167" s="2"/>
-      <c r="V167" s="2"/>
-      <c r="W167" s="2"/>
+      <c r="V167" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="W167" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="X167" s="2"/>
-      <c r="Y167" s="2"/>
-      <c r="Z167" s="2"/>
+      <c r="Y167" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z167" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="AA167" s="2"/>
       <c r="AB167" s="2"/>
     </row>
-    <row r="168" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
         <v>179</v>
       </c>
@@ -8954,25 +10825,39 @@
       </c>
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
-      <c r="L168" s="2"/>
+      <c r="L168" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
       <c r="P168" s="2"/>
       <c r="Q168" s="2"/>
       <c r="R168" s="2"/>
-      <c r="S168" s="2"/>
-      <c r="T168" s="2"/>
+      <c r="S168" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T168" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="U168" s="2"/>
-      <c r="V168" s="2"/>
-      <c r="W168" s="2"/>
+      <c r="V168" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="W168" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="X168" s="2"/>
-      <c r="Y168" s="2"/>
-      <c r="Z168" s="2"/>
+      <c r="Y168" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z168" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="AA168" s="2"/>
       <c r="AB168" s="2"/>
     </row>
-    <row r="169" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
         <v>180</v>
       </c>
@@ -8996,25 +10881,39 @@
       </c>
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
-      <c r="L169" s="2"/>
+      <c r="L169" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
       <c r="P169" s="2"/>
       <c r="Q169" s="2"/>
       <c r="R169" s="2"/>
-      <c r="S169" s="2"/>
-      <c r="T169" s="2"/>
+      <c r="S169" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T169" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="U169" s="2"/>
-      <c r="V169" s="2"/>
-      <c r="W169" s="2"/>
+      <c r="V169" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="W169" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="X169" s="2"/>
-      <c r="Y169" s="2"/>
-      <c r="Z169" s="2"/>
+      <c r="Y169" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z169" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="AA169" s="2"/>
       <c r="AB169" s="2"/>
     </row>
-    <row r="170" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
         <v>181</v>
       </c>
@@ -9038,25 +10937,39 @@
       </c>
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
-      <c r="L170" s="2"/>
+      <c r="L170" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
       <c r="P170" s="2"/>
       <c r="Q170" s="2"/>
       <c r="R170" s="2"/>
-      <c r="S170" s="2"/>
-      <c r="T170" s="2"/>
+      <c r="S170" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T170" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="U170" s="2"/>
-      <c r="V170" s="2"/>
-      <c r="W170" s="2"/>
+      <c r="V170" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="W170" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="X170" s="2"/>
-      <c r="Y170" s="2"/>
-      <c r="Z170" s="2"/>
+      <c r="Y170" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z170" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="AA170" s="2"/>
       <c r="AB170" s="2"/>
     </row>
-    <row r="171" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
         <v>182</v>
       </c>
@@ -9080,25 +10993,39 @@
       </c>
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
-      <c r="L171" s="2"/>
+      <c r="L171" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M171" s="2"/>
       <c r="N171" s="2"/>
       <c r="O171" s="2"/>
       <c r="P171" s="2"/>
       <c r="Q171" s="2"/>
       <c r="R171" s="2"/>
-      <c r="S171" s="2"/>
-      <c r="T171" s="2"/>
+      <c r="S171" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T171" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="U171" s="2"/>
-      <c r="V171" s="2"/>
-      <c r="W171" s="2"/>
+      <c r="V171" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="W171" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="X171" s="2"/>
-      <c r="Y171" s="2"/>
-      <c r="Z171" s="2"/>
+      <c r="Y171" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z171" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="AA171" s="2"/>
       <c r="AB171" s="2"/>
     </row>
-    <row r="172" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
         <v>184</v>
       </c>
@@ -9122,25 +11049,39 @@
       </c>
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
-      <c r="L172" s="2"/>
+      <c r="L172" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
       <c r="O172" s="2"/>
       <c r="P172" s="2"/>
       <c r="Q172" s="2"/>
       <c r="R172" s="2"/>
-      <c r="S172" s="2"/>
-      <c r="T172" s="2"/>
+      <c r="S172" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T172" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="U172" s="2"/>
-      <c r="V172" s="2"/>
-      <c r="W172" s="2"/>
+      <c r="V172" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="W172" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="X172" s="2"/>
-      <c r="Y172" s="2"/>
-      <c r="Z172" s="2"/>
+      <c r="Y172" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z172" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="AA172" s="2"/>
       <c r="AB172" s="2"/>
     </row>
-    <row r="173" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
         <v>185</v>
       </c>
@@ -9164,25 +11105,39 @@
       </c>
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
-      <c r="L173" s="2"/>
+      <c r="L173" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
       <c r="P173" s="2"/>
       <c r="Q173" s="2"/>
       <c r="R173" s="2"/>
-      <c r="S173" s="2"/>
-      <c r="T173" s="2"/>
+      <c r="S173" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T173" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="U173" s="2"/>
-      <c r="V173" s="2"/>
-      <c r="W173" s="2"/>
+      <c r="V173" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="W173" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="X173" s="2"/>
-      <c r="Y173" s="2"/>
-      <c r="Z173" s="2"/>
+      <c r="Y173" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z173" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="AA173" s="2"/>
       <c r="AB173" s="2"/>
     </row>
-    <row r="174" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
         <v>186</v>
       </c>
@@ -9206,25 +11161,39 @@
       </c>
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
-      <c r="L174" s="2"/>
+      <c r="L174" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
       <c r="O174" s="2"/>
       <c r="P174" s="2"/>
       <c r="Q174" s="2"/>
       <c r="R174" s="2"/>
-      <c r="S174" s="2"/>
-      <c r="T174" s="2"/>
+      <c r="S174" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T174" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="U174" s="2"/>
-      <c r="V174" s="2"/>
-      <c r="W174" s="2"/>
+      <c r="V174" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="W174" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="X174" s="2"/>
-      <c r="Y174" s="2"/>
-      <c r="Z174" s="2"/>
+      <c r="Y174" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z174" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="AA174" s="2"/>
       <c r="AB174" s="2"/>
     </row>
-    <row r="175" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>187</v>
       </c>
@@ -9248,25 +11217,39 @@
       </c>
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
-      <c r="L175" s="2"/>
+      <c r="L175" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
       <c r="O175" s="2"/>
       <c r="P175" s="2"/>
       <c r="Q175" s="2"/>
       <c r="R175" s="2"/>
-      <c r="S175" s="2"/>
-      <c r="T175" s="2"/>
+      <c r="S175" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T175" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="U175" s="2"/>
-      <c r="V175" s="2"/>
-      <c r="W175" s="2"/>
+      <c r="V175" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="W175" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="X175" s="2"/>
-      <c r="Y175" s="2"/>
-      <c r="Z175" s="2"/>
+      <c r="Y175" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z175" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="AA175" s="2"/>
       <c r="AB175" s="2"/>
     </row>
-    <row r="176" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>188</v>
       </c>
@@ -9290,25 +11273,39 @@
       </c>
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
-      <c r="L176" s="2"/>
+      <c r="L176" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
       <c r="P176" s="2"/>
       <c r="Q176" s="2"/>
       <c r="R176" s="2"/>
-      <c r="S176" s="2"/>
-      <c r="T176" s="2"/>
+      <c r="S176" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T176" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="U176" s="2"/>
-      <c r="V176" s="2"/>
-      <c r="W176" s="2"/>
+      <c r="V176" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="W176" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="X176" s="2"/>
-      <c r="Y176" s="2"/>
-      <c r="Z176" s="2"/>
+      <c r="Y176" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z176" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="AA176" s="2"/>
       <c r="AB176" s="2"/>
     </row>
-    <row r="177" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
         <v>189</v>
       </c>
@@ -9332,25 +11329,39 @@
       </c>
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
-      <c r="L177" s="2"/>
+      <c r="L177" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M177" s="2"/>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
       <c r="P177" s="2"/>
       <c r="Q177" s="2"/>
       <c r="R177" s="2"/>
-      <c r="S177" s="2"/>
-      <c r="T177" s="2"/>
+      <c r="S177" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T177" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="U177" s="2"/>
-      <c r="V177" s="2"/>
-      <c r="W177" s="2"/>
+      <c r="V177" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="W177" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="X177" s="2"/>
-      <c r="Y177" s="2"/>
-      <c r="Z177" s="2"/>
+      <c r="Y177" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z177" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="AA177" s="2"/>
       <c r="AB177" s="2"/>
     </row>
-    <row r="178" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
         <v>190</v>
       </c>
@@ -9372,21 +11383,35 @@
       </c>
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
-      <c r="L178" s="2"/>
+      <c r="L178" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M178" s="2"/>
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
       <c r="P178" s="2"/>
       <c r="Q178" s="2"/>
       <c r="R178" s="2"/>
-      <c r="S178" s="2"/>
-      <c r="T178" s="2"/>
+      <c r="S178" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="T178" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="U178" s="2"/>
-      <c r="V178" s="2"/>
-      <c r="W178" s="2"/>
+      <c r="V178" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W178" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="X178" s="2"/>
-      <c r="Y178" s="2"/>
-      <c r="Z178" s="2"/>
+      <c r="Y178" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z178" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="AA178" s="2"/>
       <c r="AB178" s="2"/>
     </row>
@@ -9394,7 +11419,7 @@
       <c r="A179" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B179" s="8" t="s">
+      <c r="B179" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C179" s="3"/>
@@ -9411,20 +11436,34 @@
         <v>256</v>
       </c>
       <c r="J179" s="2"/>
-      <c r="K179" s="2"/>
+      <c r="K179" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="L179" s="2"/>
-      <c r="M179" s="2"/>
-      <c r="N179" s="2"/>
-      <c r="O179" s="2"/>
+      <c r="M179" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N179" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O179" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="P179" s="2"/>
-      <c r="Q179" s="2"/>
-      <c r="R179" s="2"/>
+      <c r="Q179" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R179" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="S179" s="2"/>
       <c r="T179" s="2"/>
       <c r="U179" s="2"/>
       <c r="V179" s="2"/>
       <c r="W179" s="2"/>
-      <c r="X179" s="2"/>
+      <c r="X179" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
       <c r="AA179" s="2"/>
@@ -9434,7 +11473,7 @@
       <c r="A180" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B180" s="8" t="s">
+      <c r="B180" s="6" t="s">
         <v>193</v>
       </c>
       <c r="C180" s="3"/>
@@ -9451,30 +11490,44 @@
         <v>256</v>
       </c>
       <c r="J180" s="2"/>
-      <c r="K180" s="2"/>
+      <c r="K180" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="L180" s="2"/>
-      <c r="M180" s="2"/>
-      <c r="N180" s="2"/>
-      <c r="O180" s="2"/>
+      <c r="M180" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N180" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O180" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="P180" s="2"/>
-      <c r="Q180" s="2"/>
-      <c r="R180" s="2"/>
+      <c r="Q180" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R180" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="S180" s="2"/>
       <c r="T180" s="2"/>
       <c r="U180" s="2"/>
       <c r="V180" s="2"/>
       <c r="W180" s="2"/>
-      <c r="X180" s="2"/>
+      <c r="X180" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
       <c r="AA180" s="2"/>
       <c r="AB180" s="2"/>
     </row>
-    <row r="181" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B181" s="8" t="s">
+      <c r="B181" s="6" t="s">
         <v>195</v>
       </c>
       <c r="C181" s="3"/>
@@ -9491,30 +11544,44 @@
         <v>256</v>
       </c>
       <c r="J181" s="2"/>
-      <c r="K181" s="2"/>
+      <c r="K181" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="L181" s="2"/>
-      <c r="M181" s="2"/>
-      <c r="N181" s="2"/>
-      <c r="O181" s="2"/>
+      <c r="M181" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N181" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O181" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="P181" s="2"/>
-      <c r="Q181" s="2"/>
-      <c r="R181" s="2"/>
+      <c r="Q181" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="R181" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="S181" s="2"/>
       <c r="T181" s="2"/>
       <c r="U181" s="2"/>
       <c r="V181" s="2"/>
       <c r="W181" s="2"/>
-      <c r="X181" s="2"/>
+      <c r="X181" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
       <c r="AA181" s="2"/>
       <c r="AB181" s="2"/>
     </row>
-    <row r="182" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B182" s="8" t="s">
+      <c r="B182" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C182" s="3"/>
@@ -9556,13 +11623,15 @@
       <c r="U182" s="2"/>
       <c r="V182" s="2"/>
       <c r="W182" s="2"/>
-      <c r="X182" s="2"/>
+      <c r="X182" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
       <c r="AA182" s="2"/>
       <c r="AB182" s="2"/>
     </row>
-    <row r="183" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
         <v>197</v>
       </c>
@@ -9584,25 +11653,39 @@
       </c>
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
-      <c r="L183" s="2"/>
+      <c r="L183" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M183" s="2"/>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
       <c r="P183" s="2"/>
       <c r="Q183" s="2"/>
       <c r="R183" s="2"/>
-      <c r="S183" s="2"/>
-      <c r="T183" s="2"/>
+      <c r="S183" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T183" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="U183" s="2"/>
-      <c r="V183" s="2"/>
-      <c r="W183" s="2"/>
+      <c r="V183" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="W183" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="X183" s="2"/>
-      <c r="Y183" s="2"/>
-      <c r="Z183" s="2"/>
+      <c r="Y183" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z183" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="AA183" s="2"/>
       <c r="AB183" s="2"/>
     </row>
-    <row r="184" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
         <v>198</v>
       </c>
@@ -9624,25 +11707,39 @@
       </c>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
-      <c r="L184" s="2"/>
+      <c r="L184" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M184" s="2"/>
       <c r="N184" s="2"/>
       <c r="O184" s="2"/>
       <c r="P184" s="2"/>
       <c r="Q184" s="2"/>
       <c r="R184" s="2"/>
-      <c r="S184" s="2"/>
-      <c r="T184" s="2"/>
+      <c r="S184" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T184" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="U184" s="2"/>
-      <c r="V184" s="2"/>
-      <c r="W184" s="2"/>
+      <c r="V184" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="W184" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="X184" s="2"/>
-      <c r="Y184" s="2"/>
-      <c r="Z184" s="2"/>
+      <c r="Y184" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z184" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="AA184" s="2"/>
       <c r="AB184" s="2"/>
     </row>
-    <row r="185" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
         <v>199</v>
       </c>
@@ -9664,25 +11761,39 @@
       </c>
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
-      <c r="L185" s="2"/>
+      <c r="L185" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M185" s="2"/>
       <c r="N185" s="2"/>
       <c r="O185" s="2"/>
       <c r="P185" s="2"/>
       <c r="Q185" s="2"/>
       <c r="R185" s="2"/>
-      <c r="S185" s="2"/>
-      <c r="T185" s="2"/>
+      <c r="S185" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T185" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="U185" s="2"/>
-      <c r="V185" s="2"/>
-      <c r="W185" s="2"/>
+      <c r="V185" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="W185" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="X185" s="2"/>
-      <c r="Y185" s="2"/>
-      <c r="Z185" s="2"/>
+      <c r="Y185" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z185" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="AA185" s="2"/>
       <c r="AB185" s="2"/>
     </row>
-    <row r="186" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
         <v>200</v>
       </c>
@@ -9704,29 +11815,43 @@
       </c>
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
-      <c r="L186" s="2"/>
+      <c r="L186" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="M186" s="2"/>
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
       <c r="P186" s="2"/>
       <c r="Q186" s="2"/>
       <c r="R186" s="2"/>
-      <c r="S186" s="2"/>
-      <c r="T186" s="2"/>
+      <c r="S186" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T186" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="U186" s="2"/>
-      <c r="V186" s="2"/>
-      <c r="W186" s="2"/>
+      <c r="V186" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="W186" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="X186" s="2"/>
-      <c r="Y186" s="2"/>
-      <c r="Z186" s="2"/>
+      <c r="Y186" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z186" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="AA186" s="2"/>
       <c r="AB186" s="2"/>
     </row>
-    <row r="187" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B187" s="8" t="s">
+      <c r="B187" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C187" s="3"/>
@@ -9768,13 +11893,15 @@
       <c r="U187" s="2"/>
       <c r="V187" s="2"/>
       <c r="W187" s="2"/>
-      <c r="X187" s="2"/>
+      <c r="X187" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
       <c r="AA187" s="2"/>
       <c r="AB187" s="2"/>
     </row>
-    <row r="188" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
         <v>202</v>
       </c>
@@ -9796,29 +11923,43 @@
       </c>
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
-      <c r="L188" s="2"/>
+      <c r="L188" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M188" s="2"/>
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
       <c r="P188" s="2"/>
       <c r="Q188" s="2"/>
       <c r="R188" s="2"/>
-      <c r="S188" s="2"/>
-      <c r="T188" s="2"/>
+      <c r="S188" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="T188" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="U188" s="2"/>
-      <c r="V188" s="2"/>
-      <c r="W188" s="2"/>
+      <c r="V188" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W188" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="X188" s="2"/>
-      <c r="Y188" s="2"/>
-      <c r="Z188" s="2"/>
+      <c r="Y188" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z188" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="AA188" s="2"/>
       <c r="AB188" s="2"/>
     </row>
-    <row r="189" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B189" s="8" t="s">
+      <c r="B189" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C189" s="3"/>
@@ -9835,30 +11976,44 @@
         <v>256</v>
       </c>
       <c r="J189" s="2"/>
-      <c r="K189" s="2"/>
+      <c r="K189" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="L189" s="2"/>
-      <c r="M189" s="2"/>
-      <c r="N189" s="2"/>
-      <c r="O189" s="2"/>
+      <c r="M189" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N189" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O189" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="P189" s="2"/>
-      <c r="Q189" s="2"/>
-      <c r="R189" s="2"/>
+      <c r="Q189" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="R189" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="S189" s="2"/>
       <c r="T189" s="2"/>
       <c r="U189" s="2"/>
       <c r="V189" s="2"/>
       <c r="W189" s="2"/>
-      <c r="X189" s="2"/>
+      <c r="X189" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
       <c r="AA189" s="2"/>
       <c r="AB189" s="2"/>
     </row>
-    <row r="190" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B190" s="10" t="s">
+      <c r="B190" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C190" s="3"/>
@@ -9870,29 +12025,43 @@
       <c r="I190" s="2"/>
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
-      <c r="L190" s="2"/>
+      <c r="L190" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="M190" s="2"/>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
       <c r="P190" s="2"/>
       <c r="Q190" s="2"/>
       <c r="R190" s="2"/>
-      <c r="S190" s="2"/>
-      <c r="T190" s="2"/>
+      <c r="S190" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T190" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="U190" s="2"/>
-      <c r="V190" s="2"/>
-      <c r="W190" s="2"/>
+      <c r="V190" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="W190" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="X190" s="2"/>
-      <c r="Y190" s="2"/>
-      <c r="Z190" s="2"/>
+      <c r="Y190" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z190" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="AA190" s="2"/>
       <c r="AB190" s="2"/>
     </row>
-    <row r="191" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B191" s="10"/>
+      <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -9920,11 +12089,11 @@
       <c r="AA191" s="2"/>
       <c r="AB191" s="2"/>
     </row>
-    <row r="192" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B192" s="10"/>
+      <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -9952,11 +12121,11 @@
       <c r="AA192" s="2"/>
       <c r="AB192" s="2"/>
     </row>
-    <row r="193" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B193" s="10"/>
+      <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -9984,11 +12153,11 @@
       <c r="AA193" s="2"/>
       <c r="AB193" s="2"/>
     </row>
-    <row r="194" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B194" s="10"/>
+      <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -10016,7 +12185,7 @@
       <c r="AA194" s="2"/>
       <c r="AB194" s="2"/>
     </row>
-    <row r="195" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
         <v>204</v>
       </c>
@@ -10050,7 +12219,7 @@
       <c r="AA195" s="2"/>
       <c r="AB195" s="2"/>
     </row>
-    <row r="196" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
         <v>205</v>
       </c>
@@ -10084,7 +12253,7 @@
       <c r="AA196" s="2"/>
       <c r="AB196" s="2"/>
     </row>
-    <row r="197" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
         <v>206</v>
       </c>
@@ -10118,7 +12287,7 @@
       <c r="AA197" s="2"/>
       <c r="AB197" s="2"/>
     </row>
-    <row r="198" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="s">
         <v>207</v>
       </c>
@@ -10152,7 +12321,7 @@
       <c r="AA198" s="2"/>
       <c r="AB198" s="2"/>
     </row>
-    <row r="199" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
         <v>208</v>
       </c>
@@ -10186,7 +12355,7 @@
       <c r="AA199" s="2"/>
       <c r="AB199" s="2"/>
     </row>
-    <row r="200" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
         <v>209</v>
       </c>
@@ -10220,7 +12389,7 @@
       <c r="AA200" s="2"/>
       <c r="AB200" s="2"/>
     </row>
-    <row r="201" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
         <v>210</v>
       </c>
@@ -10254,7 +12423,7 @@
       <c r="AA201" s="2"/>
       <c r="AB201" s="2"/>
     </row>
-    <row r="202" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A202" s="3" t="s">
         <v>211</v>
       </c>
@@ -10288,7 +12457,7 @@
       <c r="AA202" s="2"/>
       <c r="AB202" s="2"/>
     </row>
-    <row r="203" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
         <v>212</v>
       </c>
@@ -10322,7 +12491,7 @@
       <c r="AA203" s="2"/>
       <c r="AB203" s="2"/>
     </row>
-    <row r="204" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A204" s="3" t="s">
         <v>213</v>
       </c>
@@ -10356,7 +12525,7 @@
       <c r="AA204" s="2"/>
       <c r="AB204" s="2"/>
     </row>
-    <row r="205" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A205" s="3" t="s">
         <v>214</v>
       </c>
@@ -10392,7 +12561,7 @@
       <c r="AA205" s="2"/>
       <c r="AB205" s="2"/>
     </row>
-    <row r="206" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A206" s="3" t="s">
         <v>216</v>
       </c>
@@ -10428,7 +12597,7 @@
       <c r="AA206" s="2"/>
       <c r="AB206" s="2"/>
     </row>
-    <row r="207" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A207" s="3" t="s">
         <v>217</v>
       </c>
@@ -10464,7 +12633,7 @@
       <c r="AA207" s="2"/>
       <c r="AB207" s="2"/>
     </row>
-    <row r="208" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="s">
         <v>218</v>
       </c>
@@ -10500,7 +12669,7 @@
       <c r="AA208" s="2"/>
       <c r="AB208" s="2"/>
     </row>
-    <row r="209" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
         <v>219</v>
       </c>
@@ -10536,7 +12705,7 @@
       <c r="AA209" s="2"/>
       <c r="AB209" s="2"/>
     </row>
-    <row r="210" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A210" s="3" t="s">
         <v>220</v>
       </c>
@@ -10572,7 +12741,7 @@
       <c r="AA210" s="2"/>
       <c r="AB210" s="2"/>
     </row>
-    <row r="211" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A211" s="3" t="s">
         <v>221</v>
       </c>
@@ -10608,7 +12777,7 @@
       <c r="AA211" s="2"/>
       <c r="AB211" s="2"/>
     </row>
-    <row r="212" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A212" s="3" t="s">
         <v>222</v>
       </c>
@@ -10644,7 +12813,7 @@
       <c r="AA212" s="2"/>
       <c r="AB212" s="2"/>
     </row>
-    <row r="213" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A213" s="3" t="s">
         <v>223</v>
       </c>
@@ -10680,7 +12849,7 @@
       <c r="AA213" s="2"/>
       <c r="AB213" s="2"/>
     </row>
-    <row r="214" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A214" s="3" t="s">
         <v>224</v>
       </c>
@@ -10716,7 +12885,7 @@
       <c r="AA214" s="2"/>
       <c r="AB214" s="2"/>
     </row>
-    <row r="215" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A215" s="3" t="s">
         <v>225</v>
       </c>
@@ -10752,7 +12921,7 @@
       <c r="AA215" s="2"/>
       <c r="AB215" s="2"/>
     </row>
-    <row r="216" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="s">
         <v>226</v>
       </c>
@@ -10788,7 +12957,7 @@
       <c r="AA216" s="2"/>
       <c r="AB216" s="2"/>
     </row>
-    <row r="217" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="s">
         <v>227</v>
       </c>
@@ -10824,7 +12993,7 @@
       <c r="AA217" s="2"/>
       <c r="AB217" s="2"/>
     </row>
-    <row r="218" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A218" s="3" t="s">
         <v>228</v>
       </c>
@@ -10860,7 +13029,7 @@
       <c r="AA218" s="2"/>
       <c r="AB218" s="2"/>
     </row>
-    <row r="219" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A219" s="3" t="s">
         <v>229</v>
       </c>
@@ -10896,7 +13065,7 @@
       <c r="AA219" s="2"/>
       <c r="AB219" s="2"/>
     </row>
-    <row r="220" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A220" s="3" t="s">
         <v>230</v>
       </c>
@@ -10932,7 +13101,7 @@
       <c r="AA220" s="2"/>
       <c r="AB220" s="2"/>
     </row>
-    <row r="221" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A221" s="3" t="s">
         <v>231</v>
       </c>
@@ -10968,7 +13137,7 @@
       <c r="AA221" s="2"/>
       <c r="AB221" s="2"/>
     </row>
-    <row r="222" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A222" s="3" t="s">
         <v>232</v>
       </c>
@@ -11004,7 +13173,7 @@
       <c r="AA222" s="2"/>
       <c r="AB222" s="2"/>
     </row>
-    <row r="223" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A223" s="3" t="s">
         <v>233</v>
       </c>
@@ -11040,7 +13209,7 @@
       <c r="AA223" s="2"/>
       <c r="AB223" s="2"/>
     </row>
-    <row r="224" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A224" s="3" t="s">
         <v>234</v>
       </c>
@@ -11076,7 +13245,7 @@
       <c r="AA224" s="2"/>
       <c r="AB224" s="2"/>
     </row>
-    <row r="225" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A225" s="3" t="s">
         <v>235</v>
       </c>
@@ -11112,7 +13281,7 @@
       <c r="AA225" s="2"/>
       <c r="AB225" s="2"/>
     </row>
-    <row r="226" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A226" s="3" t="s">
         <v>236</v>
       </c>
@@ -11148,7 +13317,7 @@
       <c r="AA226" s="2"/>
       <c r="AB226" s="2"/>
     </row>
-    <row r="227" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A227" s="3" t="s">
         <v>237</v>
       </c>
@@ -11184,7 +13353,7 @@
       <c r="AA227" s="2"/>
       <c r="AB227" s="2"/>
     </row>
-    <row r="228" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A228" s="3" t="s">
         <v>238</v>
       </c>
@@ -11220,7 +13389,7 @@
       <c r="AA228" s="2"/>
       <c r="AB228" s="2"/>
     </row>
-    <row r="229" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A229" s="3" t="s">
         <v>239</v>
       </c>
@@ -11256,7 +13425,7 @@
       <c r="AA229" s="2"/>
       <c r="AB229" s="2"/>
     </row>
-    <row r="230" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A230" s="3" t="s">
         <v>240</v>
       </c>
@@ -11292,7 +13461,7 @@
       <c r="AA230" s="2"/>
       <c r="AB230" s="2"/>
     </row>
-    <row r="231" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A231" s="3" t="s">
         <v>241</v>
       </c>
@@ -11328,7 +13497,7 @@
       <c r="AA231" s="2"/>
       <c r="AB231" s="2"/>
     </row>
-    <row r="232" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A232" s="3" t="s">
         <v>242</v>
       </c>
@@ -11364,7 +13533,7 @@
       <c r="AA232" s="2"/>
       <c r="AB232" s="2"/>
     </row>
-    <row r="233" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A233" s="3" t="s">
         <v>243</v>
       </c>
@@ -11400,7 +13569,7 @@
       <c r="AA233" s="2"/>
       <c r="AB233" s="2"/>
     </row>
-    <row r="234" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A234" s="4" t="s">
         <v>244</v>
       </c>

--- a/uploads/saturday schedule.xlsx
+++ b/uploads/saturday schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\nso_schedules\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F8C26C-F5CB-4F5A-88B1-A75D0DF727AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55ADCB59-408D-45B8-9806-6BED5755C498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{CFEFD664-C137-4AB8-9587-3576B7D9DF99}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3115" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3493" uniqueCount="356">
   <si>
     <t>Names</t>
   </si>
@@ -966,9 +966,6 @@
     <t>Short Break</t>
   </si>
   <si>
-    <t>Clean up at your station</t>
-  </si>
-  <si>
     <t>Traffic- Place Candlestick cones in designated areas, connect with any extra steamers.</t>
   </si>
   <si>
@@ -1033,6 +1030,105 @@
   </si>
   <si>
     <t>Stand against the stadium. This photo is only for the new students.</t>
+  </si>
+  <si>
+    <t>Oversee Check-ins.</t>
+  </si>
+  <si>
+    <t>Watch mentor connections.</t>
+  </si>
+  <si>
+    <t>Help with Check-ins.</t>
+  </si>
+  <si>
+    <t>Go to Flag Signing and help.</t>
+  </si>
+  <si>
+    <t>Volunteers hahahahahahahaha</t>
+  </si>
+  <si>
+    <t>Go to Saddle Up Shuffle</t>
+  </si>
+  <si>
+    <t>Take down Check-ins.</t>
+  </si>
+  <si>
+    <t>Go to Viking Village in the Hart</t>
+  </si>
+  <si>
+    <t>Lime, Gold, Orange, Black, Light Pink, Silver, Dark Green</t>
+  </si>
+  <si>
+    <t>Clean up and photo</t>
+  </si>
+  <si>
+    <t>Yellow, White, Magenta, Purple, Blue, Red</t>
+  </si>
+  <si>
+    <t>Go to Mckay Amphitheater for Game Show</t>
+  </si>
+  <si>
+    <t>Blue, Red</t>
+  </si>
+  <si>
+    <t>Yellow, White</t>
+  </si>
+  <si>
+    <t>Magenta, Purple</t>
+  </si>
+  <si>
+    <t>Light Pink, Silver, Dark Green</t>
+  </si>
+  <si>
+    <t>Orange, Black</t>
+  </si>
+  <si>
+    <t>Lime, Gold</t>
+  </si>
+  <si>
+    <t>Eat lunch, then take lunch to the homeless (seth and the rest of the team)</t>
+  </si>
+  <si>
+    <t>Black, Light Pink, Silver, Dark Green</t>
+  </si>
+  <si>
+    <t>Lime, Gold, Orange</t>
+  </si>
+  <si>
+    <t>Purple, Blue, Red</t>
+  </si>
+  <si>
+    <t>Yellow, White, Magenta</t>
+  </si>
+  <si>
+    <t>Clean up Legacy walk</t>
+  </si>
+  <si>
+    <t>Help Clean up Check-ins with Rachel</t>
+  </si>
+  <si>
+    <t>Go to Spori South Quad to oversee games.</t>
+  </si>
+  <si>
+    <t>Help Joey</t>
+  </si>
+  <si>
+    <t>Joey :)</t>
+  </si>
+  <si>
+    <t>Go to Taylor Quad. Help deliver Flag signing instructions: Each student can sign their first and last name if they choose. No drawings or other verbiage is allowed. Encourage small signatures. Assist with Flag signing/ traffic flow</t>
+  </si>
+  <si>
+    <t>Go to MC Ballroom. Usher students to and from line dancing.</t>
+  </si>
+  <si>
+    <t>Someone will bring you lunch during this time.</t>
+  </si>
+  <si>
+    <t>Bring lunch to pam in the spori quads</t>
+  </si>
+  <si>
+    <t>Make sure Joey and his table get lunch</t>
   </si>
 </sst>
 </file>
@@ -1632,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CB4A9D-89C3-4A17-8052-CF4B27EC2D33}">
   <dimension ref="A1:AB233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K233" sqref="K233"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L185" sqref="L185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1747,7 +1843,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1763,33 +1859,49 @@
         <v>250</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="J2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="P2" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
+      <c r="U2" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
+      <c r="X2" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-    </row>
-    <row r="3" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="AB2" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1805,33 +1917,47 @@
         <v>251</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="J3" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>329</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
+      <c r="P3" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
+      <c r="U3" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-    </row>
-    <row r="4" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="AB3" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1847,31 +1973,47 @@
         <v>250</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="J4" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="P4" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
+      <c r="U4" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
+      <c r="X4" s="2" t="s">
+        <v>345</v>
+      </c>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
+      <c r="AB4" s="2" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="5" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -1889,31 +2031,51 @@
         <v>250</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="J5" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="K5" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>330</v>
+      </c>
       <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>336</v>
+      </c>
       <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="O5" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="R5" s="2" t="s">
+        <v>337</v>
+      </c>
       <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
+      <c r="T5" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
+      <c r="W5" s="2" t="s">
+        <v>338</v>
+      </c>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
+      <c r="Z5" s="2" t="s">
+        <v>339</v>
+      </c>
       <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
+      <c r="AB5" s="2" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="6" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -1931,14 +2093,20 @@
         <v>250</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="J6" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="K6" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1955,7 +2123,9 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
+      <c r="AB6" s="2" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="7" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -1973,31 +2143,49 @@
         <v>250</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="J7" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>331</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
+      <c r="P7" s="2" t="s">
+        <v>331</v>
+      </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
+      <c r="S7" s="2" t="s">
+        <v>331</v>
+      </c>
       <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
+      <c r="U7" s="2" t="s">
+        <v>333</v>
+      </c>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
+      <c r="X7" s="2" t="s">
+        <v>333</v>
+      </c>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
+      <c r="AB7" s="2" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="8" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -2015,31 +2203,61 @@
         <v>250</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="J8" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
+      <c r="O8" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>331</v>
+      </c>
       <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
+      <c r="R8" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>333</v>
+      </c>
       <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
+      <c r="W8" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>333</v>
+      </c>
       <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
+      <c r="Z8" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
+      <c r="AB8" s="2" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="9" spans="1:28" ht="87" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -2052,34 +2270,46 @@
         <v>249</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="J9" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K9" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+      <c r="P9" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
+      <c r="U9" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
+      <c r="AB9" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="10" spans="1:28" ht="87" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
@@ -2092,34 +2322,46 @@
         <v>249</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="J10" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+      <c r="P10" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
+      <c r="U10" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
+      <c r="AB10" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="11" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -2136,10 +2378,10 @@
         <v>249</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>256</v>
@@ -2148,7 +2390,7 @@
         <v>258</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>287</v>
@@ -2200,10 +2442,10 @@
         <v>249</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>256</v>
@@ -2212,7 +2454,7 @@
         <v>258</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>287</v>
@@ -2262,10 +2504,10 @@
         <v>249</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>256</v>
@@ -2274,7 +2516,7 @@
         <v>258</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>287</v>
@@ -2324,10 +2566,10 @@
         <v>249</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>256</v>
@@ -2336,7 +2578,7 @@
         <v>258</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
@@ -2345,7 +2587,9 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
+      <c r="P14" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2" t="s">
@@ -2386,10 +2630,10 @@
         <v>249</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>256</v>
@@ -2398,7 +2642,7 @@
         <v>258</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
@@ -2407,7 +2651,9 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
+      <c r="P15" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2" t="s">
@@ -2448,10 +2694,10 @@
         <v>249</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>256</v>
@@ -2460,7 +2706,7 @@
         <v>258</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2" t="s">
@@ -2469,7 +2715,9 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
+      <c r="P16" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2" t="s">
@@ -2510,10 +2758,10 @@
         <v>249</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>256</v>
@@ -2522,7 +2770,7 @@
         <v>258</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="s">
@@ -2531,7 +2779,9 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
+      <c r="P17" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2" t="s">
@@ -2572,10 +2822,10 @@
         <v>249</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>256</v>
@@ -2584,7 +2834,7 @@
         <v>258</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2" t="s">
@@ -2593,7 +2843,9 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
+      <c r="P18" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2" t="s">
@@ -2634,10 +2886,10 @@
         <v>249</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>256</v>
@@ -2646,7 +2898,7 @@
         <v>258</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2" t="s">
@@ -2655,7 +2907,9 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
+      <c r="P19" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2" t="s">
@@ -2696,10 +2950,10 @@
         <v>249</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>256</v>
@@ -2708,7 +2962,7 @@
         <v>258</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2" t="s">
@@ -2717,7 +2971,9 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
+      <c r="P20" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2" t="s">
@@ -2758,10 +3014,10 @@
         <v>249</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>256</v>
@@ -2770,7 +3026,7 @@
         <v>258</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2" t="s">
@@ -2779,7 +3035,9 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
+      <c r="P21" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2" t="s">
@@ -2820,10 +3078,10 @@
         <v>249</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>256</v>
@@ -2832,7 +3090,7 @@
         <v>258</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2" t="s">
@@ -2841,7 +3099,9 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
+      <c r="P22" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2" t="s">
@@ -2882,10 +3142,10 @@
         <v>249</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>256</v>
@@ -2894,7 +3154,7 @@
         <v>258</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2" t="s">
@@ -2903,7 +3163,9 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
+      <c r="P23" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2" t="s">
@@ -2944,10 +3206,10 @@
         <v>249</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>256</v>
@@ -2956,7 +3218,7 @@
         <v>258</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2" t="s">
@@ -2965,7 +3227,9 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
+      <c r="P24" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2" t="s">
@@ -3006,10 +3270,10 @@
         <v>249</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>256</v>
@@ -3018,7 +3282,7 @@
         <v>258</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2" t="s">
@@ -3027,7 +3291,9 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
+      <c r="P25" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2" t="s">
@@ -3068,10 +3334,10 @@
         <v>249</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>256</v>
@@ -3080,7 +3346,7 @@
         <v>258</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2" t="s">
@@ -3089,7 +3355,9 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
+      <c r="P26" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2" t="s">
@@ -3130,10 +3398,10 @@
         <v>249</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>256</v>
@@ -3142,7 +3410,7 @@
         <v>258</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2" t="s">
@@ -3151,7 +3419,9 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
+      <c r="P27" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2" t="s">
@@ -3192,10 +3462,10 @@
         <v>249</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>256</v>
@@ -3204,7 +3474,7 @@
         <v>258</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2" t="s">
@@ -3213,7 +3483,9 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
+      <c r="P28" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2" t="s">
@@ -3254,10 +3526,10 @@
         <v>249</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>256</v>
@@ -3266,7 +3538,7 @@
         <v>258</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>287</v>
@@ -3316,10 +3588,10 @@
         <v>249</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>256</v>
@@ -3328,7 +3600,7 @@
         <v>258</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>287</v>
@@ -3378,10 +3650,10 @@
         <v>249</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>256</v>
@@ -3390,7 +3662,7 @@
         <v>258</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>287</v>
@@ -3440,10 +3712,10 @@
         <v>249</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>256</v>
@@ -3452,7 +3724,7 @@
         <v>258</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>287</v>
@@ -3502,10 +3774,10 @@
         <v>249</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>256</v>
@@ -3514,7 +3786,7 @@
         <v>258</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>287</v>
@@ -3564,10 +3836,10 @@
         <v>249</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>256</v>
@@ -3576,7 +3848,7 @@
         <v>258</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>287</v>
@@ -3626,10 +3898,10 @@
         <v>249</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>256</v>
@@ -3638,7 +3910,7 @@
         <v>258</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>287</v>
@@ -3688,10 +3960,10 @@
         <v>249</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>256</v>
@@ -3700,7 +3972,7 @@
         <v>258</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>287</v>
@@ -3750,10 +4022,10 @@
         <v>249</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>256</v>
@@ -3762,7 +4034,7 @@
         <v>258</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>287</v>
@@ -3812,10 +4084,10 @@
         <v>249</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>256</v>
@@ -3824,7 +4096,7 @@
         <v>258</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>287</v>
@@ -3874,10 +4146,10 @@
         <v>249</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>256</v>
@@ -3886,7 +4158,7 @@
         <v>258</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>287</v>
@@ -3936,10 +4208,10 @@
         <v>249</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>256</v>
@@ -3948,7 +4220,7 @@
         <v>258</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>287</v>
@@ -3998,10 +4270,10 @@
         <v>249</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>256</v>
@@ -4010,7 +4282,7 @@
         <v>258</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2" t="s">
@@ -4019,7 +4291,9 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
+      <c r="P41" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2" t="s">
@@ -4060,10 +4334,10 @@
         <v>249</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>256</v>
@@ -4072,7 +4346,7 @@
         <v>258</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>291</v>
@@ -4122,10 +4396,10 @@
         <v>249</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>256</v>
@@ -4134,7 +4408,7 @@
         <v>258</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>291</v>
@@ -4184,10 +4458,10 @@
         <v>249</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>256</v>
@@ -4196,7 +4470,7 @@
         <v>258</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2" t="s">
@@ -4205,7 +4479,9 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
+      <c r="P44" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2" t="s">
@@ -4246,10 +4522,10 @@
         <v>249</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>256</v>
@@ -4258,7 +4534,7 @@
         <v>258</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>291</v>
@@ -4308,10 +4584,10 @@
         <v>249</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>256</v>
@@ -4320,7 +4596,7 @@
         <v>258</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>291</v>
@@ -4370,10 +4646,10 @@
         <v>249</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>256</v>
@@ -4382,7 +4658,7 @@
         <v>258</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="2" t="s">
@@ -4391,7 +4667,9 @@
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
+      <c r="P47" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2" t="s">
@@ -4432,10 +4710,10 @@
         <v>249</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>256</v>
@@ -4444,7 +4722,7 @@
         <v>258</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>291</v>
@@ -4494,10 +4772,10 @@
         <v>249</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>256</v>
@@ -4506,7 +4784,7 @@
         <v>258</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="2" t="s">
@@ -4515,7 +4793,9 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
+      <c r="P49" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="2" t="s">
@@ -4556,10 +4836,10 @@
         <v>249</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>256</v>
@@ -4568,7 +4848,7 @@
         <v>258</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="2" t="s">
@@ -4577,7 +4857,9 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
+      <c r="P50" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="2" t="s">
@@ -4618,10 +4900,10 @@
         <v>249</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>256</v>
@@ -4630,7 +4912,7 @@
         <v>258</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="2" t="s">
@@ -4639,7 +4921,9 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
+      <c r="P51" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2" t="s">
@@ -4680,10 +4964,10 @@
         <v>249</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>256</v>
@@ -4692,7 +4976,7 @@
         <v>258</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="2" t="s">
@@ -4701,7 +4985,9 @@
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
+      <c r="P52" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2" t="s">
@@ -4742,10 +5028,10 @@
         <v>249</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>256</v>
@@ -4754,7 +5040,7 @@
         <v>258</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="2" t="s">
@@ -4763,7 +5049,9 @@
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
+      <c r="P53" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
       <c r="S53" s="2" t="s">
@@ -4804,10 +5092,10 @@
         <v>249</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>256</v>
@@ -4816,7 +5104,7 @@
         <v>258</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="2" t="s">
@@ -4825,7 +5113,9 @@
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
+      <c r="P54" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
       <c r="S54" s="2" t="s">
@@ -4866,10 +5156,10 @@
         <v>249</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>256</v>
@@ -4878,7 +5168,7 @@
         <v>258</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="2" t="s">
@@ -4887,7 +5177,9 @@
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
+      <c r="P55" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
       <c r="S55" s="2" t="s">
@@ -4928,10 +5220,10 @@
         <v>249</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>256</v>
@@ -4940,7 +5232,7 @@
         <v>258</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="2" t="s">
@@ -4949,7 +5241,9 @@
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
+      <c r="P56" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
       <c r="S56" s="2" t="s">
@@ -4990,10 +5284,10 @@
         <v>249</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>256</v>
@@ -5002,7 +5296,7 @@
         <v>258</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="2" t="s">
@@ -5011,7 +5305,9 @@
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
+      <c r="P57" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
       <c r="S57" s="2" t="s">
@@ -5052,10 +5348,10 @@
         <v>249</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>256</v>
@@ -5064,7 +5360,7 @@
         <v>258</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>291</v>
@@ -5114,10 +5410,10 @@
         <v>249</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>256</v>
@@ -5126,7 +5422,7 @@
         <v>258</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="2" t="s">
@@ -5135,7 +5431,9 @@
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
+      <c r="P59" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
       <c r="S59" s="2" t="s">
@@ -5176,10 +5474,10 @@
         <v>249</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>256</v>
@@ -5188,7 +5486,7 @@
         <v>258</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="2" t="s">
@@ -5197,7 +5495,9 @@
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
+      <c r="P60" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
       <c r="S60" s="2" t="s">
@@ -5238,10 +5538,10 @@
         <v>249</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>256</v>
@@ -5250,7 +5550,7 @@
         <v>258</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>291</v>
@@ -5300,10 +5600,10 @@
         <v>249</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>256</v>
@@ -5312,7 +5612,7 @@
         <v>258</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>291</v>
@@ -5362,10 +5662,10 @@
         <v>249</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>256</v>
@@ -5374,7 +5674,7 @@
         <v>258</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>291</v>
@@ -5424,10 +5724,10 @@
         <v>249</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>256</v>
@@ -5436,7 +5736,7 @@
         <v>258</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>291</v>
@@ -5486,10 +5786,10 @@
         <v>249</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>256</v>
@@ -5498,7 +5798,7 @@
         <v>258</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>291</v>
@@ -5548,10 +5848,10 @@
         <v>249</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>256</v>
@@ -5560,7 +5860,7 @@
         <v>258</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>291</v>
@@ -5610,10 +5910,10 @@
         <v>249</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>256</v>
@@ -5622,7 +5922,7 @@
         <v>258</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>291</v>
@@ -5672,10 +5972,10 @@
         <v>249</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>256</v>
@@ -5684,7 +5984,7 @@
         <v>258</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>291</v>
@@ -5734,10 +6034,10 @@
         <v>249</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>256</v>
@@ -5746,7 +6046,7 @@
         <v>258</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>291</v>
@@ -5796,10 +6096,10 @@
         <v>249</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>256</v>
@@ -5808,7 +6108,7 @@
         <v>258</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>291</v>
@@ -5858,10 +6158,10 @@
         <v>249</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>256</v>
@@ -5870,7 +6170,7 @@
         <v>258</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="2" t="s">
@@ -5879,7 +6179,9 @@
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
+      <c r="P71" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
       <c r="S71" s="2" t="s">
@@ -5920,10 +6222,10 @@
         <v>249</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>256</v>
@@ -5932,7 +6234,7 @@
         <v>258</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>288</v>
@@ -5984,10 +6286,10 @@
         <v>249</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>256</v>
@@ -5996,7 +6298,7 @@
         <v>258</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>288</v>
@@ -6048,10 +6350,10 @@
         <v>249</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>256</v>
@@ -6060,7 +6362,7 @@
         <v>258</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="2" t="s">
@@ -6069,7 +6371,9 @@
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
+      <c r="P74" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
       <c r="S74" s="2" t="s">
@@ -6110,10 +6414,10 @@
         <v>249</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>256</v>
@@ -6122,7 +6426,7 @@
         <v>258</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="2" t="s">
@@ -6131,7 +6435,9 @@
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
+      <c r="P75" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
       <c r="S75" s="2" t="s">
@@ -6172,10 +6478,10 @@
         <v>249</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>256</v>
@@ -6184,7 +6490,7 @@
         <v>258</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="2" t="s">
@@ -6193,7 +6499,9 @@
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
+      <c r="P76" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
       <c r="S76" s="2" t="s">
@@ -6234,10 +6542,10 @@
         <v>249</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>256</v>
@@ -6246,7 +6554,7 @@
         <v>258</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="2" t="s">
@@ -6255,7 +6563,9 @@
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
+      <c r="P77" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
       <c r="S77" s="2" t="s">
@@ -6296,10 +6606,10 @@
         <v>249</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>256</v>
@@ -6308,7 +6618,7 @@
         <v>258</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="2" t="s">
@@ -6317,7 +6627,9 @@
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
+      <c r="P78" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
       <c r="S78" s="2" t="s">
@@ -6358,10 +6670,10 @@
         <v>249</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>256</v>
@@ -6370,7 +6682,7 @@
         <v>258</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>288</v>
@@ -6420,10 +6732,10 @@
         <v>249</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>256</v>
@@ -6432,7 +6744,7 @@
         <v>258</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>288</v>
@@ -6482,10 +6794,10 @@
         <v>249</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>256</v>
@@ -6494,7 +6806,7 @@
         <v>258</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>288</v>
@@ -6544,10 +6856,10 @@
         <v>249</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>256</v>
@@ -6556,7 +6868,7 @@
         <v>258</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>288</v>
@@ -6606,10 +6918,10 @@
         <v>249</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>256</v>
@@ -6618,7 +6930,7 @@
         <v>258</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>288</v>
@@ -6668,10 +6980,10 @@
         <v>249</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>256</v>
@@ -6680,7 +6992,7 @@
         <v>258</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>288</v>
@@ -6730,10 +7042,10 @@
         <v>249</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>256</v>
@@ -6742,7 +7054,7 @@
         <v>258</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>288</v>
@@ -6792,10 +7104,10 @@
         <v>249</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>256</v>
@@ -6804,7 +7116,7 @@
         <v>258</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>288</v>
@@ -6854,10 +7166,10 @@
         <v>249</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>256</v>
@@ -6866,7 +7178,7 @@
         <v>258</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>288</v>
@@ -6916,10 +7228,10 @@
         <v>249</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>256</v>
@@ -6928,7 +7240,7 @@
         <v>258</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>288</v>
@@ -6978,10 +7290,10 @@
         <v>249</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>256</v>
@@ -6990,7 +7302,7 @@
         <v>258</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="2" t="s">
@@ -6999,7 +7311,9 @@
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
-      <c r="P89" s="2"/>
+      <c r="P89" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q89" s="2"/>
       <c r="R89" s="2"/>
       <c r="S89" s="2" t="s">
@@ -7040,10 +7354,10 @@
         <v>249</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>256</v>
@@ -7052,7 +7366,7 @@
         <v>258</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="2" t="s">
@@ -7061,7 +7375,9 @@
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
-      <c r="P90" s="2"/>
+      <c r="P90" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q90" s="2"/>
       <c r="R90" s="2"/>
       <c r="S90" s="2" t="s">
@@ -7102,10 +7418,10 @@
         <v>249</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>256</v>
@@ -7114,7 +7430,7 @@
         <v>258</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="2" t="s">
@@ -7123,7 +7439,9 @@
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
-      <c r="P91" s="2"/>
+      <c r="P91" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q91" s="2"/>
       <c r="R91" s="2"/>
       <c r="S91" s="2" t="s">
@@ -7164,10 +7482,10 @@
         <v>249</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>256</v>
@@ -7176,7 +7494,7 @@
         <v>258</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="2" t="s">
@@ -7185,7 +7503,9 @@
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
-      <c r="P92" s="2"/>
+      <c r="P92" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q92" s="2"/>
       <c r="R92" s="2"/>
       <c r="S92" s="2" t="s">
@@ -7226,10 +7546,10 @@
         <v>249</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>256</v>
@@ -7238,7 +7558,7 @@
         <v>258</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="2" t="s">
@@ -7247,7 +7567,9 @@
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
-      <c r="P93" s="2"/>
+      <c r="P93" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q93" s="2"/>
       <c r="R93" s="2"/>
       <c r="S93" s="2" t="s">
@@ -7288,10 +7610,10 @@
         <v>249</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>256</v>
@@ -7300,7 +7622,7 @@
         <v>258</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="2" t="s">
@@ -7309,7 +7631,9 @@
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
-      <c r="P94" s="2"/>
+      <c r="P94" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q94" s="2"/>
       <c r="R94" s="2"/>
       <c r="S94" s="2" t="s">
@@ -7350,10 +7674,10 @@
         <v>249</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>256</v>
@@ -7362,7 +7686,7 @@
         <v>258</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="2" t="s">
@@ -7371,7 +7695,9 @@
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
-      <c r="P95" s="2"/>
+      <c r="P95" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q95" s="2"/>
       <c r="R95" s="2"/>
       <c r="S95" s="2" t="s">
@@ -7412,10 +7738,10 @@
         <v>249</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>256</v>
@@ -7424,7 +7750,7 @@
         <v>258</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="2" t="s">
@@ -7433,7 +7759,9 @@
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
-      <c r="P96" s="2"/>
+      <c r="P96" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q96" s="2"/>
       <c r="R96" s="2"/>
       <c r="S96" s="2" t="s">
@@ -7474,10 +7802,10 @@
         <v>249</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>256</v>
@@ -7486,7 +7814,7 @@
         <v>258</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>289</v>
@@ -7536,10 +7864,10 @@
         <v>249</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>256</v>
@@ -7548,7 +7876,7 @@
         <v>258</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>289</v>
@@ -7598,10 +7926,10 @@
         <v>249</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>256</v>
@@ -7610,7 +7938,7 @@
         <v>258</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>289</v>
@@ -7660,10 +7988,10 @@
         <v>249</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>256</v>
@@ -7672,7 +8000,7 @@
         <v>258</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>289</v>
@@ -7722,10 +8050,10 @@
         <v>249</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>256</v>
@@ -7734,7 +8062,7 @@
         <v>258</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>289</v>
@@ -7784,10 +8112,10 @@
         <v>249</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>256</v>
@@ -7796,7 +8124,7 @@
         <v>258</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>289</v>
@@ -7846,10 +8174,10 @@
         <v>249</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>256</v>
@@ -7858,7 +8186,7 @@
         <v>258</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K103" s="2" t="s">
         <v>291</v>
@@ -7908,10 +8236,10 @@
         <v>249</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>256</v>
@@ -7920,7 +8248,7 @@
         <v>258</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>289</v>
@@ -7970,10 +8298,10 @@
         <v>249</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>256</v>
@@ -7982,7 +8310,7 @@
         <v>258</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>289</v>
@@ -8032,10 +8360,10 @@
         <v>249</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>256</v>
@@ -8044,7 +8372,7 @@
         <v>258</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>289</v>
@@ -8094,10 +8422,10 @@
         <v>249</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>256</v>
@@ -8106,7 +8434,7 @@
         <v>258</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>289</v>
@@ -8156,10 +8484,10 @@
         <v>249</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>256</v>
@@ -8168,7 +8496,7 @@
         <v>258</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>289</v>
@@ -8218,10 +8546,10 @@
         <v>249</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>256</v>
@@ -8230,7 +8558,7 @@
         <v>258</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>289</v>
@@ -8280,10 +8608,10 @@
         <v>249</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>256</v>
@@ -8292,7 +8620,7 @@
         <v>258</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>289</v>
@@ -8342,10 +8670,10 @@
         <v>249</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>256</v>
@@ -8354,7 +8682,7 @@
         <v>258</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K111" s="2" t="s">
         <v>289</v>
@@ -8404,10 +8732,10 @@
         <v>249</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>256</v>
@@ -8416,7 +8744,7 @@
         <v>258</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K112" s="2" t="s">
         <v>291</v>
@@ -8466,10 +8794,10 @@
         <v>249</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>256</v>
@@ -8478,7 +8806,7 @@
         <v>258</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K113" s="2" t="s">
         <v>289</v>
@@ -8528,10 +8856,10 @@
         <v>249</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>256</v>
@@ -8540,7 +8868,7 @@
         <v>258</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K114" s="2" t="s">
         <v>291</v>
@@ -8590,10 +8918,10 @@
         <v>249</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>256</v>
@@ -8602,7 +8930,7 @@
         <v>258</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K115" s="2" t="s">
         <v>291</v>
@@ -8652,10 +8980,10 @@
         <v>249</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>256</v>
@@ -8664,7 +8992,7 @@
         <v>258</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>291</v>
@@ -8714,10 +9042,10 @@
         <v>249</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>256</v>
@@ -8726,7 +9054,7 @@
         <v>258</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>291</v>
@@ -8776,10 +9104,10 @@
         <v>249</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>256</v>
@@ -8788,7 +9116,7 @@
         <v>258</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K118" s="2" t="s">
         <v>291</v>
@@ -8838,10 +9166,10 @@
         <v>249</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>256</v>
@@ -8850,7 +9178,7 @@
         <v>258</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K119" s="2" t="s">
         <v>291</v>
@@ -8900,10 +9228,10 @@
         <v>249</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>256</v>
@@ -8912,7 +9240,7 @@
         <v>258</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K120" s="2" t="s">
         <v>291</v>
@@ -8962,10 +9290,10 @@
         <v>249</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>256</v>
@@ -8974,7 +9302,7 @@
         <v>258</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K121" s="2" t="s">
         <v>291</v>
@@ -9024,10 +9352,10 @@
         <v>249</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>256</v>
@@ -9036,7 +9364,7 @@
         <v>258</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>291</v>
@@ -9086,10 +9414,10 @@
         <v>249</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>256</v>
@@ -9098,7 +9426,7 @@
         <v>258</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>291</v>
@@ -9148,10 +9476,10 @@
         <v>249</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>256</v>
@@ -9160,7 +9488,7 @@
         <v>258</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K124" s="2"/>
       <c r="L124" s="2" t="s">
@@ -9169,7 +9497,9 @@
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
-      <c r="P124" s="2"/>
+      <c r="P124" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q124" s="2"/>
       <c r="R124" s="2"/>
       <c r="S124" s="2" t="s">
@@ -9210,10 +9540,10 @@
         <v>249</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>256</v>
@@ -9222,7 +9552,7 @@
         <v>258</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K125" s="2" t="s">
         <v>287</v>
@@ -9272,10 +9602,10 @@
         <v>249</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>256</v>
@@ -9284,7 +9614,7 @@
         <v>258</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K126" s="2" t="s">
         <v>287</v>
@@ -9334,10 +9664,10 @@
         <v>249</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>256</v>
@@ -9346,7 +9676,7 @@
         <v>258</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K127" s="2" t="s">
         <v>287</v>
@@ -9396,10 +9726,10 @@
         <v>249</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>256</v>
@@ -9408,7 +9738,7 @@
         <v>258</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K128" s="2" t="s">
         <v>287</v>
@@ -9458,10 +9788,10 @@
         <v>249</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>256</v>
@@ -9470,7 +9800,7 @@
         <v>258</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K129" s="2" t="s">
         <v>287</v>
@@ -9520,10 +9850,10 @@
         <v>249</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>256</v>
@@ -9532,7 +9862,7 @@
         <v>258</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K130" s="2" t="s">
         <v>287</v>
@@ -9582,10 +9912,10 @@
         <v>249</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>256</v>
@@ -9594,7 +9924,7 @@
         <v>258</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K131" s="2" t="s">
         <v>287</v>
@@ -9644,10 +9974,10 @@
         <v>249</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>256</v>
@@ -9656,7 +9986,7 @@
         <v>258</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K132" s="2" t="s">
         <v>287</v>
@@ -9706,10 +10036,10 @@
         <v>249</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>256</v>
@@ -9718,7 +10048,7 @@
         <v>258</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K133" s="2" t="s">
         <v>287</v>
@@ -9768,10 +10098,10 @@
         <v>249</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>256</v>
@@ -9780,7 +10110,7 @@
         <v>258</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K134" s="2" t="s">
         <v>287</v>
@@ -9830,10 +10160,10 @@
         <v>249</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>256</v>
@@ -9842,7 +10172,7 @@
         <v>258</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K135" s="2" t="s">
         <v>287</v>
@@ -9892,10 +10222,10 @@
         <v>249</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>256</v>
@@ -9904,7 +10234,7 @@
         <v>258</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K136" s="2" t="s">
         <v>287</v>
@@ -9954,10 +10284,10 @@
         <v>249</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>256</v>
@@ -9966,7 +10296,7 @@
         <v>258</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="2" t="s">
@@ -9975,7 +10305,9 @@
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
-      <c r="P137" s="2"/>
+      <c r="P137" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q137" s="2"/>
       <c r="R137" s="2"/>
       <c r="S137" s="2" t="s">
@@ -10016,10 +10348,10 @@
         <v>249</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>256</v>
@@ -10028,7 +10360,7 @@
         <v>258</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="2" t="s">
@@ -10037,7 +10369,9 @@
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
-      <c r="P138" s="2"/>
+      <c r="P138" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q138" s="2"/>
       <c r="R138" s="2"/>
       <c r="S138" s="2" t="s">
@@ -10078,10 +10412,10 @@
         <v>249</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>256</v>
@@ -10090,7 +10424,7 @@
         <v>258</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="2" t="s">
@@ -10099,7 +10433,9 @@
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
-      <c r="P139" s="2"/>
+      <c r="P139" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q139" s="2"/>
       <c r="R139" s="2"/>
       <c r="S139" s="2" t="s">
@@ -10140,10 +10476,10 @@
         <v>249</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>256</v>
@@ -10152,7 +10488,7 @@
         <v>258</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="2" t="s">
@@ -10161,7 +10497,9 @@
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
-      <c r="P140" s="2"/>
+      <c r="P140" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q140" s="2"/>
       <c r="R140" s="2"/>
       <c r="S140" s="2" t="s">
@@ -10202,10 +10540,10 @@
         <v>249</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>256</v>
@@ -10214,7 +10552,7 @@
         <v>258</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="2" t="s">
@@ -10223,7 +10561,9 @@
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
-      <c r="P141" s="2"/>
+      <c r="P141" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q141" s="2"/>
       <c r="R141" s="2"/>
       <c r="S141" s="2" t="s">
@@ -10264,10 +10604,10 @@
         <v>249</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>256</v>
@@ -10276,7 +10616,7 @@
         <v>258</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="2" t="s">
@@ -10285,7 +10625,9 @@
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
-      <c r="P142" s="2"/>
+      <c r="P142" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q142" s="2"/>
       <c r="R142" s="2"/>
       <c r="S142" s="2" t="s">
@@ -10326,10 +10668,10 @@
         <v>249</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>256</v>
@@ -10338,7 +10680,7 @@
         <v>258</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K143" s="2"/>
       <c r="L143" s="2" t="s">
@@ -10347,7 +10689,9 @@
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
-      <c r="P143" s="2"/>
+      <c r="P143" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q143" s="2"/>
       <c r="R143" s="2"/>
       <c r="S143" s="2" t="s">
@@ -10388,10 +10732,10 @@
         <v>249</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H144" s="2" t="s">
         <v>256</v>
@@ -10400,7 +10744,7 @@
         <v>258</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K144" s="2"/>
       <c r="L144" s="2" t="s">
@@ -10409,7 +10753,9 @@
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
-      <c r="P144" s="2"/>
+      <c r="P144" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q144" s="2"/>
       <c r="R144" s="2"/>
       <c r="S144" s="2" t="s">
@@ -10450,10 +10796,10 @@
         <v>249</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H145" s="2" t="s">
         <v>256</v>
@@ -10462,7 +10808,7 @@
         <v>258</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K145" s="2"/>
       <c r="L145" s="2" t="s">
@@ -10471,7 +10817,9 @@
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
-      <c r="P145" s="2"/>
+      <c r="P145" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q145" s="2"/>
       <c r="R145" s="2"/>
       <c r="S145" s="2" t="s">
@@ -10512,10 +10860,10 @@
         <v>249</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>256</v>
@@ -10524,7 +10872,7 @@
         <v>258</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="2" t="s">
@@ -10533,7 +10881,9 @@
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
-      <c r="P146" s="2"/>
+      <c r="P146" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q146" s="2"/>
       <c r="R146" s="2"/>
       <c r="S146" s="2" t="s">
@@ -10574,10 +10924,10 @@
         <v>249</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>256</v>
@@ -10586,7 +10936,7 @@
         <v>258</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K147" s="2"/>
       <c r="L147" s="2" t="s">
@@ -10595,7 +10945,9 @@
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
-      <c r="P147" s="2"/>
+      <c r="P147" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q147" s="2"/>
       <c r="R147" s="2"/>
       <c r="S147" s="2" t="s">
@@ -10636,10 +10988,10 @@
         <v>249</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>256</v>
@@ -10648,7 +11000,7 @@
         <v>258</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="2" t="s">
@@ -10657,7 +11009,9 @@
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
-      <c r="P148" s="2"/>
+      <c r="P148" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q148" s="2"/>
       <c r="R148" s="2"/>
       <c r="S148" s="2" t="s">
@@ -10698,10 +11052,10 @@
         <v>249</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H149" s="2" t="s">
         <v>256</v>
@@ -10710,7 +11064,7 @@
         <v>258</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="2" t="s">
@@ -10719,7 +11073,9 @@
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
-      <c r="P149" s="2"/>
+      <c r="P149" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q149" s="2"/>
       <c r="R149" s="2"/>
       <c r="S149" s="2" t="s">
@@ -10760,10 +11116,10 @@
         <v>249</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>256</v>
@@ -10772,7 +11128,7 @@
         <v>258</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="2" t="s">
@@ -10781,7 +11137,9 @@
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
-      <c r="P150" s="2"/>
+      <c r="P150" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q150" s="2"/>
       <c r="R150" s="2"/>
       <c r="S150" s="2" t="s">
@@ -10822,10 +11180,10 @@
         <v>249</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>256</v>
@@ -10834,7 +11192,7 @@
         <v>258</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K151" s="2"/>
       <c r="L151" s="2" t="s">
@@ -10843,7 +11201,9 @@
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
-      <c r="P151" s="2"/>
+      <c r="P151" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q151" s="2"/>
       <c r="R151" s="2"/>
       <c r="S151" s="2" t="s">
@@ -10884,10 +11244,10 @@
         <v>249</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>256</v>
@@ -10896,7 +11256,7 @@
         <v>258</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="2" t="s">
@@ -10905,7 +11265,9 @@
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
-      <c r="P152" s="2"/>
+      <c r="P152" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q152" s="2"/>
       <c r="R152" s="2"/>
       <c r="S152" s="2" t="s">
@@ -10946,10 +11308,10 @@
         <v>249</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H153" s="2" t="s">
         <v>256</v>
@@ -10958,7 +11320,7 @@
         <v>258</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="2" t="s">
@@ -10967,7 +11329,9 @@
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
-      <c r="P153" s="2"/>
+      <c r="P153" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q153" s="2"/>
       <c r="R153" s="2"/>
       <c r="S153" s="2" t="s">
@@ -11008,10 +11372,10 @@
         <v>249</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H154" s="2" t="s">
         <v>256</v>
@@ -11020,7 +11384,7 @@
         <v>258</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="2" t="s">
@@ -11029,7 +11393,9 @@
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
-      <c r="P154" s="2"/>
+      <c r="P154" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q154" s="2"/>
       <c r="R154" s="2"/>
       <c r="S154" s="2" t="s">
@@ -11070,10 +11436,10 @@
         <v>249</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>256</v>
@@ -11082,7 +11448,7 @@
         <v>258</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="2" t="s">
@@ -11091,7 +11457,9 @@
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
-      <c r="P155" s="2"/>
+      <c r="P155" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q155" s="2"/>
       <c r="R155" s="2"/>
       <c r="S155" s="2" t="s">
@@ -11132,10 +11500,10 @@
         <v>249</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H156" s="2" t="s">
         <v>256</v>
@@ -11144,7 +11512,7 @@
         <v>258</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="2" t="s">
@@ -11153,7 +11521,9 @@
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
-      <c r="P156" s="2"/>
+      <c r="P156" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q156" s="2"/>
       <c r="R156" s="2"/>
       <c r="S156" s="2" t="s">
@@ -11194,10 +11564,10 @@
         <v>249</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H157" s="2" t="s">
         <v>256</v>
@@ -11206,7 +11576,7 @@
         <v>258</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="2" t="s">
@@ -11215,7 +11585,9 @@
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
       <c r="O157" s="2"/>
-      <c r="P157" s="2"/>
+      <c r="P157" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q157" s="2"/>
       <c r="R157" s="2"/>
       <c r="S157" s="2" t="s">
@@ -11256,10 +11628,10 @@
         <v>249</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H158" s="2" t="s">
         <v>256</v>
@@ -11268,7 +11640,7 @@
         <v>258</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="2" t="s">
@@ -11277,7 +11649,9 @@
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
       <c r="O158" s="2"/>
-      <c r="P158" s="2"/>
+      <c r="P158" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q158" s="2"/>
       <c r="R158" s="2"/>
       <c r="S158" s="2" t="s">
@@ -11318,10 +11692,10 @@
         <v>249</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>256</v>
@@ -11330,7 +11704,7 @@
         <v>258</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="2" t="s">
@@ -11339,7 +11713,9 @@
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
-      <c r="P159" s="2"/>
+      <c r="P159" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q159" s="2"/>
       <c r="R159" s="2"/>
       <c r="S159" s="2" t="s">
@@ -11380,10 +11756,10 @@
         <v>249</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>256</v>
@@ -11392,7 +11768,7 @@
         <v>258</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="2" t="s">
@@ -11401,7 +11777,9 @@
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
-      <c r="P160" s="2"/>
+      <c r="P160" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q160" s="2"/>
       <c r="R160" s="2"/>
       <c r="S160" s="2" t="s">
@@ -11442,10 +11820,10 @@
         <v>249</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H161" s="2" t="s">
         <v>256</v>
@@ -11454,7 +11832,7 @@
         <v>258</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="2" t="s">
@@ -11463,7 +11841,9 @@
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
-      <c r="P161" s="2"/>
+      <c r="P161" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q161" s="2"/>
       <c r="R161" s="2"/>
       <c r="S161" s="2" t="s">
@@ -11504,10 +11884,10 @@
         <v>249</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H162" s="2" t="s">
         <v>256</v>
@@ -11516,7 +11896,7 @@
         <v>258</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="2" t="s">
@@ -11525,7 +11905,9 @@
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
-      <c r="P162" s="2"/>
+      <c r="P162" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q162" s="2"/>
       <c r="R162" s="2"/>
       <c r="S162" s="2" t="s">
@@ -11566,10 +11948,10 @@
         <v>249</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H163" s="2" t="s">
         <v>256</v>
@@ -11578,7 +11960,7 @@
         <v>258</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K163" s="2"/>
       <c r="L163" s="2" t="s">
@@ -11587,7 +11969,9 @@
       <c r="M163" s="2"/>
       <c r="N163" s="2"/>
       <c r="O163" s="2"/>
-      <c r="P163" s="2"/>
+      <c r="P163" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q163" s="2"/>
       <c r="R163" s="2"/>
       <c r="S163" s="2" t="s">
@@ -11628,10 +12012,10 @@
         <v>249</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H164" s="2" t="s">
         <v>256</v>
@@ -11640,7 +12024,7 @@
         <v>258</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="2" t="s">
@@ -11649,7 +12033,9 @@
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
-      <c r="P164" s="2"/>
+      <c r="P164" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q164" s="2"/>
       <c r="R164" s="2"/>
       <c r="S164" s="2" t="s">
@@ -11690,10 +12076,10 @@
         <v>249</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H165" s="2" t="s">
         <v>256</v>
@@ -11702,7 +12088,7 @@
         <v>258</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K165" s="2"/>
       <c r="L165" s="2" t="s">
@@ -11711,7 +12097,9 @@
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
-      <c r="P165" s="2"/>
+      <c r="P165" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q165" s="2"/>
       <c r="R165" s="2"/>
       <c r="S165" s="2" t="s">
@@ -11752,10 +12140,10 @@
         <v>249</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H166" s="2" t="s">
         <v>256</v>
@@ -11764,7 +12152,7 @@
         <v>258</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="2" t="s">
@@ -11773,7 +12161,9 @@
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>
-      <c r="P166" s="2"/>
+      <c r="P166" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q166" s="2"/>
       <c r="R166" s="2"/>
       <c r="S166" s="2" t="s">
@@ -11814,10 +12204,10 @@
         <v>249</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H167" s="2" t="s">
         <v>256</v>
@@ -11826,7 +12216,7 @@
         <v>258</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="2" t="s">
@@ -11835,7 +12225,9 @@
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
-      <c r="P167" s="2"/>
+      <c r="P167" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q167" s="2"/>
       <c r="R167" s="2"/>
       <c r="S167" s="2" t="s">
@@ -11876,10 +12268,10 @@
         <v>249</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H168" s="2" t="s">
         <v>256</v>
@@ -11888,7 +12280,7 @@
         <v>258</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K168" s="2"/>
       <c r="L168" s="2" t="s">
@@ -11897,7 +12289,9 @@
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
-      <c r="P168" s="2"/>
+      <c r="P168" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q168" s="2"/>
       <c r="R168" s="2"/>
       <c r="S168" s="2" t="s">
@@ -11938,10 +12332,10 @@
         <v>249</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H169" s="2" t="s">
         <v>256</v>
@@ -11950,7 +12344,7 @@
         <v>258</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K169" s="2"/>
       <c r="L169" s="2" t="s">
@@ -11959,7 +12353,9 @@
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
-      <c r="P169" s="2"/>
+      <c r="P169" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q169" s="2"/>
       <c r="R169" s="2"/>
       <c r="S169" s="2" t="s">
@@ -12000,10 +12396,10 @@
         <v>249</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H170" s="2" t="s">
         <v>256</v>
@@ -12012,7 +12408,7 @@
         <v>258</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="2" t="s">
@@ -12021,7 +12417,9 @@
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
-      <c r="P170" s="2"/>
+      <c r="P170" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q170" s="2"/>
       <c r="R170" s="2"/>
       <c r="S170" s="2" t="s">
@@ -12062,10 +12460,10 @@
         <v>249</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H171" s="2" t="s">
         <v>256</v>
@@ -12074,7 +12472,7 @@
         <v>258</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="2" t="s">
@@ -12083,7 +12481,9 @@
       <c r="M171" s="2"/>
       <c r="N171" s="2"/>
       <c r="O171" s="2"/>
-      <c r="P171" s="2"/>
+      <c r="P171" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q171" s="2"/>
       <c r="R171" s="2"/>
       <c r="S171" s="2" t="s">
@@ -12124,10 +12524,10 @@
         <v>249</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H172" s="2" t="s">
         <v>256</v>
@@ -12136,7 +12536,7 @@
         <v>258</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K172" s="2"/>
       <c r="L172" s="2" t="s">
@@ -12145,7 +12545,9 @@
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
       <c r="O172" s="2"/>
-      <c r="P172" s="2"/>
+      <c r="P172" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q172" s="2"/>
       <c r="R172" s="2"/>
       <c r="S172" s="2" t="s">
@@ -12186,10 +12588,10 @@
         <v>249</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H173" s="2" t="s">
         <v>256</v>
@@ -12198,7 +12600,7 @@
         <v>258</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K173" s="2"/>
       <c r="L173" s="2" t="s">
@@ -12207,7 +12609,9 @@
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
-      <c r="P173" s="2"/>
+      <c r="P173" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q173" s="2"/>
       <c r="R173" s="2"/>
       <c r="S173" s="2" t="s">
@@ -12248,10 +12652,10 @@
         <v>249</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H174" s="2" t="s">
         <v>256</v>
@@ -12260,7 +12664,7 @@
         <v>258</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K174" s="2"/>
       <c r="L174" s="2" t="s">
@@ -12269,7 +12673,9 @@
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
       <c r="O174" s="2"/>
-      <c r="P174" s="2"/>
+      <c r="P174" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q174" s="2"/>
       <c r="R174" s="2"/>
       <c r="S174" s="2" t="s">
@@ -12310,10 +12716,10 @@
         <v>249</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H175" s="2" t="s">
         <v>256</v>
@@ -12322,7 +12728,7 @@
         <v>258</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="2" t="s">
@@ -12331,7 +12737,9 @@
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
       <c r="O175" s="2"/>
-      <c r="P175" s="2"/>
+      <c r="P175" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q175" s="2"/>
       <c r="R175" s="2"/>
       <c r="S175" s="2" t="s">
@@ -12372,10 +12780,10 @@
         <v>249</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H176" s="2" t="s">
         <v>256</v>
@@ -12384,7 +12792,7 @@
         <v>258</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K176" s="2"/>
       <c r="L176" s="2" t="s">
@@ -12393,7 +12801,9 @@
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
-      <c r="P176" s="2"/>
+      <c r="P176" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q176" s="2"/>
       <c r="R176" s="2"/>
       <c r="S176" s="2" t="s">
@@ -12434,10 +12844,10 @@
         <v>249</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H177" s="2" t="s">
         <v>256</v>
@@ -12446,7 +12856,7 @@
         <v>258</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K177" s="2"/>
       <c r="L177" s="2" t="s">
@@ -12455,7 +12865,9 @@
       <c r="M177" s="2"/>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
-      <c r="P177" s="2"/>
+      <c r="P177" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q177" s="2"/>
       <c r="R177" s="2"/>
       <c r="S177" s="2" t="s">
@@ -12494,10 +12906,10 @@
         <v>249</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H178" s="2" t="s">
         <v>255</v>
@@ -12506,7 +12918,7 @@
         <v>255</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K178" s="2"/>
       <c r="L178" s="2" t="s">
@@ -12515,7 +12927,9 @@
       <c r="M178" s="2"/>
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
-      <c r="P178" s="2"/>
+      <c r="P178" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q178" s="2"/>
       <c r="R178" s="2"/>
       <c r="S178" s="2" t="s">
@@ -12554,10 +12968,10 @@
         <v>249</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H179" s="2" t="s">
         <v>255</v>
@@ -12566,7 +12980,7 @@
         <v>255</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K179" s="2" t="s">
         <v>288</v>
@@ -12614,10 +13028,10 @@
         <v>249</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H180" s="2" t="s">
         <v>255</v>
@@ -12626,7 +13040,7 @@
         <v>255</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K180" s="2" t="s">
         <v>289</v>
@@ -12674,10 +13088,10 @@
         <v>249</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H181" s="2" t="s">
         <v>255</v>
@@ -12686,7 +13100,7 @@
         <v>255</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K181" s="2" t="s">
         <v>291</v>
@@ -12734,10 +13148,10 @@
         <v>249</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H182" s="2" t="s">
         <v>255</v>
@@ -12746,7 +13160,7 @@
         <v>255</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K182" s="2" t="s">
         <v>287</v>
@@ -12794,10 +13208,10 @@
         <v>249</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H183" s="2" t="s">
         <v>255</v>
@@ -12806,7 +13220,7 @@
         <v>255</v>
       </c>
       <c r="J183" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K183" s="2"/>
       <c r="L183" s="2" t="s">
@@ -12815,7 +13229,9 @@
       <c r="M183" s="2"/>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
-      <c r="P183" s="2"/>
+      <c r="P183" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q183" s="2"/>
       <c r="R183" s="2"/>
       <c r="S183" s="2" t="s">
@@ -12854,10 +13270,10 @@
         <v>249</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H184" s="2" t="s">
         <v>255</v>
@@ -12866,7 +13282,7 @@
         <v>255</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K184" s="2"/>
       <c r="L184" s="2" t="s">
@@ -12875,7 +13291,9 @@
       <c r="M184" s="2"/>
       <c r="N184" s="2"/>
       <c r="O184" s="2"/>
-      <c r="P184" s="2"/>
+      <c r="P184" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q184" s="2"/>
       <c r="R184" s="2"/>
       <c r="S184" s="2" t="s">
@@ -12914,10 +13332,10 @@
         <v>249</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H185" s="2" t="s">
         <v>255</v>
@@ -12926,7 +13344,7 @@
         <v>255</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K185" s="2"/>
       <c r="L185" s="2" t="s">
@@ -12935,7 +13353,9 @@
       <c r="M185" s="2"/>
       <c r="N185" s="2"/>
       <c r="O185" s="2"/>
-      <c r="P185" s="2"/>
+      <c r="P185" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q185" s="2"/>
       <c r="R185" s="2"/>
       <c r="S185" s="2" t="s">
@@ -12974,10 +13394,10 @@
         <v>249</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H186" s="2" t="s">
         <v>255</v>
@@ -12986,7 +13406,7 @@
         <v>255</v>
       </c>
       <c r="J186" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K186" s="2"/>
       <c r="L186" s="2" t="s">
@@ -12995,7 +13415,9 @@
       <c r="M186" s="2"/>
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
-      <c r="P186" s="2"/>
+      <c r="P186" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q186" s="2"/>
       <c r="R186" s="2"/>
       <c r="S186" s="2" t="s">
@@ -13034,10 +13456,10 @@
         <v>249</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H187" s="2" t="s">
         <v>255</v>
@@ -13046,7 +13468,7 @@
         <v>255</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K187" s="2" t="s">
         <v>287</v>
@@ -13094,10 +13516,10 @@
         <v>249</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H188" s="2" t="s">
         <v>255</v>
@@ -13106,7 +13528,7 @@
         <v>255</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K188" s="2"/>
       <c r="L188" s="2" t="s">
@@ -13115,7 +13537,9 @@
       <c r="M188" s="2"/>
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
-      <c r="P188" s="2"/>
+      <c r="P188" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q188" s="2"/>
       <c r="R188" s="2"/>
       <c r="S188" s="2" t="s">
@@ -13154,10 +13578,10 @@
         <v>249</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H189" s="2" t="s">
         <v>255</v>
@@ -13166,7 +13590,7 @@
         <v>255</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K189" s="2" t="s">
         <v>291</v>
@@ -13212,10 +13636,10 @@
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H190" s="2" t="s">
         <v>255</v>
@@ -13224,7 +13648,7 @@
         <v>255</v>
       </c>
       <c r="J190" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K190" s="2"/>
       <c r="L190" s="2" t="s">
@@ -13233,7 +13657,9 @@
       <c r="M190" s="2"/>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
-      <c r="P190" s="2"/>
+      <c r="P190" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q190" s="2"/>
       <c r="R190" s="2"/>
       <c r="S190" s="2" t="s">
@@ -13268,10 +13694,10 @@
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H191" s="2" t="s">
         <v>255</v>
@@ -13280,26 +13706,34 @@
         <v>255</v>
       </c>
       <c r="J191" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K191" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K191" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="L191" s="2"/>
       <c r="M191" s="2"/>
       <c r="N191" s="2"/>
       <c r="O191" s="2"/>
-      <c r="P191" s="2"/>
+      <c r="P191" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q191" s="2"/>
       <c r="R191" s="2"/>
       <c r="S191" s="2"/>
       <c r="T191" s="2"/>
-      <c r="U191" s="2"/>
+      <c r="U191" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="V191" s="2"/>
       <c r="W191" s="2"/>
       <c r="X191" s="2"/>
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
       <c r="AA191" s="2"/>
-      <c r="AB191" s="2"/>
+      <c r="AB191" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="192" spans="1:28" ht="87" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
@@ -13310,10 +13744,10 @@
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H192" s="2" t="s">
         <v>255</v>
@@ -13322,26 +13756,34 @@
         <v>255</v>
       </c>
       <c r="J192" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K192" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K192" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="L192" s="2"/>
       <c r="M192" s="2"/>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
-      <c r="P192" s="2"/>
+      <c r="P192" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q192" s="2"/>
       <c r="R192" s="2"/>
       <c r="S192" s="2"/>
       <c r="T192" s="2"/>
-      <c r="U192" s="2"/>
+      <c r="U192" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="V192" s="2"/>
       <c r="W192" s="2"/>
       <c r="X192" s="2"/>
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
       <c r="AA192" s="2"/>
-      <c r="AB192" s="2"/>
+      <c r="AB192" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="193" spans="1:28" ht="87" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
@@ -13352,10 +13794,10 @@
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H193" s="2" t="s">
         <v>255</v>
@@ -13364,26 +13806,34 @@
         <v>255</v>
       </c>
       <c r="J193" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K193" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K193" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="L193" s="2"/>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
       <c r="O193" s="2"/>
-      <c r="P193" s="2"/>
+      <c r="P193" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q193" s="2"/>
       <c r="R193" s="2"/>
       <c r="S193" s="2"/>
       <c r="T193" s="2"/>
-      <c r="U193" s="2"/>
+      <c r="U193" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="V193" s="2"/>
       <c r="W193" s="2"/>
       <c r="X193" s="2"/>
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
       <c r="AA193" s="2"/>
-      <c r="AB193" s="2"/>
+      <c r="AB193" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="194" spans="1:28" ht="87" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
@@ -13394,10 +13844,10 @@
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H194" s="2" t="s">
         <v>255</v>
@@ -13406,26 +13856,34 @@
         <v>255</v>
       </c>
       <c r="J194" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K194" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K194" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="L194" s="2"/>
       <c r="M194" s="2"/>
       <c r="N194" s="2"/>
       <c r="O194" s="2"/>
-      <c r="P194" s="2"/>
+      <c r="P194" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q194" s="2"/>
       <c r="R194" s="2"/>
       <c r="S194" s="2"/>
       <c r="T194" s="2"/>
-      <c r="U194" s="2"/>
+      <c r="U194" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="V194" s="2"/>
       <c r="W194" s="2"/>
       <c r="X194" s="2"/>
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
       <c r="AA194" s="2"/>
-      <c r="AB194" s="2"/>
+      <c r="AB194" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="195" spans="1:28" ht="232" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
@@ -13438,38 +13896,46 @@
         <v>249</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G195" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H195" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H195" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I195" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K195" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K195" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="L195" s="2"/>
       <c r="M195" s="2"/>
       <c r="N195" s="2"/>
       <c r="O195" s="2"/>
-      <c r="P195" s="2"/>
+      <c r="P195" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q195" s="2"/>
       <c r="R195" s="2"/>
       <c r="S195" s="2"/>
       <c r="T195" s="2"/>
-      <c r="U195" s="2"/>
+      <c r="U195" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="V195" s="2"/>
       <c r="W195" s="2"/>
       <c r="X195" s="2"/>
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
       <c r="AA195" s="2"/>
-      <c r="AB195" s="2"/>
+      <c r="AB195" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="196" spans="1:28" ht="232" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
@@ -13482,38 +13948,46 @@
         <v>249</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G196" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H196" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H196" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I196" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K196" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K196" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="L196" s="2"/>
       <c r="M196" s="2"/>
       <c r="N196" s="2"/>
       <c r="O196" s="2"/>
-      <c r="P196" s="2"/>
+      <c r="P196" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q196" s="2"/>
       <c r="R196" s="2"/>
       <c r="S196" s="2"/>
       <c r="T196" s="2"/>
-      <c r="U196" s="2"/>
+      <c r="U196" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="V196" s="2"/>
       <c r="W196" s="2"/>
       <c r="X196" s="2"/>
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
       <c r="AA196" s="2"/>
-      <c r="AB196" s="2"/>
+      <c r="AB196" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="197" spans="1:28" ht="232" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
@@ -13526,38 +14000,46 @@
         <v>249</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G197" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H197" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H197" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I197" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J197" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K197" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K197" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="L197" s="2"/>
       <c r="M197" s="2"/>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
-      <c r="P197" s="2"/>
+      <c r="P197" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q197" s="2"/>
       <c r="R197" s="2"/>
       <c r="S197" s="2"/>
       <c r="T197" s="2"/>
-      <c r="U197" s="2"/>
+      <c r="U197" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="V197" s="2"/>
       <c r="W197" s="2"/>
       <c r="X197" s="2"/>
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
       <c r="AA197" s="2"/>
-      <c r="AB197" s="2"/>
+      <c r="AB197" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="198" spans="1:28" ht="232" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="s">
@@ -13570,38 +14052,46 @@
         <v>249</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G198" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H198" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H198" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I198" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J198" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K198" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K198" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="L198" s="2"/>
       <c r="M198" s="2"/>
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
-      <c r="P198" s="2"/>
+      <c r="P198" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q198" s="2"/>
       <c r="R198" s="2"/>
       <c r="S198" s="2"/>
       <c r="T198" s="2"/>
-      <c r="U198" s="2"/>
+      <c r="U198" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="V198" s="2"/>
       <c r="W198" s="2"/>
       <c r="X198" s="2"/>
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
       <c r="AA198" s="2"/>
-      <c r="AB198" s="2"/>
+      <c r="AB198" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="199" spans="1:28" ht="232" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
@@ -13614,38 +14104,46 @@
         <v>249</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G199" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H199" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H199" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I199" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J199" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K199" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K199" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="L199" s="2"/>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
-      <c r="P199" s="2"/>
+      <c r="P199" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q199" s="2"/>
       <c r="R199" s="2"/>
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
-      <c r="U199" s="2"/>
+      <c r="U199" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="V199" s="2"/>
       <c r="W199" s="2"/>
       <c r="X199" s="2"/>
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
       <c r="AA199" s="2"/>
-      <c r="AB199" s="2"/>
+      <c r="AB199" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="200" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
@@ -13658,38 +14156,54 @@
         <v>249</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G200" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H200" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H200" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I200" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J200" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K200" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K200" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="L200" s="2"/>
       <c r="M200" s="2"/>
-      <c r="N200" s="2"/>
+      <c r="N200" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="O200" s="2"/>
       <c r="P200" s="2"/>
-      <c r="Q200" s="2"/>
+      <c r="Q200" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="R200" s="2"/>
-      <c r="S200" s="2"/>
+      <c r="S200" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="T200" s="2"/>
-      <c r="U200" s="2"/>
-      <c r="V200" s="2"/>
+      <c r="U200" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="V200" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="W200" s="2"/>
       <c r="X200" s="2"/>
-      <c r="Y200" s="2"/>
+      <c r="Y200" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="Z200" s="2"/>
       <c r="AA200" s="2"/>
-      <c r="AB200" s="2"/>
+      <c r="AB200" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="201" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
@@ -13702,38 +14216,54 @@
         <v>249</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G201" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H201" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H201" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I201" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J201" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K201" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K201" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="L201" s="2"/>
       <c r="M201" s="2"/>
-      <c r="N201" s="2"/>
+      <c r="N201" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="O201" s="2"/>
       <c r="P201" s="2"/>
-      <c r="Q201" s="2"/>
+      <c r="Q201" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="R201" s="2"/>
-      <c r="S201" s="2"/>
+      <c r="S201" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="T201" s="2"/>
-      <c r="U201" s="2"/>
-      <c r="V201" s="2"/>
+      <c r="U201" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="V201" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="W201" s="2"/>
       <c r="X201" s="2"/>
-      <c r="Y201" s="2"/>
+      <c r="Y201" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="Z201" s="2"/>
       <c r="AA201" s="2"/>
-      <c r="AB201" s="2"/>
+      <c r="AB201" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="202" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A202" s="3" t="s">
@@ -13746,38 +14276,54 @@
         <v>249</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G202" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H202" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H202" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I202" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J202" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K202" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K202" s="2" t="s">
+        <v>348</v>
+      </c>
       <c r="L202" s="2"/>
       <c r="M202" s="2"/>
-      <c r="N202" s="2"/>
+      <c r="N202" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="O202" s="2"/>
       <c r="P202" s="2"/>
-      <c r="Q202" s="2"/>
+      <c r="Q202" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="R202" s="2"/>
-      <c r="S202" s="2"/>
+      <c r="S202" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="T202" s="2"/>
-      <c r="U202" s="2"/>
-      <c r="V202" s="2"/>
+      <c r="U202" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="V202" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="W202" s="2"/>
       <c r="X202" s="2"/>
-      <c r="Y202" s="2"/>
+      <c r="Y202" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="Z202" s="2"/>
       <c r="AA202" s="2"/>
-      <c r="AB202" s="2"/>
+      <c r="AB202" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="203" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
@@ -13790,38 +14336,54 @@
         <v>249</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G203" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H203" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H203" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I203" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J203" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K203" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K203" s="2" t="s">
+        <v>348</v>
+      </c>
       <c r="L203" s="2"/>
       <c r="M203" s="2"/>
-      <c r="N203" s="2"/>
+      <c r="N203" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="O203" s="2"/>
       <c r="P203" s="2"/>
-      <c r="Q203" s="2"/>
+      <c r="Q203" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="R203" s="2"/>
-      <c r="S203" s="2"/>
+      <c r="S203" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="T203" s="2"/>
-      <c r="U203" s="2"/>
-      <c r="V203" s="2"/>
+      <c r="U203" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="V203" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="W203" s="2"/>
       <c r="X203" s="2"/>
-      <c r="Y203" s="2"/>
+      <c r="Y203" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="Z203" s="2"/>
       <c r="AA203" s="2"/>
-      <c r="AB203" s="2"/>
+      <c r="AB203" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="204" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A204" s="3" t="s">
@@ -13834,38 +14396,54 @@
         <v>249</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G204" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H204" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H204" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I204" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J204" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K204" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K204" s="2" t="s">
+        <v>348</v>
+      </c>
       <c r="L204" s="2"/>
       <c r="M204" s="2"/>
-      <c r="N204" s="2"/>
+      <c r="N204" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="O204" s="2"/>
       <c r="P204" s="2"/>
-      <c r="Q204" s="2"/>
+      <c r="Q204" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="R204" s="2"/>
-      <c r="S204" s="2"/>
+      <c r="S204" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="T204" s="2"/>
-      <c r="U204" s="2"/>
-      <c r="V204" s="2"/>
+      <c r="U204" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="V204" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="W204" s="2"/>
       <c r="X204" s="2"/>
-      <c r="Y204" s="2"/>
+      <c r="Y204" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="Z204" s="2"/>
       <c r="AA204" s="2"/>
-      <c r="AB204" s="2"/>
+      <c r="AB204" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="205" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A205" s="3" t="s">
@@ -13880,38 +14458,46 @@
         <v>249</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G205" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H205" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H205" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I205" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J205" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K205" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K205" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="L205" s="2"/>
       <c r="M205" s="2"/>
       <c r="N205" s="2"/>
       <c r="O205" s="2"/>
-      <c r="P205" s="2"/>
+      <c r="P205" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q205" s="2"/>
       <c r="R205" s="2"/>
       <c r="S205" s="2"/>
       <c r="T205" s="2"/>
-      <c r="U205" s="2"/>
+      <c r="U205" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="V205" s="2"/>
       <c r="W205" s="2"/>
       <c r="X205" s="2"/>
       <c r="Y205" s="2"/>
       <c r="Z205" s="2"/>
       <c r="AA205" s="2"/>
-      <c r="AB205" s="2"/>
+      <c r="AB205" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="206" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A206" s="3" t="s">
@@ -13926,38 +14512,54 @@
         <v>249</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G206" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H206" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H206" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I206" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J206" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K206" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K206" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="L206" s="2"/>
       <c r="M206" s="2"/>
-      <c r="N206" s="2"/>
+      <c r="N206" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="O206" s="2"/>
       <c r="P206" s="2"/>
-      <c r="Q206" s="2"/>
+      <c r="Q206" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="R206" s="2"/>
-      <c r="S206" s="2"/>
+      <c r="S206" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="T206" s="2"/>
-      <c r="U206" s="2"/>
-      <c r="V206" s="2"/>
+      <c r="U206" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="V206" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="W206" s="2"/>
       <c r="X206" s="2"/>
-      <c r="Y206" s="2"/>
+      <c r="Y206" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="Z206" s="2"/>
       <c r="AA206" s="2"/>
-      <c r="AB206" s="2"/>
+      <c r="AB206" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="207" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A207" s="3" t="s">
@@ -13975,18 +14577,20 @@
         <v>298</v>
       </c>
       <c r="G207" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H207" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H207" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I207" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J207" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K207" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K207" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="L207" s="2"/>
       <c r="M207" s="2"/>
       <c r="N207" s="2"/>
@@ -14003,7 +14607,9 @@
       <c r="Y207" s="2"/>
       <c r="Z207" s="2"/>
       <c r="AA207" s="2"/>
-      <c r="AB207" s="2"/>
+      <c r="AB207" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="208" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="s">
@@ -14021,18 +14627,20 @@
         <v>298</v>
       </c>
       <c r="G208" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H208" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H208" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I208" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J208" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K208" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K208" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="L208" s="2"/>
       <c r="M208" s="2"/>
       <c r="N208" s="2"/>
@@ -14049,9 +14657,11 @@
       <c r="Y208" s="2"/>
       <c r="Z208" s="2"/>
       <c r="AA208" s="2"/>
-      <c r="AB208" s="2"/>
-    </row>
-    <row r="209" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+      <c r="AB208" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="209" spans="1:28" ht="174" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
         <v>219</v>
       </c>
@@ -14067,23 +14677,27 @@
         <v>297</v>
       </c>
       <c r="G209" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H209" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H209" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I209" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J209" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K209" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K209" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="L209" s="2"/>
       <c r="M209" s="2"/>
       <c r="N209" s="2"/>
       <c r="O209" s="2"/>
-      <c r="P209" s="2"/>
+      <c r="P209" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q209" s="2"/>
       <c r="R209" s="2"/>
       <c r="S209" s="2"/>
@@ -14091,11 +14705,15 @@
       <c r="U209" s="2"/>
       <c r="V209" s="2"/>
       <c r="W209" s="2"/>
-      <c r="X209" s="2"/>
+      <c r="X209" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="Y209" s="2"/>
       <c r="Z209" s="2"/>
       <c r="AA209" s="2"/>
-      <c r="AB209" s="2"/>
+      <c r="AB209" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="210" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A210" s="3" t="s">
@@ -14113,37 +14731,53 @@
         <v>297</v>
       </c>
       <c r="G210" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H210" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H210" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I210" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J210" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K210" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K210" s="2" t="s">
+        <v>348</v>
+      </c>
       <c r="L210" s="2"/>
       <c r="M210" s="2"/>
-      <c r="N210" s="2"/>
+      <c r="N210" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="O210" s="2"/>
       <c r="P210" s="2"/>
-      <c r="Q210" s="2"/>
+      <c r="Q210" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="R210" s="2"/>
-      <c r="S210" s="2"/>
+      <c r="S210" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="T210" s="2"/>
-      <c r="U210" s="2"/>
-      <c r="V210" s="2"/>
+      <c r="U210" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="V210" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="W210" s="2"/>
       <c r="X210" s="2"/>
-      <c r="Y210" s="2"/>
+      <c r="Y210" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="Z210" s="2"/>
       <c r="AA210" s="2"/>
-      <c r="AB210" s="2"/>
-    </row>
-    <row r="211" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="AB210" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="211" spans="1:28" ht="174" x14ac:dyDescent="0.35">
       <c r="A211" s="3" t="s">
         <v>221</v>
       </c>
@@ -14156,26 +14790,30 @@
         <v>249</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G211" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H211" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H211" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I211" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J211" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K211" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K211" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="L211" s="2"/>
       <c r="M211" s="2"/>
       <c r="N211" s="2"/>
       <c r="O211" s="2"/>
-      <c r="P211" s="2"/>
+      <c r="P211" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q211" s="2"/>
       <c r="R211" s="2"/>
       <c r="S211" s="2"/>
@@ -14183,13 +14821,17 @@
       <c r="U211" s="2"/>
       <c r="V211" s="2"/>
       <c r="W211" s="2"/>
-      <c r="X211" s="2"/>
+      <c r="X211" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="Y211" s="2"/>
       <c r="Z211" s="2"/>
       <c r="AA211" s="2"/>
-      <c r="AB211" s="2"/>
-    </row>
-    <row r="212" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+      <c r="AB211" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="212" spans="1:28" ht="174" x14ac:dyDescent="0.35">
       <c r="A212" s="3" t="s">
         <v>222</v>
       </c>
@@ -14205,23 +14847,27 @@
         <v>298</v>
       </c>
       <c r="G212" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H212" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H212" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I212" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J212" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K212" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K212" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="L212" s="2"/>
       <c r="M212" s="2"/>
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
-      <c r="P212" s="2"/>
+      <c r="P212" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q212" s="2"/>
       <c r="R212" s="2"/>
       <c r="S212" s="2"/>
@@ -14229,11 +14875,15 @@
       <c r="U212" s="2"/>
       <c r="V212" s="2"/>
       <c r="W212" s="2"/>
-      <c r="X212" s="2"/>
+      <c r="X212" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="Y212" s="2"/>
       <c r="Z212" s="2"/>
       <c r="AA212" s="2"/>
-      <c r="AB212" s="2"/>
+      <c r="AB212" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="213" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A213" s="3" t="s">
@@ -14251,35 +14901,51 @@
         <v>298</v>
       </c>
       <c r="G213" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H213" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H213" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I213" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J213" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K213" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K213" s="2" t="s">
+        <v>348</v>
+      </c>
       <c r="L213" s="2"/>
       <c r="M213" s="2"/>
-      <c r="N213" s="2"/>
+      <c r="N213" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="O213" s="2"/>
       <c r="P213" s="2"/>
-      <c r="Q213" s="2"/>
+      <c r="Q213" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="R213" s="2"/>
-      <c r="S213" s="2"/>
+      <c r="S213" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="T213" s="2"/>
-      <c r="U213" s="2"/>
-      <c r="V213" s="2"/>
+      <c r="U213" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="V213" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="W213" s="2"/>
       <c r="X213" s="2"/>
-      <c r="Y213" s="2"/>
+      <c r="Y213" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="Z213" s="2"/>
       <c r="AA213" s="2"/>
-      <c r="AB213" s="2"/>
+      <c r="AB213" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="214" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A214" s="3" t="s">
@@ -14297,35 +14963,51 @@
         <v>298</v>
       </c>
       <c r="G214" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H214" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H214" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I214" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J214" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K214" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K214" s="2" t="s">
+        <v>348</v>
+      </c>
       <c r="L214" s="2"/>
       <c r="M214" s="2"/>
-      <c r="N214" s="2"/>
+      <c r="N214" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="O214" s="2"/>
       <c r="P214" s="2"/>
-      <c r="Q214" s="2"/>
+      <c r="Q214" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="R214" s="2"/>
-      <c r="S214" s="2"/>
+      <c r="S214" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="T214" s="2"/>
-      <c r="U214" s="2"/>
-      <c r="V214" s="2"/>
+      <c r="U214" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="V214" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="W214" s="2"/>
       <c r="X214" s="2"/>
-      <c r="Y214" s="2"/>
+      <c r="Y214" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="Z214" s="2"/>
       <c r="AA214" s="2"/>
-      <c r="AB214" s="2"/>
+      <c r="AB214" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="215" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A215" s="3" t="s">
@@ -14340,38 +15022,54 @@
         <v>249</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G215" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H215" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H215" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I215" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J215" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K215" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K215" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="L215" s="2"/>
       <c r="M215" s="2"/>
-      <c r="N215" s="2"/>
+      <c r="N215" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="O215" s="2"/>
       <c r="P215" s="2"/>
-      <c r="Q215" s="2"/>
+      <c r="Q215" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="R215" s="2"/>
-      <c r="S215" s="2"/>
+      <c r="S215" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="T215" s="2"/>
-      <c r="U215" s="2"/>
-      <c r="V215" s="2"/>
+      <c r="U215" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="V215" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="W215" s="2"/>
       <c r="X215" s="2"/>
-      <c r="Y215" s="2"/>
+      <c r="Y215" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="Z215" s="2"/>
       <c r="AA215" s="2"/>
-      <c r="AB215" s="2"/>
+      <c r="AB215" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="216" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="s">
@@ -14386,38 +15084,54 @@
         <v>249</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G216" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H216" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H216" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I216" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J216" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K216" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K216" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="L216" s="2"/>
       <c r="M216" s="2"/>
-      <c r="N216" s="2"/>
+      <c r="N216" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="O216" s="2"/>
       <c r="P216" s="2"/>
-      <c r="Q216" s="2"/>
+      <c r="Q216" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="R216" s="2"/>
-      <c r="S216" s="2"/>
+      <c r="S216" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="T216" s="2"/>
-      <c r="U216" s="2"/>
-      <c r="V216" s="2"/>
+      <c r="U216" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="V216" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="W216" s="2"/>
       <c r="X216" s="2"/>
-      <c r="Y216" s="2"/>
+      <c r="Y216" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="Z216" s="2"/>
       <c r="AA216" s="2"/>
-      <c r="AB216" s="2"/>
+      <c r="AB216" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="217" spans="1:28" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="s">
@@ -14432,38 +15146,48 @@
         <v>249</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G217" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H217" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H217" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I217" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J217" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K217" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K217" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="L217" s="2"/>
       <c r="M217" s="2"/>
       <c r="N217" s="2"/>
       <c r="O217" s="2"/>
-      <c r="P217" s="2"/>
+      <c r="P217" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q217" s="2"/>
       <c r="R217" s="2"/>
       <c r="S217" s="2"/>
       <c r="T217" s="2"/>
-      <c r="U217" s="2"/>
+      <c r="U217" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="V217" s="2"/>
       <c r="W217" s="2"/>
-      <c r="X217" s="2"/>
+      <c r="X217" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="Y217" s="2"/>
       <c r="Z217" s="2"/>
       <c r="AA217" s="2"/>
-      <c r="AB217" s="2"/>
+      <c r="AB217" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="218" spans="1:28" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A218" s="3" t="s">
@@ -14478,19 +15202,19 @@
         <v>249</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G218" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H218" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H218" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I218" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J218" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K218" s="2" t="s">
         <v>299</v>
@@ -14510,7 +15234,9 @@
         <v>300</v>
       </c>
       <c r="T218" s="2"/>
-      <c r="U218" s="2"/>
+      <c r="U218" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="V218" s="2" t="s">
         <v>300</v>
       </c>
@@ -14522,7 +15248,7 @@
       <c r="Z218" s="2"/>
       <c r="AA218" s="2"/>
       <c r="AB218" s="2" t="s">
-        <v>301</v>
+        <v>346</v>
       </c>
     </row>
     <row r="219" spans="1:28" ht="217.5" x14ac:dyDescent="0.35">
@@ -14538,38 +15264,46 @@
         <v>249</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G219" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H219" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H219" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I219" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J219" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K219" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K219" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="L219" s="2"/>
       <c r="M219" s="2"/>
       <c r="N219" s="2"/>
       <c r="O219" s="2"/>
-      <c r="P219" s="2"/>
+      <c r="P219" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q219" s="2"/>
       <c r="R219" s="2"/>
       <c r="S219" s="2"/>
       <c r="T219" s="2"/>
-      <c r="U219" s="2"/>
+      <c r="U219" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="V219" s="2"/>
       <c r="W219" s="2"/>
       <c r="X219" s="2"/>
       <c r="Y219" s="2"/>
       <c r="Z219" s="2"/>
       <c r="AA219" s="2"/>
-      <c r="AB219" s="2"/>
+      <c r="AB219" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="220" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A220" s="3" t="s">
@@ -14584,38 +15318,46 @@
         <v>249</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G220" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H220" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H220" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I220" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J220" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K220" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K220" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="L220" s="2"/>
       <c r="M220" s="2"/>
       <c r="N220" s="2"/>
       <c r="O220" s="2"/>
-      <c r="P220" s="2"/>
+      <c r="P220" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q220" s="2"/>
       <c r="R220" s="2"/>
       <c r="S220" s="2"/>
       <c r="T220" s="2"/>
-      <c r="U220" s="2"/>
+      <c r="U220" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="V220" s="2"/>
       <c r="W220" s="2"/>
       <c r="X220" s="2"/>
       <c r="Y220" s="2"/>
       <c r="Z220" s="2"/>
       <c r="AA220" s="2"/>
-      <c r="AB220" s="2"/>
+      <c r="AB220" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="221" spans="1:28" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A221" s="3" t="s">
@@ -14630,38 +15372,46 @@
         <v>249</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G221" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H221" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H221" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I221" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J221" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K221" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K221" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="L221" s="2"/>
       <c r="M221" s="2"/>
       <c r="N221" s="2"/>
       <c r="O221" s="2"/>
-      <c r="P221" s="2"/>
+      <c r="P221" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q221" s="2"/>
       <c r="R221" s="2"/>
       <c r="S221" s="2"/>
       <c r="T221" s="2"/>
-      <c r="U221" s="2"/>
+      <c r="U221" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="V221" s="2"/>
       <c r="W221" s="2"/>
       <c r="X221" s="2"/>
       <c r="Y221" s="2"/>
       <c r="Z221" s="2"/>
       <c r="AA221" s="2"/>
-      <c r="AB221" s="2"/>
+      <c r="AB221" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="222" spans="1:28" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A222" s="3" t="s">
@@ -14676,26 +15426,30 @@
         <v>249</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G222" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H222" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H222" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I222" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J222" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K222" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K222" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="L222" s="2"/>
       <c r="M222" s="2"/>
       <c r="N222" s="2"/>
       <c r="O222" s="2"/>
-      <c r="P222" s="2"/>
+      <c r="P222" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q222" s="2"/>
       <c r="R222" s="2"/>
       <c r="S222" s="2"/>
@@ -14703,11 +15457,15 @@
       <c r="U222" s="2"/>
       <c r="V222" s="2"/>
       <c r="W222" s="2"/>
-      <c r="X222" s="2"/>
+      <c r="X222" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="Y222" s="2"/>
       <c r="Z222" s="2"/>
       <c r="AA222" s="2"/>
-      <c r="AB222" s="2"/>
+      <c r="AB222" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="223" spans="1:28" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A223" s="3" t="s">
@@ -14722,26 +15480,30 @@
         <v>249</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G223" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H223" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H223" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I223" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J223" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K223" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K223" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="L223" s="2"/>
       <c r="M223" s="2"/>
       <c r="N223" s="2"/>
       <c r="O223" s="2"/>
-      <c r="P223" s="2"/>
+      <c r="P223" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q223" s="2"/>
       <c r="R223" s="2"/>
       <c r="S223" s="2"/>
@@ -14749,11 +15511,15 @@
       <c r="U223" s="2"/>
       <c r="V223" s="2"/>
       <c r="W223" s="2"/>
-      <c r="X223" s="2"/>
+      <c r="X223" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="Y223" s="2"/>
       <c r="Z223" s="2"/>
       <c r="AA223" s="2"/>
-      <c r="AB223" s="2"/>
+      <c r="AB223" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="224" spans="1:28" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A224" s="3" t="s">
@@ -14768,38 +15534,54 @@
         <v>249</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G224" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H224" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H224" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I224" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J224" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K224" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K224" s="2" t="s">
+        <v>348</v>
+      </c>
       <c r="L224" s="2"/>
       <c r="M224" s="2"/>
-      <c r="N224" s="2"/>
+      <c r="N224" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="O224" s="2"/>
       <c r="P224" s="2"/>
-      <c r="Q224" s="2"/>
+      <c r="Q224" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="R224" s="2"/>
-      <c r="S224" s="2"/>
+      <c r="S224" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="T224" s="2"/>
-      <c r="U224" s="2"/>
-      <c r="V224" s="2"/>
+      <c r="U224" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="V224" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="W224" s="2"/>
       <c r="X224" s="2"/>
-      <c r="Y224" s="2"/>
+      <c r="Y224" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="Z224" s="2"/>
       <c r="AA224" s="2"/>
-      <c r="AB224" s="2"/>
+      <c r="AB224" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="225" spans="1:28" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A225" s="3" t="s">
@@ -14814,26 +15596,30 @@
         <v>249</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G225" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H225" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H225" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I225" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J225" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K225" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K225" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="L225" s="2"/>
       <c r="M225" s="2"/>
       <c r="N225" s="2"/>
       <c r="O225" s="2"/>
-      <c r="P225" s="2"/>
+      <c r="P225" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q225" s="2"/>
       <c r="R225" s="2"/>
       <c r="S225" s="2"/>
@@ -14841,11 +15627,15 @@
       <c r="U225" s="2"/>
       <c r="V225" s="2"/>
       <c r="W225" s="2"/>
-      <c r="X225" s="2"/>
+      <c r="X225" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="Y225" s="2"/>
       <c r="Z225" s="2"/>
       <c r="AA225" s="2"/>
-      <c r="AB225" s="2"/>
+      <c r="AB225" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="226" spans="1:28" ht="87" x14ac:dyDescent="0.35">
       <c r="A226" s="3" t="s">
@@ -14860,38 +15650,46 @@
         <v>249</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G226" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H226" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H226" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I226" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J226" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K226" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K226" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="L226" s="2"/>
       <c r="M226" s="2"/>
       <c r="N226" s="2"/>
       <c r="O226" s="2"/>
-      <c r="P226" s="2"/>
+      <c r="P226" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q226" s="2"/>
       <c r="R226" s="2"/>
       <c r="S226" s="2"/>
       <c r="T226" s="2"/>
-      <c r="U226" s="2"/>
+      <c r="U226" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="V226" s="2"/>
       <c r="W226" s="2"/>
       <c r="X226" s="2"/>
       <c r="Y226" s="2"/>
       <c r="Z226" s="2"/>
       <c r="AA226" s="2"/>
-      <c r="AB226" s="2"/>
+      <c r="AB226" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="227" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A227" s="3" t="s">
@@ -14909,23 +15707,27 @@
         <v>298</v>
       </c>
       <c r="G227" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H227" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H227" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I227" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J227" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K227" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K227" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="L227" s="2"/>
       <c r="M227" s="2"/>
       <c r="N227" s="2"/>
       <c r="O227" s="2"/>
-      <c r="P227" s="2"/>
+      <c r="P227" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q227" s="2"/>
       <c r="R227" s="2"/>
       <c r="S227" s="2"/>
@@ -14933,11 +15735,15 @@
       <c r="U227" s="2"/>
       <c r="V227" s="2"/>
       <c r="W227" s="2"/>
-      <c r="X227" s="2"/>
+      <c r="X227" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="Y227" s="2"/>
       <c r="Z227" s="2"/>
       <c r="AA227" s="2"/>
-      <c r="AB227" s="2"/>
+      <c r="AB227" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="228" spans="1:28" ht="87" x14ac:dyDescent="0.35">
       <c r="A228" s="3" t="s">
@@ -14952,26 +15758,30 @@
         <v>249</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G228" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H228" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H228" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I228" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J228" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K228" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K228" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="L228" s="2"/>
       <c r="M228" s="2"/>
       <c r="N228" s="2"/>
       <c r="O228" s="2"/>
-      <c r="P228" s="2"/>
+      <c r="P228" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q228" s="2"/>
       <c r="R228" s="2"/>
       <c r="S228" s="2"/>
@@ -14979,11 +15789,15 @@
       <c r="U228" s="2"/>
       <c r="V228" s="2"/>
       <c r="W228" s="2"/>
-      <c r="X228" s="2"/>
+      <c r="X228" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="Y228" s="2"/>
       <c r="Z228" s="2"/>
       <c r="AA228" s="2"/>
-      <c r="AB228" s="2"/>
+      <c r="AB228" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="229" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A229" s="3" t="s">
@@ -15001,18 +15815,20 @@
         <v>298</v>
       </c>
       <c r="G229" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H229" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H229" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I229" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J229" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K229" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K229" s="2" t="s">
+        <v>350</v>
+      </c>
       <c r="L229" s="2"/>
       <c r="M229" s="2"/>
       <c r="N229" s="2"/>
@@ -15025,11 +15841,15 @@
       <c r="U229" s="2"/>
       <c r="V229" s="2"/>
       <c r="W229" s="2"/>
-      <c r="X229" s="2"/>
+      <c r="X229" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="Y229" s="2"/>
       <c r="Z229" s="2"/>
       <c r="AA229" s="2"/>
-      <c r="AB229" s="2"/>
+      <c r="AB229" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="230" spans="1:28" ht="87" x14ac:dyDescent="0.35">
       <c r="A230" s="3" t="s">
@@ -15044,26 +15864,30 @@
         <v>249</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G230" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H230" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H230" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I230" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J230" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K230" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K230" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="L230" s="2"/>
       <c r="M230" s="2"/>
       <c r="N230" s="2"/>
       <c r="O230" s="2"/>
-      <c r="P230" s="2"/>
+      <c r="P230" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q230" s="2"/>
       <c r="R230" s="2"/>
       <c r="S230" s="2"/>
@@ -15071,11 +15895,15 @@
       <c r="U230" s="2"/>
       <c r="V230" s="2"/>
       <c r="W230" s="2"/>
-      <c r="X230" s="2"/>
+      <c r="X230" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="Y230" s="2"/>
       <c r="Z230" s="2"/>
       <c r="AA230" s="2"/>
-      <c r="AB230" s="2"/>
+      <c r="AB230" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="231" spans="1:28" ht="232" x14ac:dyDescent="0.35">
       <c r="A231" s="3" t="s">
@@ -15090,26 +15918,30 @@
         <v>249</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G231" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H231" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H231" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I231" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J231" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K231" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K231" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="L231" s="2"/>
       <c r="M231" s="2"/>
       <c r="N231" s="2"/>
       <c r="O231" s="2"/>
-      <c r="P231" s="2"/>
+      <c r="P231" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q231" s="2"/>
       <c r="R231" s="2"/>
       <c r="S231" s="2"/>
@@ -15117,11 +15949,15 @@
       <c r="U231" s="2"/>
       <c r="V231" s="2"/>
       <c r="W231" s="2"/>
-      <c r="X231" s="2"/>
+      <c r="X231" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="Y231" s="2"/>
       <c r="Z231" s="2"/>
       <c r="AA231" s="2"/>
-      <c r="AB231" s="2"/>
+      <c r="AB231" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="232" spans="1:28" ht="87" x14ac:dyDescent="0.35">
       <c r="A232" s="3" t="s">
@@ -15136,38 +15972,46 @@
         <v>249</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G232" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H232" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H232" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I232" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J232" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K232" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K232" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="L232" s="2"/>
       <c r="M232" s="2"/>
       <c r="N232" s="2"/>
       <c r="O232" s="2"/>
-      <c r="P232" s="2"/>
+      <c r="P232" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q232" s="2"/>
       <c r="R232" s="2"/>
       <c r="S232" s="2"/>
       <c r="T232" s="2"/>
-      <c r="U232" s="2"/>
+      <c r="U232" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="V232" s="2"/>
       <c r="W232" s="2"/>
       <c r="X232" s="2"/>
       <c r="Y232" s="2"/>
       <c r="Z232" s="2"/>
       <c r="AA232" s="2"/>
-      <c r="AB232" s="2"/>
+      <c r="AB232" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="233" spans="1:28" ht="232" x14ac:dyDescent="0.35">
       <c r="A233" s="4" t="s">
@@ -15182,38 +16026,46 @@
         <v>249</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G233" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H233" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H233" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="I233" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J233" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="K233" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="K233" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="L233" s="2"/>
       <c r="M233" s="2"/>
       <c r="N233" s="2"/>
       <c r="O233" s="2"/>
-      <c r="P233" s="2"/>
+      <c r="P233" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="Q233" s="2"/>
       <c r="R233" s="2"/>
       <c r="S233" s="2"/>
       <c r="T233" s="2"/>
-      <c r="U233" s="2"/>
+      <c r="U233" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="V233" s="2"/>
       <c r="W233" s="2"/>
       <c r="X233" s="2"/>
       <c r="Y233" s="2"/>
       <c r="Z233" s="2"/>
       <c r="AA233" s="2"/>
-      <c r="AB233" s="2"/>
+      <c r="AB233" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/uploads/saturday schedule.xlsx
+++ b/uploads/saturday schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\nso_schedules\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55ADCB59-408D-45B8-9806-6BED5755C498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B478A91F-CA9B-48E3-A924-08A7C54CF2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{CFEFD664-C137-4AB8-9587-3576B7D9DF99}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3493" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3493" uniqueCount="357">
   <si>
     <t>Names</t>
   </si>
@@ -1129,6 +1129,9 @@
   </si>
   <si>
     <t>Make sure Joey and his table get lunch</t>
+  </si>
+  <si>
+    <t>New students should wear their new T-shirts. Stand against the stadium. This photo is only for the new students.</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1377,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C4363A96-9F1E-460F-8AC0-1700060DE7DE}" name="Table1" displayName="Table1" ref="A1:AB233" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" tableBorderDxfId="28">
-  <autoFilter ref="A1:AB233" xr:uid="{C4363A96-9F1E-460F-8AC0-1700060DE7DE}"/>
+  <autoFilter ref="A1:AB233" xr:uid="{C4363A96-9F1E-460F-8AC0-1700060DE7DE}">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{1988F4F0-4E1A-4F27-B43E-68FB0C69FF93}" name="Names" dataDxfId="27"/>
     <tableColumn id="2" xr3:uid="{446E9DC9-61C9-43DE-B980-2DD1E02E886F}" name="Color" dataDxfId="26"/>
@@ -1728,8 +1737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CB4A9D-89C3-4A17-8052-CF4B27EC2D33}">
   <dimension ref="A1:AB233"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L185" sqref="L185"/>
+    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L244" sqref="L244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1843,7 +1852,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1901,7 +1910,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1957,7 +1966,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -2015,7 +2024,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2077,7 +2086,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2127,7 +2136,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -2187,7 +2196,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2259,7 +2268,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -2311,7 +2320,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -2390,7 +2399,7 @@
         <v>258</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>287</v>
@@ -2454,7 +2463,7 @@
         <v>258</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>287</v>
@@ -2516,7 +2525,7 @@
         <v>258</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>287</v>
@@ -2578,7 +2587,7 @@
         <v>258</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
@@ -2642,7 +2651,7 @@
         <v>258</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
@@ -2706,7 +2715,7 @@
         <v>258</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2" t="s">
@@ -2770,7 +2779,7 @@
         <v>258</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="s">
@@ -2834,7 +2843,7 @@
         <v>258</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2" t="s">
@@ -2898,7 +2907,7 @@
         <v>258</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2" t="s">
@@ -2962,7 +2971,7 @@
         <v>258</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2" t="s">
@@ -3026,7 +3035,7 @@
         <v>258</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2" t="s">
@@ -3090,7 +3099,7 @@
         <v>258</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2" t="s">
@@ -3154,7 +3163,7 @@
         <v>258</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2" t="s">
@@ -3218,7 +3227,7 @@
         <v>258</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2" t="s">
@@ -3282,7 +3291,7 @@
         <v>258</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2" t="s">
@@ -3346,7 +3355,7 @@
         <v>258</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2" t="s">
@@ -3410,7 +3419,7 @@
         <v>258</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2" t="s">
@@ -3474,7 +3483,7 @@
         <v>258</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2" t="s">
@@ -3538,7 +3547,7 @@
         <v>258</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>287</v>
@@ -3600,7 +3609,7 @@
         <v>258</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>287</v>
@@ -3662,7 +3671,7 @@
         <v>258</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>287</v>
@@ -3724,7 +3733,7 @@
         <v>258</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>287</v>
@@ -3786,7 +3795,7 @@
         <v>258</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>287</v>
@@ -3848,7 +3857,7 @@
         <v>258</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>287</v>
@@ -3910,7 +3919,7 @@
         <v>258</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>287</v>
@@ -3972,7 +3981,7 @@
         <v>258</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>287</v>
@@ -4034,7 +4043,7 @@
         <v>258</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>287</v>
@@ -4096,7 +4105,7 @@
         <v>258</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>287</v>
@@ -4158,7 +4167,7 @@
         <v>258</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>287</v>
@@ -4220,7 +4229,7 @@
         <v>258</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>287</v>
@@ -4282,7 +4291,7 @@
         <v>258</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2" t="s">
@@ -4346,7 +4355,7 @@
         <v>258</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>291</v>
@@ -4408,7 +4417,7 @@
         <v>258</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>291</v>
@@ -4470,7 +4479,7 @@
         <v>258</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2" t="s">
@@ -4534,7 +4543,7 @@
         <v>258</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>291</v>
@@ -4596,7 +4605,7 @@
         <v>258</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>291</v>
@@ -4658,7 +4667,7 @@
         <v>258</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="2" t="s">
@@ -4722,7 +4731,7 @@
         <v>258</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>291</v>
@@ -4784,7 +4793,7 @@
         <v>258</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="2" t="s">
@@ -4848,7 +4857,7 @@
         <v>258</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="2" t="s">
@@ -4912,7 +4921,7 @@
         <v>258</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="2" t="s">
@@ -4976,7 +4985,7 @@
         <v>258</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="2" t="s">
@@ -5040,7 +5049,7 @@
         <v>258</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="2" t="s">
@@ -5104,7 +5113,7 @@
         <v>258</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="2" t="s">
@@ -5168,7 +5177,7 @@
         <v>258</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="2" t="s">
@@ -5232,7 +5241,7 @@
         <v>258</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="2" t="s">
@@ -5296,7 +5305,7 @@
         <v>258</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="2" t="s">
@@ -5360,7 +5369,7 @@
         <v>258</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>291</v>
@@ -5422,7 +5431,7 @@
         <v>258</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="2" t="s">
@@ -5486,7 +5495,7 @@
         <v>258</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="2" t="s">
@@ -5550,7 +5559,7 @@
         <v>258</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>291</v>
@@ -5612,7 +5621,7 @@
         <v>258</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>291</v>
@@ -5674,7 +5683,7 @@
         <v>258</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>291</v>
@@ -5736,7 +5745,7 @@
         <v>258</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>291</v>
@@ -5798,7 +5807,7 @@
         <v>258</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>291</v>
@@ -5860,7 +5869,7 @@
         <v>258</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>291</v>
@@ -5922,7 +5931,7 @@
         <v>258</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>291</v>
@@ -5984,7 +5993,7 @@
         <v>258</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>291</v>
@@ -6046,7 +6055,7 @@
         <v>258</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>291</v>
@@ -6108,7 +6117,7 @@
         <v>258</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>291</v>
@@ -6170,7 +6179,7 @@
         <v>258</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="2" t="s">
@@ -6234,7 +6243,7 @@
         <v>258</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>288</v>
@@ -6298,7 +6307,7 @@
         <v>258</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>288</v>
@@ -6362,7 +6371,7 @@
         <v>258</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="2" t="s">
@@ -6426,7 +6435,7 @@
         <v>258</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="2" t="s">
@@ -6490,7 +6499,7 @@
         <v>258</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="2" t="s">
@@ -6554,7 +6563,7 @@
         <v>258</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="2" t="s">
@@ -6618,7 +6627,7 @@
         <v>258</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="2" t="s">
@@ -6682,7 +6691,7 @@
         <v>258</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>288</v>
@@ -6744,7 +6753,7 @@
         <v>258</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>288</v>
@@ -6806,7 +6815,7 @@
         <v>258</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>288</v>
@@ -6868,7 +6877,7 @@
         <v>258</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>288</v>
@@ -6930,7 +6939,7 @@
         <v>258</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>288</v>
@@ -6992,7 +7001,7 @@
         <v>258</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>288</v>
@@ -7054,7 +7063,7 @@
         <v>258</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>288</v>
@@ -7116,7 +7125,7 @@
         <v>258</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>288</v>
@@ -7178,7 +7187,7 @@
         <v>258</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>288</v>
@@ -7240,7 +7249,7 @@
         <v>258</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>288</v>
@@ -7302,7 +7311,7 @@
         <v>258</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="2" t="s">
@@ -7366,7 +7375,7 @@
         <v>258</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="2" t="s">
@@ -7430,7 +7439,7 @@
         <v>258</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="2" t="s">
@@ -7494,7 +7503,7 @@
         <v>258</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="2" t="s">
@@ -7558,7 +7567,7 @@
         <v>258</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="2" t="s">
@@ -7622,7 +7631,7 @@
         <v>258</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="2" t="s">
@@ -7686,7 +7695,7 @@
         <v>258</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="2" t="s">
@@ -7750,7 +7759,7 @@
         <v>258</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="2" t="s">
@@ -7814,7 +7823,7 @@
         <v>258</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>289</v>
@@ -7876,7 +7885,7 @@
         <v>258</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>289</v>
@@ -7911,7 +7920,7 @@
       <c r="AA98" s="2"/>
       <c r="AB98" s="2"/>
     </row>
-    <row r="99" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>105</v>
       </c>
@@ -7938,7 +7947,7 @@
         <v>258</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>289</v>
@@ -7973,7 +7982,7 @@
       <c r="AA99" s="2"/>
       <c r="AB99" s="2"/>
     </row>
-    <row r="100" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>106</v>
       </c>
@@ -8000,7 +8009,7 @@
         <v>258</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>289</v>
@@ -8035,7 +8044,7 @@
       <c r="AA100" s="2"/>
       <c r="AB100" s="2"/>
     </row>
-    <row r="101" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>107</v>
       </c>
@@ -8062,7 +8071,7 @@
         <v>258</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>289</v>
@@ -8097,7 +8106,7 @@
       <c r="AA101" s="2"/>
       <c r="AB101" s="2"/>
     </row>
-    <row r="102" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>108</v>
       </c>
@@ -8124,7 +8133,7 @@
         <v>258</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>289</v>
@@ -8159,7 +8168,7 @@
       <c r="AA102" s="2"/>
       <c r="AB102" s="2"/>
     </row>
-    <row r="103" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>109</v>
       </c>
@@ -8186,7 +8195,7 @@
         <v>258</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K103" s="2" t="s">
         <v>291</v>
@@ -8221,7 +8230,7 @@
       <c r="AA103" s="2"/>
       <c r="AB103" s="2"/>
     </row>
-    <row r="104" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>110</v>
       </c>
@@ -8248,7 +8257,7 @@
         <v>258</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>289</v>
@@ -8283,7 +8292,7 @@
       <c r="AA104" s="2"/>
       <c r="AB104" s="2"/>
     </row>
-    <row r="105" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>111</v>
       </c>
@@ -8310,7 +8319,7 @@
         <v>258</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>289</v>
@@ -8345,7 +8354,7 @@
       <c r="AA105" s="2"/>
       <c r="AB105" s="2"/>
     </row>
-    <row r="106" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>112</v>
       </c>
@@ -8372,7 +8381,7 @@
         <v>258</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>289</v>
@@ -8407,7 +8416,7 @@
       <c r="AA106" s="2"/>
       <c r="AB106" s="2"/>
     </row>
-    <row r="107" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>113</v>
       </c>
@@ -8434,7 +8443,7 @@
         <v>258</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>289</v>
@@ -8469,7 +8478,7 @@
       <c r="AA107" s="2"/>
       <c r="AB107" s="2"/>
     </row>
-    <row r="108" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>114</v>
       </c>
@@ -8496,7 +8505,7 @@
         <v>258</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>289</v>
@@ -8531,7 +8540,7 @@
       <c r="AA108" s="2"/>
       <c r="AB108" s="2"/>
     </row>
-    <row r="109" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>115</v>
       </c>
@@ -8558,7 +8567,7 @@
         <v>258</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>289</v>
@@ -8593,7 +8602,7 @@
       <c r="AA109" s="2"/>
       <c r="AB109" s="2"/>
     </row>
-    <row r="110" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>116</v>
       </c>
@@ -8620,7 +8629,7 @@
         <v>258</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>289</v>
@@ -8682,7 +8691,7 @@
         <v>258</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K111" s="2" t="s">
         <v>289</v>
@@ -8744,7 +8753,7 @@
         <v>258</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K112" s="2" t="s">
         <v>291</v>
@@ -8806,7 +8815,7 @@
         <v>258</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K113" s="2" t="s">
         <v>289</v>
@@ -8868,7 +8877,7 @@
         <v>258</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K114" s="2" t="s">
         <v>291</v>
@@ -8930,7 +8939,7 @@
         <v>258</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K115" s="2" t="s">
         <v>291</v>
@@ -8992,7 +9001,7 @@
         <v>258</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>291</v>
@@ -9054,7 +9063,7 @@
         <v>258</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>291</v>
@@ -9116,7 +9125,7 @@
         <v>258</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K118" s="2" t="s">
         <v>291</v>
@@ -9178,7 +9187,7 @@
         <v>258</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K119" s="2" t="s">
         <v>291</v>
@@ -9240,7 +9249,7 @@
         <v>258</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K120" s="2" t="s">
         <v>291</v>
@@ -9302,7 +9311,7 @@
         <v>258</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K121" s="2" t="s">
         <v>291</v>
@@ -9364,7 +9373,7 @@
         <v>258</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>291</v>
@@ -9399,7 +9408,7 @@
       <c r="AA122" s="2"/>
       <c r="AB122" s="2"/>
     </row>
-    <row r="123" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>129</v>
       </c>
@@ -9426,7 +9435,7 @@
         <v>258</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>291</v>
@@ -9461,7 +9470,7 @@
       <c r="AA123" s="2"/>
       <c r="AB123" s="2"/>
     </row>
-    <row r="124" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>130</v>
       </c>
@@ -9488,7 +9497,7 @@
         <v>258</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K124" s="2"/>
       <c r="L124" s="2" t="s">
@@ -9525,7 +9534,7 @@
       <c r="AA124" s="2"/>
       <c r="AB124" s="2"/>
     </row>
-    <row r="125" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>132</v>
       </c>
@@ -9552,7 +9561,7 @@
         <v>258</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K125" s="2" t="s">
         <v>287</v>
@@ -9587,7 +9596,7 @@
       <c r="AA125" s="2"/>
       <c r="AB125" s="2"/>
     </row>
-    <row r="126" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>134</v>
       </c>
@@ -9614,7 +9623,7 @@
         <v>258</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K126" s="2" t="s">
         <v>287</v>
@@ -9649,7 +9658,7 @@
       <c r="AA126" s="2"/>
       <c r="AB126" s="2"/>
     </row>
-    <row r="127" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>135</v>
       </c>
@@ -9676,7 +9685,7 @@
         <v>258</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K127" s="2" t="s">
         <v>287</v>
@@ -9711,7 +9720,7 @@
       <c r="AA127" s="2"/>
       <c r="AB127" s="2"/>
     </row>
-    <row r="128" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>136</v>
       </c>
@@ -9738,7 +9747,7 @@
         <v>258</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K128" s="2" t="s">
         <v>287</v>
@@ -9773,7 +9782,7 @@
       <c r="AA128" s="2"/>
       <c r="AB128" s="2"/>
     </row>
-    <row r="129" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>137</v>
       </c>
@@ -9800,7 +9809,7 @@
         <v>258</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K129" s="2" t="s">
         <v>287</v>
@@ -9835,7 +9844,7 @@
       <c r="AA129" s="2"/>
       <c r="AB129" s="2"/>
     </row>
-    <row r="130" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>138</v>
       </c>
@@ -9862,7 +9871,7 @@
         <v>258</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K130" s="2" t="s">
         <v>287</v>
@@ -9897,7 +9906,7 @@
       <c r="AA130" s="2"/>
       <c r="AB130" s="2"/>
     </row>
-    <row r="131" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>139</v>
       </c>
@@ -9924,7 +9933,7 @@
         <v>258</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K131" s="2" t="s">
         <v>287</v>
@@ -9959,7 +9968,7 @@
       <c r="AA131" s="2"/>
       <c r="AB131" s="2"/>
     </row>
-    <row r="132" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>140</v>
       </c>
@@ -9986,7 +9995,7 @@
         <v>258</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K132" s="2" t="s">
         <v>287</v>
@@ -10021,7 +10030,7 @@
       <c r="AA132" s="2"/>
       <c r="AB132" s="2"/>
     </row>
-    <row r="133" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>141</v>
       </c>
@@ -10048,7 +10057,7 @@
         <v>258</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K133" s="2" t="s">
         <v>287</v>
@@ -10083,7 +10092,7 @@
       <c r="AA133" s="2"/>
       <c r="AB133" s="2"/>
     </row>
-    <row r="134" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>142</v>
       </c>
@@ -10110,7 +10119,7 @@
         <v>258</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K134" s="2" t="s">
         <v>287</v>
@@ -10145,7 +10154,7 @@
       <c r="AA134" s="2"/>
       <c r="AB134" s="2"/>
     </row>
-    <row r="135" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>143</v>
       </c>
@@ -10172,7 +10181,7 @@
         <v>258</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K135" s="2" t="s">
         <v>287</v>
@@ -10207,7 +10216,7 @@
       <c r="AA135" s="2"/>
       <c r="AB135" s="2"/>
     </row>
-    <row r="136" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>144</v>
       </c>
@@ -10234,7 +10243,7 @@
         <v>258</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K136" s="2" t="s">
         <v>287</v>
@@ -10269,7 +10278,7 @@
       <c r="AA136" s="2"/>
       <c r="AB136" s="2"/>
     </row>
-    <row r="137" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>145</v>
       </c>
@@ -10296,7 +10305,7 @@
         <v>258</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="2" t="s">
@@ -10333,7 +10342,7 @@
       <c r="AA137" s="2"/>
       <c r="AB137" s="2"/>
     </row>
-    <row r="138" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>147</v>
       </c>
@@ -10360,7 +10369,7 @@
         <v>258</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="2" t="s">
@@ -10397,7 +10406,7 @@
       <c r="AA138" s="2"/>
       <c r="AB138" s="2"/>
     </row>
-    <row r="139" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>148</v>
       </c>
@@ -10424,7 +10433,7 @@
         <v>258</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="2" t="s">
@@ -10461,7 +10470,7 @@
       <c r="AA139" s="2"/>
       <c r="AB139" s="2"/>
     </row>
-    <row r="140" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>149</v>
       </c>
@@ -10488,7 +10497,7 @@
         <v>258</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="2" t="s">
@@ -10525,7 +10534,7 @@
       <c r="AA140" s="2"/>
       <c r="AB140" s="2"/>
     </row>
-    <row r="141" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>150</v>
       </c>
@@ -10552,7 +10561,7 @@
         <v>258</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="2" t="s">
@@ -10589,7 +10598,7 @@
       <c r="AA141" s="2"/>
       <c r="AB141" s="2"/>
     </row>
-    <row r="142" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>151</v>
       </c>
@@ -10616,7 +10625,7 @@
         <v>258</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="2" t="s">
@@ -10653,7 +10662,7 @@
       <c r="AA142" s="2"/>
       <c r="AB142" s="2"/>
     </row>
-    <row r="143" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>152</v>
       </c>
@@ -10680,7 +10689,7 @@
         <v>258</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K143" s="2"/>
       <c r="L143" s="2" t="s">
@@ -10717,7 +10726,7 @@
       <c r="AA143" s="2"/>
       <c r="AB143" s="2"/>
     </row>
-    <row r="144" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>153</v>
       </c>
@@ -10744,7 +10753,7 @@
         <v>258</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K144" s="2"/>
       <c r="L144" s="2" t="s">
@@ -10781,7 +10790,7 @@
       <c r="AA144" s="2"/>
       <c r="AB144" s="2"/>
     </row>
-    <row r="145" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>154</v>
       </c>
@@ -10808,7 +10817,7 @@
         <v>258</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K145" s="2"/>
       <c r="L145" s="2" t="s">
@@ -10845,7 +10854,7 @@
       <c r="AA145" s="2"/>
       <c r="AB145" s="2"/>
     </row>
-    <row r="146" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>155</v>
       </c>
@@ -10872,7 +10881,7 @@
         <v>258</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="2" t="s">
@@ -10909,7 +10918,7 @@
       <c r="AA146" s="2"/>
       <c r="AB146" s="2"/>
     </row>
-    <row r="147" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>156</v>
       </c>
@@ -10936,7 +10945,7 @@
         <v>258</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K147" s="2"/>
       <c r="L147" s="2" t="s">
@@ -10973,7 +10982,7 @@
       <c r="AA147" s="2"/>
       <c r="AB147" s="2"/>
     </row>
-    <row r="148" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>158</v>
       </c>
@@ -11000,7 +11009,7 @@
         <v>258</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="2" t="s">
@@ -11037,7 +11046,7 @@
       <c r="AA148" s="2"/>
       <c r="AB148" s="2"/>
     </row>
-    <row r="149" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>159</v>
       </c>
@@ -11064,7 +11073,7 @@
         <v>258</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="2" t="s">
@@ -11101,7 +11110,7 @@
       <c r="AA149" s="2"/>
       <c r="AB149" s="2"/>
     </row>
-    <row r="150" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>160</v>
       </c>
@@ -11128,7 +11137,7 @@
         <v>258</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="2" t="s">
@@ -11165,7 +11174,7 @@
       <c r="AA150" s="2"/>
       <c r="AB150" s="2"/>
     </row>
-    <row r="151" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>161</v>
       </c>
@@ -11192,7 +11201,7 @@
         <v>258</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K151" s="2"/>
       <c r="L151" s="2" t="s">
@@ -11229,7 +11238,7 @@
       <c r="AA151" s="2"/>
       <c r="AB151" s="2"/>
     </row>
-    <row r="152" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>162</v>
       </c>
@@ -11256,7 +11265,7 @@
         <v>258</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="2" t="s">
@@ -11293,7 +11302,7 @@
       <c r="AA152" s="2"/>
       <c r="AB152" s="2"/>
     </row>
-    <row r="153" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>163</v>
       </c>
@@ -11320,7 +11329,7 @@
         <v>258</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="2" t="s">
@@ -11357,7 +11366,7 @@
       <c r="AA153" s="2"/>
       <c r="AB153" s="2"/>
     </row>
-    <row r="154" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>164</v>
       </c>
@@ -11384,7 +11393,7 @@
         <v>258</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="2" t="s">
@@ -11421,7 +11430,7 @@
       <c r="AA154" s="2"/>
       <c r="AB154" s="2"/>
     </row>
-    <row r="155" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>165</v>
       </c>
@@ -11448,7 +11457,7 @@
         <v>258</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="2" t="s">
@@ -11485,7 +11494,7 @@
       <c r="AA155" s="2"/>
       <c r="AB155" s="2"/>
     </row>
-    <row r="156" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>166</v>
       </c>
@@ -11512,7 +11521,7 @@
         <v>258</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="2" t="s">
@@ -11549,7 +11558,7 @@
       <c r="AA156" s="2"/>
       <c r="AB156" s="2"/>
     </row>
-    <row r="157" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>167</v>
       </c>
@@ -11576,7 +11585,7 @@
         <v>258</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="2" t="s">
@@ -11613,7 +11622,7 @@
       <c r="AA157" s="2"/>
       <c r="AB157" s="2"/>
     </row>
-    <row r="158" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>168</v>
       </c>
@@ -11640,7 +11649,7 @@
         <v>258</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="2" t="s">
@@ -11677,7 +11686,7 @@
       <c r="AA158" s="2"/>
       <c r="AB158" s="2"/>
     </row>
-    <row r="159" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>169</v>
       </c>
@@ -11704,7 +11713,7 @@
         <v>258</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="2" t="s">
@@ -11741,7 +11750,7 @@
       <c r="AA159" s="2"/>
       <c r="AB159" s="2"/>
     </row>
-    <row r="160" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
         <v>170</v>
       </c>
@@ -11768,7 +11777,7 @@
         <v>258</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="2" t="s">
@@ -11805,7 +11814,7 @@
       <c r="AA160" s="2"/>
       <c r="AB160" s="2"/>
     </row>
-    <row r="161" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
         <v>172</v>
       </c>
@@ -11832,7 +11841,7 @@
         <v>258</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="2" t="s">
@@ -11869,7 +11878,7 @@
       <c r="AA161" s="2"/>
       <c r="AB161" s="2"/>
     </row>
-    <row r="162" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
         <v>173</v>
       </c>
@@ -11896,7 +11905,7 @@
         <v>258</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="2" t="s">
@@ -11933,7 +11942,7 @@
       <c r="AA162" s="2"/>
       <c r="AB162" s="2"/>
     </row>
-    <row r="163" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
         <v>174</v>
       </c>
@@ -11960,7 +11969,7 @@
         <v>258</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K163" s="2"/>
       <c r="L163" s="2" t="s">
@@ -11997,7 +12006,7 @@
       <c r="AA163" s="2"/>
       <c r="AB163" s="2"/>
     </row>
-    <row r="164" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>175</v>
       </c>
@@ -12024,7 +12033,7 @@
         <v>258</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="2" t="s">
@@ -12061,7 +12070,7 @@
       <c r="AA164" s="2"/>
       <c r="AB164" s="2"/>
     </row>
-    <row r="165" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>176</v>
       </c>
@@ -12088,7 +12097,7 @@
         <v>258</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K165" s="2"/>
       <c r="L165" s="2" t="s">
@@ -12125,7 +12134,7 @@
       <c r="AA165" s="2"/>
       <c r="AB165" s="2"/>
     </row>
-    <row r="166" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
         <v>177</v>
       </c>
@@ -12152,7 +12161,7 @@
         <v>258</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="2" t="s">
@@ -12189,7 +12198,7 @@
       <c r="AA166" s="2"/>
       <c r="AB166" s="2"/>
     </row>
-    <row r="167" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
         <v>178</v>
       </c>
@@ -12216,7 +12225,7 @@
         <v>258</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="2" t="s">
@@ -12253,7 +12262,7 @@
       <c r="AA167" s="2"/>
       <c r="AB167" s="2"/>
     </row>
-    <row r="168" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
         <v>179</v>
       </c>
@@ -12280,7 +12289,7 @@
         <v>258</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K168" s="2"/>
       <c r="L168" s="2" t="s">
@@ -12317,7 +12326,7 @@
       <c r="AA168" s="2"/>
       <c r="AB168" s="2"/>
     </row>
-    <row r="169" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
         <v>180</v>
       </c>
@@ -12344,7 +12353,7 @@
         <v>258</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K169" s="2"/>
       <c r="L169" s="2" t="s">
@@ -12381,7 +12390,7 @@
       <c r="AA169" s="2"/>
       <c r="AB169" s="2"/>
     </row>
-    <row r="170" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
         <v>181</v>
       </c>
@@ -12408,7 +12417,7 @@
         <v>258</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="2" t="s">
@@ -12445,7 +12454,7 @@
       <c r="AA170" s="2"/>
       <c r="AB170" s="2"/>
     </row>
-    <row r="171" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
         <v>182</v>
       </c>
@@ -12472,7 +12481,7 @@
         <v>258</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="2" t="s">
@@ -12509,7 +12518,7 @@
       <c r="AA171" s="2"/>
       <c r="AB171" s="2"/>
     </row>
-    <row r="172" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
         <v>184</v>
       </c>
@@ -12536,7 +12545,7 @@
         <v>258</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K172" s="2"/>
       <c r="L172" s="2" t="s">
@@ -12573,7 +12582,7 @@
       <c r="AA172" s="2"/>
       <c r="AB172" s="2"/>
     </row>
-    <row r="173" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
         <v>185</v>
       </c>
@@ -12600,7 +12609,7 @@
         <v>258</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K173" s="2"/>
       <c r="L173" s="2" t="s">
@@ -12637,7 +12646,7 @@
       <c r="AA173" s="2"/>
       <c r="AB173" s="2"/>
     </row>
-    <row r="174" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
         <v>186</v>
       </c>
@@ -12664,7 +12673,7 @@
         <v>258</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K174" s="2"/>
       <c r="L174" s="2" t="s">
@@ -12701,7 +12710,7 @@
       <c r="AA174" s="2"/>
       <c r="AB174" s="2"/>
     </row>
-    <row r="175" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>187</v>
       </c>
@@ -12728,7 +12737,7 @@
         <v>258</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="2" t="s">
@@ -12765,7 +12774,7 @@
       <c r="AA175" s="2"/>
       <c r="AB175" s="2"/>
     </row>
-    <row r="176" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>188</v>
       </c>
@@ -12792,7 +12801,7 @@
         <v>258</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K176" s="2"/>
       <c r="L176" s="2" t="s">
@@ -12829,7 +12838,7 @@
       <c r="AA176" s="2"/>
       <c r="AB176" s="2"/>
     </row>
-    <row r="177" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
         <v>189</v>
       </c>
@@ -12856,7 +12865,7 @@
         <v>258</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K177" s="2"/>
       <c r="L177" s="2" t="s">
@@ -12893,7 +12902,7 @@
       <c r="AA177" s="2"/>
       <c r="AB177" s="2"/>
     </row>
-    <row r="178" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
         <v>190</v>
       </c>
@@ -12955,7 +12964,7 @@
       <c r="AA178" s="2"/>
       <c r="AB178" s="2"/>
     </row>
-    <row r="179" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
         <v>191</v>
       </c>
@@ -13015,7 +13024,7 @@
       <c r="AA179" s="2"/>
       <c r="AB179" s="2"/>
     </row>
-    <row r="180" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
         <v>192</v>
       </c>
@@ -13075,7 +13084,7 @@
       <c r="AA180" s="2"/>
       <c r="AB180" s="2"/>
     </row>
-    <row r="181" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
         <v>194</v>
       </c>
@@ -13135,7 +13144,7 @@
       <c r="AA181" s="2"/>
       <c r="AB181" s="2"/>
     </row>
-    <row r="182" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
         <v>196</v>
       </c>
@@ -13195,7 +13204,7 @@
       <c r="AA182" s="2"/>
       <c r="AB182" s="2"/>
     </row>
-    <row r="183" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
         <v>197</v>
       </c>
@@ -13257,7 +13266,7 @@
       <c r="AA183" s="2"/>
       <c r="AB183" s="2"/>
     </row>
-    <row r="184" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
         <v>198</v>
       </c>
@@ -13319,7 +13328,7 @@
       <c r="AA184" s="2"/>
       <c r="AB184" s="2"/>
     </row>
-    <row r="185" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
         <v>199</v>
       </c>
@@ -13381,7 +13390,7 @@
       <c r="AA185" s="2"/>
       <c r="AB185" s="2"/>
     </row>
-    <row r="186" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
         <v>200</v>
       </c>
@@ -13443,7 +13452,7 @@
       <c r="AA186" s="2"/>
       <c r="AB186" s="2"/>
     </row>
-    <row r="187" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
         <v>201</v>
       </c>
@@ -13503,7 +13512,7 @@
       <c r="AA187" s="2"/>
       <c r="AB187" s="2"/>
     </row>
-    <row r="188" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
         <v>202</v>
       </c>
@@ -13565,7 +13574,7 @@
       <c r="AA188" s="2"/>
       <c r="AB188" s="2"/>
     </row>
-    <row r="189" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
         <v>203</v>
       </c>
@@ -13625,7 +13634,7 @@
       <c r="AA189" s="2"/>
       <c r="AB189" s="2"/>
     </row>
-    <row r="190" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
         <v>279</v>
       </c>
@@ -13685,7 +13694,7 @@
       <c r="AA190" s="2"/>
       <c r="AB190" s="2"/>
     </row>
-    <row r="191" spans="1:28" ht="232" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:28" ht="232" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
         <v>282</v>
       </c>
@@ -13735,7 +13744,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="192" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:28" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
         <v>283</v>
       </c>
@@ -13785,7 +13794,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="193" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:28" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
         <v>284</v>
       </c>
@@ -13835,7 +13844,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="194" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:28" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
         <v>285</v>
       </c>
@@ -13885,7 +13894,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="195" spans="1:28" ht="232" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:28" ht="232" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
         <v>204</v>
       </c>
@@ -13937,7 +13946,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="196" spans="1:28" ht="232" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:28" ht="232" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
         <v>205</v>
       </c>
@@ -13989,7 +13998,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="197" spans="1:28" ht="232" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:28" ht="232" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
         <v>206</v>
       </c>
@@ -14041,7 +14050,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="198" spans="1:28" ht="232" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:28" ht="232" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="s">
         <v>207</v>
       </c>
@@ -14093,7 +14102,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="199" spans="1:28" ht="232" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:28" ht="232" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
         <v>208</v>
       </c>
@@ -14145,7 +14154,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="200" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
         <v>209</v>
       </c>
@@ -14205,7 +14214,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="201" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
         <v>210</v>
       </c>
@@ -14265,7 +14274,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="202" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="3" t="s">
         <v>211</v>
       </c>
@@ -14325,7 +14334,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="203" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
         <v>212</v>
       </c>
@@ -14385,7 +14394,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="204" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="3" t="s">
         <v>213</v>
       </c>
@@ -14445,7 +14454,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="205" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="3" t="s">
         <v>214</v>
       </c>
@@ -14499,7 +14508,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="206" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:28" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="3" t="s">
         <v>216</v>
       </c>
@@ -14561,7 +14570,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="207" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="3" t="s">
         <v>217</v>
       </c>
@@ -14611,7 +14620,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="208" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="s">
         <v>218</v>
       </c>
@@ -14661,7 +14670,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="209" spans="1:28" ht="174" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:28" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
         <v>219</v>
       </c>
@@ -14715,7 +14724,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="210" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="3" t="s">
         <v>220</v>
       </c>
@@ -14777,7 +14786,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="211" spans="1:28" ht="174" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:28" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="3" t="s">
         <v>221</v>
       </c>
@@ -14831,7 +14840,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="212" spans="1:28" ht="174" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:28" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="3" t="s">
         <v>222</v>
       </c>
@@ -14885,7 +14894,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="213" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="3" t="s">
         <v>223</v>
       </c>
@@ -14947,7 +14956,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="214" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="3" t="s">
         <v>224</v>
       </c>
@@ -15009,7 +15018,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="215" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:28" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="3" t="s">
         <v>225</v>
       </c>
@@ -15071,7 +15080,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="216" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="s">
         <v>226</v>
       </c>
@@ -15133,7 +15142,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="217" spans="1:28" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:28" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="s">
         <v>227</v>
       </c>
@@ -15189,7 +15198,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="218" spans="1:28" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:28" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="3" t="s">
         <v>228</v>
       </c>
@@ -15251,7 +15260,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="219" spans="1:28" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:28" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="3" t="s">
         <v>229</v>
       </c>
@@ -15305,7 +15314,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="220" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:28" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="3" t="s">
         <v>230</v>
       </c>
@@ -15359,7 +15368,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="221" spans="1:28" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:28" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="3" t="s">
         <v>231</v>
       </c>
@@ -15413,7 +15422,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="222" spans="1:28" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:28" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="3" t="s">
         <v>232</v>
       </c>
@@ -15467,7 +15476,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="223" spans="1:28" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:28" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="3" t="s">
         <v>233</v>
       </c>
@@ -15521,7 +15530,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="224" spans="1:28" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:28" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="3" t="s">
         <v>234</v>
       </c>
@@ -15583,7 +15592,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="225" spans="1:28" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:28" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="3" t="s">
         <v>235</v>
       </c>
@@ -15637,7 +15646,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="226" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:28" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="3" t="s">
         <v>236</v>
       </c>
@@ -15691,7 +15700,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="227" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="3" t="s">
         <v>237</v>
       </c>
@@ -15745,7 +15754,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="228" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:28" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="3" t="s">
         <v>238</v>
       </c>
@@ -15799,7 +15808,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="229" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="3" t="s">
         <v>239</v>
       </c>
@@ -15851,7 +15860,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="230" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:28" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="3" t="s">
         <v>240</v>
       </c>
@@ -15905,7 +15914,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="231" spans="1:28" ht="232" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:28" ht="232" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="3" t="s">
         <v>241</v>
       </c>
@@ -15959,7 +15968,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="232" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:28" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="3" t="s">
         <v>242</v>
       </c>
@@ -16013,7 +16022,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="233" spans="1:28" ht="232" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:28" ht="232" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="4" t="s">
         <v>243</v>
       </c>

--- a/uploads/saturday schedule.xlsx
+++ b/uploads/saturday schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\nso_schedules\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C08E7B-9CD6-4F7A-89F1-38529D105247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB09804F-FE7B-43DF-A901-D5D4F40615A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{CFEFD664-C137-4AB8-9587-3576B7D9DF99}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3556" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3525" uniqueCount="358">
   <si>
     <t>Names</t>
   </si>
@@ -1108,12 +1108,6 @@
   </si>
   <si>
     <t>True Searle</t>
-  </si>
-  <si>
-    <t>Daysha Ralphs quit (emma zeman here)</t>
-  </si>
-  <si>
-    <t>Christian (Ivan) Liu/madilynn groom</t>
   </si>
   <si>
     <t>Ivan Liu</t>
@@ -1397,8 +1391,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C4363A96-9F1E-460F-8AC0-1700060DE7DE}" name="Table1" displayName="Table1" ref="A1:AB237" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" tableBorderDxfId="28">
-  <autoFilter ref="A1:AB237" xr:uid="{C4363A96-9F1E-460F-8AC0-1700060DE7DE}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C4363A96-9F1E-460F-8AC0-1700060DE7DE}" name="Table1" displayName="Table1" ref="A1:AB235" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" tableBorderDxfId="28">
+  <autoFilter ref="A1:AB235" xr:uid="{C4363A96-9F1E-460F-8AC0-1700060DE7DE}">
     <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1756,10 +1750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CB4A9D-89C3-4A17-8052-CF4B27EC2D33}">
-  <dimension ref="A1:AB237"/>
+  <dimension ref="A1:AB235"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:XFD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5802,8 +5796,8 @@
       <c r="AB64" s="2"/>
     </row>
     <row r="65" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="8" t="s">
-        <v>67</v>
+      <c r="A65" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>46</v>
@@ -5865,13 +5859,13 @@
     </row>
     <row r="66" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C66" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2" t="s">
@@ -5927,13 +5921,13 @@
     </row>
     <row r="67" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C67" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2" t="s">
@@ -5989,13 +5983,13 @@
     </row>
     <row r="68" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C68" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2" t="s">
@@ -6049,22 +6043,22 @@
       <c r="AA68" s="2"/>
       <c r="AB68" s="2"/>
     </row>
-    <row r="69" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:28" ht="145" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>349</v>
+        <v>71</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C69" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2" t="s">
         <v>239</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>309</v>
@@ -6113,13 +6107,13 @@
     </row>
     <row r="70" spans="1:28" ht="145" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>46</v>
+        <v>271</v>
       </c>
       <c r="C70" s="3">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
@@ -6175,13 +6169,13 @@
     </row>
     <row r="71" spans="1:28" ht="145" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>271</v>
+        <v>73</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C71" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2" t="s">
@@ -6202,48 +6196,50 @@
       <c r="J71" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="K71" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="N71" s="2" t="s">
+      <c r="K71" s="2"/>
+      <c r="L71" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="T71" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="W71" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="O71" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="R71" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="S71" s="2"/>
-      <c r="T71" s="2"/>
-      <c r="U71" s="2"/>
-      <c r="V71" s="2"/>
-      <c r="W71" s="2"/>
-      <c r="X71" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y71" s="2"/>
-      <c r="Z71" s="2"/>
+      <c r="Z71" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="AA71" s="2"/>
       <c r="AB71" s="2"/>
     </row>
     <row r="72" spans="1:28" ht="145" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C72" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
@@ -6264,50 +6260,50 @@
       <c r="J72" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2" t="s">
+      <c r="K72" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="R72" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
+      <c r="X72" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="2"/>
-      <c r="S72" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="T72" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="U72" s="2"/>
-      <c r="V72" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="W72" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="X72" s="2"/>
-      <c r="Y72" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="Z72" s="2" t="s">
-        <v>276</v>
-      </c>
+      <c r="Y72" s="2"/>
+      <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
       <c r="AB72" s="2"/>
     </row>
     <row r="73" spans="1:28" ht="145" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C73" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
@@ -6365,13 +6361,13 @@
     </row>
     <row r="74" spans="1:28" ht="145" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C74" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2" t="s">
@@ -6392,50 +6388,50 @@
       <c r="J74" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="K74" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="N74" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="O74" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2" t="s">
+      <c r="K74" s="2"/>
+      <c r="L74" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="T74" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="W74" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="X74" s="2"/>
+      <c r="Y74" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="R74" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="S74" s="2"/>
-      <c r="T74" s="2"/>
-      <c r="U74" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="V74" s="2"/>
-      <c r="W74" s="2"/>
-      <c r="X74" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y74" s="2"/>
-      <c r="Z74" s="2"/>
+      <c r="Z74" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="AA74" s="2"/>
       <c r="AB74" s="2"/>
     </row>
     <row r="75" spans="1:28" ht="145" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C75" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
@@ -6493,13 +6489,13 @@
     </row>
     <row r="76" spans="1:28" ht="145" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C76" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
@@ -6557,13 +6553,13 @@
     </row>
     <row r="77" spans="1:28" ht="145" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C77" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2" t="s">
@@ -6621,13 +6617,13 @@
     </row>
     <row r="78" spans="1:28" ht="145" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C78" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2" t="s">
@@ -6685,20 +6681,20 @@
     </row>
     <row r="79" spans="1:28" ht="145" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>74</v>
+        <v>93</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C79" s="3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2" t="s">
         <v>239</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>309</v>
@@ -6712,50 +6708,48 @@
       <c r="J79" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2" t="s">
+      <c r="K79" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="R79" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
-      <c r="S79" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="T79" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="U79" s="2"/>
-      <c r="V79" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="W79" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="X79" s="2"/>
-      <c r="Y79" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="Z79" s="2" t="s">
-        <v>276</v>
-      </c>
+      <c r="Y79" s="2"/>
+      <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
       <c r="AB79" s="2"/>
     </row>
     <row r="80" spans="1:28" ht="145" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>350</v>
+        <v>83</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C80" s="3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2" t="s">
@@ -6811,13 +6805,13 @@
     </row>
     <row r="81" spans="1:28" ht="145" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C81" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2" t="s">
@@ -6873,13 +6867,13 @@
     </row>
     <row r="82" spans="1:28" ht="145" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C82" s="3">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2" t="s">
@@ -6935,13 +6929,13 @@
     </row>
     <row r="83" spans="1:28" ht="145" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C83" s="3">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
@@ -6997,13 +6991,13 @@
     </row>
     <row r="84" spans="1:28" ht="145" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C84" s="3">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2" t="s">
@@ -7059,7 +7053,7 @@
     </row>
     <row r="85" spans="1:28" ht="145" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>87</v>
+        <v>349</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>76</v>
@@ -7121,13 +7115,13 @@
     </row>
     <row r="86" spans="1:28" ht="145" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>351</v>
+        <v>88</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C86" s="3">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2" t="s">
@@ -7183,13 +7177,13 @@
     </row>
     <row r="87" spans="1:28" ht="145" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C87" s="3">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2" t="s">
@@ -7245,13 +7239,13 @@
     </row>
     <row r="88" spans="1:28" ht="145" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C88" s="3">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2" t="s">
@@ -7307,13 +7301,13 @@
     </row>
     <row r="89" spans="1:28" ht="145" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C89" s="3">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2" t="s">
@@ -7367,22 +7361,22 @@
       <c r="AA89" s="2"/>
       <c r="AB89" s="2"/>
     </row>
-    <row r="90" spans="1:28" ht="145" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:28" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>76</v>
+        <v>92</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C90" s="3">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2" t="s">
         <v>239</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>309</v>
@@ -7396,48 +7390,50 @@
       <c r="J90" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="K90" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="N90" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="O90" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" s="2" t="s">
+      <c r="K90" s="2"/>
+      <c r="L90" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2"/>
+      <c r="S90" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="T90" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="U90" s="2"/>
+      <c r="V90" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="W90" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="X90" s="2"/>
+      <c r="Y90" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="R90" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="S90" s="2"/>
-      <c r="T90" s="2"/>
-      <c r="U90" s="2"/>
-      <c r="V90" s="2"/>
-      <c r="W90" s="2"/>
-      <c r="X90" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y90" s="2"/>
-      <c r="Z90" s="2"/>
+      <c r="Z90" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="AA90" s="2"/>
       <c r="AB90" s="2"/>
     </row>
     <row r="91" spans="1:28" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C91" s="3">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2" t="s">
@@ -7494,14 +7490,14 @@
       <c r="AB91" s="2"/>
     </row>
     <row r="92" spans="1:28" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="8" t="s">
-        <v>93</v>
+      <c r="A92" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C92" s="3">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2" t="s">
@@ -7559,13 +7555,13 @@
     </row>
     <row r="93" spans="1:28" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>94</v>
+        <v>350</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C93" s="3">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2" t="s">
@@ -7623,13 +7619,13 @@
     </row>
     <row r="94" spans="1:28" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C94" s="3">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2" t="s">
@@ -7687,13 +7683,13 @@
     </row>
     <row r="95" spans="1:28" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>352</v>
+        <v>97</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C95" s="3">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2" t="s">
@@ -7751,13 +7747,13 @@
     </row>
     <row r="96" spans="1:28" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C96" s="3">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2" t="s">
@@ -7815,13 +7811,13 @@
     </row>
     <row r="97" spans="1:28" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>74</v>
+        <v>99</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>270</v>
       </c>
       <c r="C97" s="3">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2" t="s">
@@ -7842,50 +7838,48 @@
       <c r="J97" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-      <c r="P97" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q97" s="2"/>
-      <c r="R97" s="2"/>
-      <c r="S97" s="2" t="s">
+      <c r="K97" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="T97" s="2" t="s">
-        <v>280</v>
-      </c>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="R97" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
       <c r="U97" s="2"/>
-      <c r="V97" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="W97" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="X97" s="2"/>
-      <c r="Y97" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="Z97" s="2" t="s">
-        <v>276</v>
-      </c>
+      <c r="V97" s="2"/>
+      <c r="W97" s="2"/>
+      <c r="X97" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y97" s="2"/>
+      <c r="Z97" s="2"/>
       <c r="AA97" s="2"/>
       <c r="AB97" s="2"/>
     </row>
     <row r="98" spans="1:28" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>74</v>
+        <v>100</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>270</v>
       </c>
       <c r="C98" s="3">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2" t="s">
@@ -7906,57 +7900,55 @@
       <c r="J98" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="K98" s="2"/>
-      <c r="L98" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
-      <c r="P98" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q98" s="2"/>
-      <c r="R98" s="2"/>
-      <c r="S98" s="2" t="s">
+      <c r="K98" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="T98" s="2" t="s">
-        <v>280</v>
-      </c>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="N98" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="O98" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="R98" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
       <c r="U98" s="2"/>
-      <c r="V98" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="W98" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="X98" s="2"/>
-      <c r="Y98" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="Z98" s="2" t="s">
-        <v>276</v>
-      </c>
+      <c r="V98" s="2"/>
+      <c r="W98" s="2"/>
+      <c r="X98" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y98" s="2"/>
+      <c r="Z98" s="2"/>
       <c r="AA98" s="2"/>
       <c r="AB98" s="2"/>
     </row>
-    <row r="99" spans="1:28" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>270</v>
       </c>
       <c r="C99" s="3">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2" t="s">
         <v>239</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>309</v>
@@ -8003,22 +7995,22 @@
       <c r="AA99" s="2"/>
       <c r="AB99" s="2"/>
     </row>
-    <row r="100" spans="1:28" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>270</v>
       </c>
       <c r="C100" s="3">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2" t="s">
         <v>239</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>309</v>
@@ -8067,13 +8059,13 @@
     </row>
     <row r="101" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>270</v>
       </c>
       <c r="C101" s="3">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2" t="s">
@@ -8129,13 +8121,13 @@
     </row>
     <row r="102" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>270</v>
       </c>
       <c r="C102" s="3">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2" t="s">
@@ -8191,20 +8183,20 @@
     </row>
     <row r="103" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>103</v>
+        <v>351</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C103" s="3">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2" t="s">
         <v>239</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>309</v>
@@ -8219,24 +8211,24 @@
         <v>346</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L103" s="2"/>
       <c r="M103" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="R103" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
@@ -8253,20 +8245,20 @@
     </row>
     <row r="104" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>270</v>
       </c>
       <c r="C104" s="3">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2" t="s">
         <v>239</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>309</v>
@@ -8315,13 +8307,13 @@
     </row>
     <row r="105" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
-        <v>353</v>
+        <v>106</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C105" s="3">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2" t="s">
@@ -8343,24 +8335,24 @@
         <v>346</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L105" s="2"/>
       <c r="M105" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="P105" s="2"/>
       <c r="Q105" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="R105" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
@@ -8377,13 +8369,13 @@
     </row>
     <row r="106" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>270</v>
       </c>
       <c r="C106" s="3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2" t="s">
@@ -8439,20 +8431,20 @@
     </row>
     <row r="107" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>270</v>
       </c>
       <c r="C107" s="3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2" t="s">
         <v>239</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>309</v>
@@ -8501,20 +8493,20 @@
     </row>
     <row r="108" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>270</v>
       </c>
       <c r="C108" s="3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2" t="s">
         <v>239</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>309</v>
@@ -8563,20 +8555,20 @@
     </row>
     <row r="109" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>270</v>
       </c>
       <c r="C109" s="3">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2" t="s">
         <v>239</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>309</v>
@@ -8625,20 +8617,20 @@
     </row>
     <row r="110" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>270</v>
       </c>
       <c r="C110" s="3">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2" t="s">
         <v>239</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>309</v>
@@ -8687,20 +8679,20 @@
     </row>
     <row r="111" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>270</v>
       </c>
       <c r="C111" s="3">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2" t="s">
         <v>239</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>309</v>
@@ -8749,20 +8741,20 @@
     </row>
     <row r="112" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C112" s="3">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2" t="s">
         <v>239</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>309</v>
@@ -8777,24 +8769,24 @@
         <v>346</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L112" s="2"/>
       <c r="M112" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="R112" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
@@ -8811,13 +8803,13 @@
     </row>
     <row r="113" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>270</v>
       </c>
       <c r="C113" s="3">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2" t="s">
@@ -8873,13 +8865,13 @@
     </row>
     <row r="114" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>271</v>
       </c>
       <c r="C114" s="3">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2" t="s">
@@ -8935,13 +8927,13 @@
     </row>
     <row r="115" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C115" s="3">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2" t="s">
@@ -8963,24 +8955,24 @@
         <v>346</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L115" s="2"/>
       <c r="M115" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="P115" s="2"/>
       <c r="Q115" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="R115" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
@@ -8996,14 +8988,14 @@
       <c r="AB115" s="2"/>
     </row>
     <row r="116" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A116" s="3" t="s">
-        <v>115</v>
+      <c r="A116" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>271</v>
       </c>
       <c r="C116" s="3">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2" t="s">
@@ -9059,13 +9051,13 @@
     </row>
     <row r="117" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>271</v>
       </c>
       <c r="C117" s="3">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2" t="s">
@@ -9120,14 +9112,14 @@
       <c r="AB117" s="2"/>
     </row>
     <row r="118" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A118" s="9" t="s">
-        <v>116</v>
+      <c r="A118" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>271</v>
       </c>
       <c r="C118" s="3">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2" t="s">
@@ -9183,13 +9175,13 @@
     </row>
     <row r="119" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>271</v>
       </c>
       <c r="C119" s="3">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2" t="s">
@@ -9245,13 +9237,13 @@
     </row>
     <row r="120" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>271</v>
       </c>
       <c r="C120" s="3">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2" t="s">
@@ -9307,13 +9299,13 @@
     </row>
     <row r="121" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>271</v>
       </c>
       <c r="C121" s="3">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2" t="s">
@@ -9369,20 +9361,20 @@
     </row>
     <row r="122" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>271</v>
       </c>
       <c r="C122" s="3">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2" t="s">
         <v>239</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>309</v>
@@ -9431,20 +9423,20 @@
     </row>
     <row r="123" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>271</v>
+        <v>124</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="C123" s="3">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2" t="s">
         <v>239</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>309</v>
@@ -9458,48 +9450,50 @@
       <c r="J123" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="K123" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="L123" s="2"/>
-      <c r="M123" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="N123" s="2" t="s">
+      <c r="K123" s="2"/>
+      <c r="L123" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
+      <c r="P123" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q123" s="2"/>
+      <c r="R123" s="2"/>
+      <c r="S123" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="T123" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="U123" s="2"/>
+      <c r="V123" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="O123" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="P123" s="2"/>
-      <c r="Q123" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="R123" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="S123" s="2"/>
-      <c r="T123" s="2"/>
-      <c r="U123" s="2"/>
-      <c r="V123" s="2"/>
-      <c r="W123" s="2"/>
-      <c r="X123" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y123" s="2"/>
-      <c r="Z123" s="2"/>
+      <c r="W123" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="X123" s="2"/>
+      <c r="Y123" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z123" s="2" t="s">
+        <v>280</v>
+      </c>
       <c r="AA123" s="2"/>
       <c r="AB123" s="2"/>
     </row>
     <row r="124" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>271</v>
+        <v>125</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="C124" s="3">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2" t="s">
@@ -9521,24 +9515,24 @@
         <v>346</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="L124" s="2"/>
       <c r="M124" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="P124" s="2"/>
       <c r="Q124" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="R124" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
@@ -9546,7 +9540,7 @@
       <c r="V124" s="2"/>
       <c r="W124" s="2"/>
       <c r="X124" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
@@ -9555,20 +9549,20 @@
     </row>
     <row r="125" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="C125" s="3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2" t="s">
         <v>239</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>309</v>
@@ -9582,57 +9576,55 @@
       <c r="J125" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="K125" s="2"/>
-      <c r="L125" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="M125" s="2"/>
-      <c r="N125" s="2"/>
-      <c r="O125" s="2"/>
-      <c r="P125" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q125" s="2"/>
-      <c r="R125" s="2"/>
-      <c r="S125" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="T125" s="2" t="s">
-        <v>282</v>
-      </c>
+      <c r="K125" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="N125" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="O125" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="P125" s="2"/>
+      <c r="Q125" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="R125" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="S125" s="2"/>
+      <c r="T125" s="2"/>
       <c r="U125" s="2"/>
-      <c r="V125" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="W125" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="X125" s="2"/>
-      <c r="Y125" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="Z125" s="2" t="s">
-        <v>280</v>
-      </c>
+      <c r="V125" s="2"/>
+      <c r="W125" s="2"/>
+      <c r="X125" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y125" s="2"/>
+      <c r="Z125" s="2"/>
       <c r="AA125" s="2"/>
       <c r="AB125" s="2"/>
     </row>
     <row r="126" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>126</v>
       </c>
       <c r="C126" s="3">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2" t="s">
         <v>239</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>309</v>
@@ -9681,13 +9673,13 @@
     </row>
     <row r="127" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>126</v>
       </c>
       <c r="C127" s="3">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2" t="s">
@@ -9743,13 +9735,13 @@
     </row>
     <row r="128" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>126</v>
       </c>
       <c r="C128" s="3">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2" t="s">
@@ -9805,13 +9797,13 @@
     </row>
     <row r="129" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>126</v>
       </c>
       <c r="C129" s="3">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2" t="s">
@@ -9867,13 +9859,13 @@
     </row>
     <row r="130" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>126</v>
       </c>
       <c r="C130" s="3">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2" t="s">
@@ -9928,14 +9920,14 @@
       <c r="AB130" s="2"/>
     </row>
     <row r="131" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A131" s="3" t="s">
-        <v>131</v>
+      <c r="A131" s="8" t="s">
+        <v>352</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C131" s="3">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2" t="s">
@@ -9956,55 +9948,57 @@
       <c r="J131" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="K131" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="L131" s="2"/>
-      <c r="M131" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="N131" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="O131" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="P131" s="2"/>
-      <c r="Q131" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="R131" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="S131" s="2"/>
-      <c r="T131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
+      <c r="O131" s="2"/>
+      <c r="P131" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q131" s="2"/>
+      <c r="R131" s="2"/>
+      <c r="S131" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="T131" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="U131" s="2"/>
-      <c r="V131" s="2"/>
-      <c r="W131" s="2"/>
-      <c r="X131" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y131" s="2"/>
-      <c r="Z131" s="2"/>
+      <c r="V131" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="W131" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="X131" s="2"/>
+      <c r="Y131" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z131" s="2" t="s">
+        <v>280</v>
+      </c>
       <c r="AA131" s="2"/>
       <c r="AB131" s="2"/>
     </row>
     <row r="132" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>126</v>
       </c>
       <c r="C132" s="3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2" t="s">
         <v>239</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>309</v>
@@ -10052,14 +10046,14 @@
       <c r="AB132" s="2"/>
     </row>
     <row r="133" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A133" s="8" t="s">
-        <v>354</v>
+      <c r="A133" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C133" s="3">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2" t="s">
@@ -10080,57 +10074,55 @@
       <c r="J133" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="K133" s="2"/>
-      <c r="L133" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
-      <c r="O133" s="2"/>
-      <c r="P133" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q133" s="2"/>
-      <c r="R133" s="2"/>
-      <c r="S133" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="T133" s="2" t="s">
-        <v>282</v>
-      </c>
+      <c r="K133" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="N133" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="O133" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="P133" s="2"/>
+      <c r="Q133" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="R133" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="S133" s="2"/>
+      <c r="T133" s="2"/>
       <c r="U133" s="2"/>
-      <c r="V133" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="W133" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="X133" s="2"/>
-      <c r="Y133" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="Z133" s="2" t="s">
-        <v>280</v>
-      </c>
+      <c r="V133" s="2"/>
+      <c r="W133" s="2"/>
+      <c r="X133" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y133" s="2"/>
+      <c r="Z133" s="2"/>
       <c r="AA133" s="2"/>
       <c r="AB133" s="2"/>
     </row>
     <row r="134" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>126</v>
       </c>
       <c r="C134" s="3">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2" t="s">
         <v>239</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>309</v>
@@ -10179,20 +10171,20 @@
     </row>
     <row r="135" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>126</v>
       </c>
       <c r="C135" s="3">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2" t="s">
         <v>239</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>309</v>
@@ -10241,13 +10233,13 @@
     </row>
     <row r="136" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>126</v>
       </c>
       <c r="C136" s="3">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2" t="s">
@@ -10303,20 +10295,20 @@
     </row>
     <row r="137" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>126</v>
+        <v>138</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="C137" s="3">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2" t="s">
         <v>239</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>309</v>
@@ -10330,48 +10322,50 @@
       <c r="J137" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="K137" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="L137" s="2"/>
-      <c r="M137" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="N137" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="O137" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="P137" s="2"/>
-      <c r="Q137" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="R137" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="S137" s="2"/>
-      <c r="T137" s="2"/>
+      <c r="K137" s="2"/>
+      <c r="L137" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="M137" s="2"/>
+      <c r="N137" s="2"/>
+      <c r="O137" s="2"/>
+      <c r="P137" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q137" s="2"/>
+      <c r="R137" s="2"/>
+      <c r="S137" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="T137" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="U137" s="2"/>
-      <c r="V137" s="2"/>
-      <c r="W137" s="2"/>
-      <c r="X137" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y137" s="2"/>
-      <c r="Z137" s="2"/>
+      <c r="V137" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="W137" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="X137" s="2"/>
+      <c r="Y137" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z137" s="2" t="s">
+        <v>280</v>
+      </c>
       <c r="AA137" s="2"/>
       <c r="AB137" s="2"/>
     </row>
     <row r="138" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>126</v>
+        <v>140</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="C138" s="3">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2" t="s">
@@ -10392,55 +10386,57 @@
       <c r="J138" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="K138" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="L138" s="2"/>
-      <c r="M138" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="N138" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="O138" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="P138" s="2"/>
-      <c r="Q138" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="R138" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="S138" s="2"/>
-      <c r="T138" s="2"/>
+      <c r="K138" s="2"/>
+      <c r="L138" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="M138" s="2"/>
+      <c r="N138" s="2"/>
+      <c r="O138" s="2"/>
+      <c r="P138" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q138" s="2"/>
+      <c r="R138" s="2"/>
+      <c r="S138" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="T138" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="U138" s="2"/>
-      <c r="V138" s="2"/>
-      <c r="W138" s="2"/>
-      <c r="X138" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y138" s="2"/>
-      <c r="Z138" s="2"/>
+      <c r="V138" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="W138" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="X138" s="2"/>
+      <c r="Y138" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z138" s="2" t="s">
+        <v>280</v>
+      </c>
       <c r="AA138" s="2"/>
       <c r="AB138" s="2"/>
     </row>
-    <row r="139" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:28" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>139</v>
       </c>
       <c r="C139" s="3">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2" t="s">
         <v>239</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>309</v>
@@ -10491,13 +10487,13 @@
     </row>
     <row r="140" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>139</v>
       </c>
       <c r="C140" s="3">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2" t="s">
@@ -10555,13 +10551,13 @@
     </row>
     <row r="141" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>139</v>
       </c>
       <c r="C141" s="3">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2" t="s">
@@ -10619,13 +10615,13 @@
     </row>
     <row r="142" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>139</v>
       </c>
       <c r="C142" s="3">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2" t="s">
@@ -10683,13 +10679,13 @@
     </row>
     <row r="143" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>139</v>
       </c>
       <c r="C143" s="3">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2" t="s">
@@ -10747,13 +10743,13 @@
     </row>
     <row r="144" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>139</v>
       </c>
       <c r="C144" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2" t="s">
@@ -10811,13 +10807,13 @@
     </row>
     <row r="145" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>139</v>
       </c>
       <c r="C145" s="3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2" t="s">
@@ -10875,13 +10871,13 @@
     </row>
     <row r="146" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>139</v>
       </c>
       <c r="C146" s="3">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2" t="s">
@@ -10939,13 +10935,13 @@
     </row>
     <row r="147" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C147" s="3">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2" t="s">
@@ -10968,7 +10964,7 @@
       </c>
       <c r="K147" s="2"/>
       <c r="L147" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -10979,37 +10975,37 @@
       <c r="Q147" s="2"/>
       <c r="R147" s="2"/>
       <c r="S147" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="T147" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="U147" s="2"/>
       <c r="V147" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="W147" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="X147" s="2"/>
       <c r="Y147" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Z147" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AA147" s="2"/>
       <c r="AB147" s="2"/>
     </row>
     <row r="148" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C148" s="3">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="2" t="s">
@@ -11032,7 +11028,7 @@
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -11043,37 +11039,37 @@
       <c r="Q148" s="2"/>
       <c r="R148" s="2"/>
       <c r="S148" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="T148" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="U148" s="2"/>
       <c r="V148" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="W148" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="X148" s="2"/>
       <c r="Y148" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Z148" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AA148" s="2"/>
       <c r="AB148" s="2"/>
     </row>
     <row r="149" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C149" s="3">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2" t="s">
@@ -11131,13 +11127,13 @@
     </row>
     <row r="150" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C150" s="3">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2" t="s">
@@ -11195,13 +11191,13 @@
     </row>
     <row r="151" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C151" s="3">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2" t="s">
@@ -11259,13 +11255,13 @@
     </row>
     <row r="152" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C152" s="3">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2" t="s">
@@ -11323,13 +11319,13 @@
     </row>
     <row r="153" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C153" s="3">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2" t="s">
@@ -11387,13 +11383,13 @@
     </row>
     <row r="154" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C154" s="3">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2" t="s">
@@ -11451,13 +11447,13 @@
     </row>
     <row r="155" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C155" s="3">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2" t="s">
@@ -11515,13 +11511,13 @@
     </row>
     <row r="156" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C156" s="3">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2" t="s">
@@ -11579,13 +11575,13 @@
     </row>
     <row r="157" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C157" s="3">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2" t="s">
@@ -11642,14 +11638,14 @@
       <c r="AB157" s="2"/>
     </row>
     <row r="158" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A158" s="3" t="s">
-        <v>159</v>
+      <c r="A158" s="8" t="s">
+        <v>353</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C158" s="3">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2" t="s">
@@ -11706,14 +11702,14 @@
       <c r="AB158" s="2"/>
     </row>
     <row r="159" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A159" s="3" t="s">
-        <v>160</v>
+      <c r="A159" s="8" t="s">
+        <v>354</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C159" s="3">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2" t="s">
@@ -11770,14 +11766,14 @@
       <c r="AB159" s="2"/>
     </row>
     <row r="160" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A160" s="8" t="s">
-        <v>355</v>
+      <c r="A160" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C160" s="3">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2" t="s">
@@ -11800,7 +11796,7 @@
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
@@ -11811,37 +11807,37 @@
       <c r="Q160" s="2"/>
       <c r="R160" s="2"/>
       <c r="S160" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="T160" s="2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="U160" s="2"/>
       <c r="V160" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="W160" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="X160" s="2"/>
       <c r="Y160" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="Z160" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AA160" s="2"/>
       <c r="AB160" s="2"/>
     </row>
     <row r="161" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A161" s="8" t="s">
-        <v>356</v>
+      <c r="A161" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C161" s="3">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2" t="s">
@@ -11864,7 +11860,7 @@
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -11875,37 +11871,37 @@
       <c r="Q161" s="2"/>
       <c r="R161" s="2"/>
       <c r="S161" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="T161" s="2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="U161" s="2"/>
       <c r="V161" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="W161" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="X161" s="2"/>
       <c r="Y161" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="Z161" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AA161" s="2"/>
       <c r="AB161" s="2"/>
     </row>
     <row r="162" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C162" s="3">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2" t="s">
@@ -11962,14 +11958,14 @@
       <c r="AB162" s="2"/>
     </row>
     <row r="163" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A163" s="3" t="s">
-        <v>163</v>
+      <c r="A163" s="8" t="s">
+        <v>355</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C163" s="3">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2" t="s">
@@ -12027,13 +12023,13 @@
     </row>
     <row r="164" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C164" s="3">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2" t="s">
@@ -12090,14 +12086,14 @@
       <c r="AB164" s="2"/>
     </row>
     <row r="165" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A165" s="8" t="s">
-        <v>357</v>
+      <c r="A165" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C165" s="3">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2" t="s">
@@ -12120,7 +12116,7 @@
       </c>
       <c r="K165" s="2"/>
       <c r="L165" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
@@ -12131,37 +12127,37 @@
       <c r="Q165" s="2"/>
       <c r="R165" s="2"/>
       <c r="S165" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="T165" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="U165" s="2"/>
       <c r="V165" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="W165" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="X165" s="2"/>
       <c r="Y165" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Z165" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AA165" s="2"/>
       <c r="AB165" s="2"/>
     </row>
     <row r="166" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C166" s="3">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2" t="s">
@@ -12219,13 +12215,13 @@
     </row>
     <row r="167" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C167" s="3">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2" t="s">
@@ -12248,7 +12244,7 @@
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -12259,37 +12255,37 @@
       <c r="Q167" s="2"/>
       <c r="R167" s="2"/>
       <c r="S167" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="T167" s="2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="U167" s="2"/>
       <c r="V167" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="W167" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="X167" s="2"/>
       <c r="Y167" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="Z167" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AA167" s="2"/>
       <c r="AB167" s="2"/>
     </row>
     <row r="168" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C168" s="3">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2" t="s">
@@ -12347,13 +12343,13 @@
     </row>
     <row r="169" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C169" s="3">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2" t="s">
@@ -12411,13 +12407,13 @@
     </row>
     <row r="170" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C170" s="3">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2" t="s">
@@ -12475,13 +12471,13 @@
     </row>
     <row r="171" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
-        <v>170</v>
+        <v>356</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C171" s="3">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" s="2" t="s">
@@ -12539,13 +12535,13 @@
     </row>
     <row r="172" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C172" s="3">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2" t="s">
@@ -12603,13 +12599,13 @@
     </row>
     <row r="173" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
-        <v>358</v>
+        <v>173</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="C173" s="3">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2" t="s">
@@ -12667,13 +12663,13 @@
     </row>
     <row r="174" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="C174" s="3">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2" t="s">
@@ -12731,13 +12727,13 @@
     </row>
     <row r="175" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>174</v>
       </c>
       <c r="C175" s="3">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2" t="s">
@@ -12795,13 +12791,13 @@
     </row>
     <row r="176" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
-        <v>175</v>
+        <v>357</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>174</v>
       </c>
       <c r="C176" s="3">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2" t="s">
@@ -12859,13 +12855,13 @@
     </row>
     <row r="177" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>174</v>
       </c>
       <c r="C177" s="3">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="2" t="s">
@@ -12923,13 +12919,13 @@
     </row>
     <row r="178" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
-        <v>359</v>
+        <v>178</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>174</v>
       </c>
       <c r="C178" s="3">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="2" t="s">
@@ -12987,13 +12983,13 @@
     </row>
     <row r="179" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>174</v>
       </c>
       <c r="C179" s="3">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2" t="s">
@@ -13049,16 +13045,14 @@
       <c r="AA179" s="2"/>
       <c r="AB179" s="2"/>
     </row>
-    <row r="180" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C180" s="3">
-        <v>162</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C180" s="3"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2" t="s">
         <v>239</v>
@@ -13070,17 +13064,17 @@
         <v>309</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="K180" s="2"/>
       <c r="L180" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" s="2"/>
@@ -13091,38 +13085,36 @@
       <c r="Q180" s="2"/>
       <c r="R180" s="2"/>
       <c r="S180" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="T180" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="U180" s="2"/>
       <c r="V180" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="W180" s="2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="X180" s="2"/>
       <c r="Y180" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Z180" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AA180" s="2"/>
       <c r="AB180" s="2"/>
     </row>
-    <row r="181" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C181" s="3">
-        <v>163</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C181" s="3"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2" t="s">
         <v>239</v>
@@ -13134,55 +13126,53 @@
         <v>309</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="K181" s="2"/>
-      <c r="L181" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="M181" s="2"/>
-      <c r="N181" s="2"/>
-      <c r="O181" s="2"/>
-      <c r="P181" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q181" s="2"/>
-      <c r="R181" s="2"/>
-      <c r="S181" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="T181" s="2" t="s">
-        <v>282</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="K181" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="L181" s="2"/>
+      <c r="M181" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="N181" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="O181" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="P181" s="2"/>
+      <c r="Q181" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="R181" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="S181" s="2"/>
+      <c r="T181" s="2"/>
       <c r="U181" s="2"/>
-      <c r="V181" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="W181" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="X181" s="2"/>
-      <c r="Y181" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="Z181" s="2" t="s">
-        <v>280</v>
-      </c>
+      <c r="V181" s="2"/>
+      <c r="W181" s="2"/>
+      <c r="X181" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y181" s="2"/>
+      <c r="Z181" s="2"/>
       <c r="AA181" s="2"/>
       <c r="AB181" s="2"/>
     </row>
     <row r="182" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>74</v>
+        <v>182</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>183</v>
       </c>
       <c r="C182" s="3"/>
       <c r="D182" s="2"/>
@@ -13204,47 +13194,45 @@
       <c r="J182" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="K182" s="2"/>
-      <c r="L182" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="M182" s="2"/>
-      <c r="N182" s="2"/>
-      <c r="O182" s="2"/>
-      <c r="P182" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q182" s="2"/>
-      <c r="R182" s="2"/>
-      <c r="S182" s="2" t="s">
+      <c r="K182" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="T182" s="2" t="s">
-        <v>280</v>
-      </c>
+      <c r="L182" s="2"/>
+      <c r="M182" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="N182" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="O182" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="P182" s="2"/>
+      <c r="Q182" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="R182" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="S182" s="2"/>
+      <c r="T182" s="2"/>
       <c r="U182" s="2"/>
-      <c r="V182" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="W182" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="X182" s="2"/>
-      <c r="Y182" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="Z182" s="2" t="s">
-        <v>276</v>
-      </c>
+      <c r="V182" s="2"/>
+      <c r="W182" s="2"/>
+      <c r="X182" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y182" s="2"/>
+      <c r="Z182" s="2"/>
       <c r="AA182" s="2"/>
       <c r="AB182" s="2"/>
     </row>
     <row r="183" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="2"/>
@@ -13267,24 +13255,24 @@
         <v>312</v>
       </c>
       <c r="K183" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L183" s="2"/>
       <c r="M183" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N183" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="O183" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="P183" s="2"/>
       <c r="Q183" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="R183" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="S183" s="2"/>
       <c r="T183" s="2"/>
@@ -13292,7 +13280,7 @@
       <c r="V183" s="2"/>
       <c r="W183" s="2"/>
       <c r="X183" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
@@ -13301,10 +13289,10 @@
     </row>
     <row r="184" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="2"/>
@@ -13327,24 +13315,24 @@
         <v>312</v>
       </c>
       <c r="K184" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L184" s="2"/>
       <c r="M184" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="N184" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O184" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="P184" s="2"/>
       <c r="Q184" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="R184" s="2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
@@ -13352,7 +13340,7 @@
       <c r="V184" s="2"/>
       <c r="W184" s="2"/>
       <c r="X184" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
@@ -13361,10 +13349,10 @@
     </row>
     <row r="185" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B185" s="6" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="2"/>
@@ -13386,45 +13374,47 @@
       <c r="J185" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="K185" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="L185" s="2"/>
-      <c r="M185" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="N185" s="2" t="s">
+      <c r="K185" s="2"/>
+      <c r="L185" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="M185" s="2"/>
+      <c r="N185" s="2"/>
+      <c r="O185" s="2"/>
+      <c r="P185" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q185" s="2"/>
+      <c r="R185" s="2"/>
+      <c r="S185" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="T185" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="U185" s="2"/>
+      <c r="V185" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="O185" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="P185" s="2"/>
-      <c r="Q185" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="R185" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="S185" s="2"/>
-      <c r="T185" s="2"/>
-      <c r="U185" s="2"/>
-      <c r="V185" s="2"/>
-      <c r="W185" s="2"/>
-      <c r="X185" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y185" s="2"/>
-      <c r="Z185" s="2"/>
+      <c r="W185" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="X185" s="2"/>
+      <c r="Y185" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z185" s="2" t="s">
+        <v>280</v>
+      </c>
       <c r="AA185" s="2"/>
       <c r="AB185" s="2"/>
     </row>
     <row r="186" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B186" s="6" t="s">
-        <v>126</v>
+        <v>188</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="C186" s="3"/>
       <c r="D186" s="2"/>
@@ -13446,45 +13436,47 @@
       <c r="J186" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="K186" s="2" t="s">
+      <c r="K186" s="2"/>
+      <c r="L186" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="M186" s="2"/>
+      <c r="N186" s="2"/>
+      <c r="O186" s="2"/>
+      <c r="P186" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q186" s="2"/>
+      <c r="R186" s="2"/>
+      <c r="S186" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="L186" s="2"/>
-      <c r="M186" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="N186" s="2" t="s">
+      <c r="T186" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="U186" s="2"/>
+      <c r="V186" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="O186" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="P186" s="2"/>
-      <c r="Q186" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="R186" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="S186" s="2"/>
-      <c r="T186" s="2"/>
-      <c r="U186" s="2"/>
-      <c r="V186" s="2"/>
-      <c r="W186" s="2"/>
-      <c r="X186" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y186" s="2"/>
-      <c r="Z186" s="2"/>
+      <c r="W186" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="X186" s="2"/>
+      <c r="Y186" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z186" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="AA186" s="2"/>
       <c r="AB186" s="2"/>
     </row>
     <row r="187" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C187" s="3"/>
       <c r="D187" s="2"/>
@@ -13533,7 +13525,7 @@
       </c>
       <c r="X187" s="2"/>
       <c r="Y187" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Z187" s="2" t="s">
         <v>280</v>
@@ -13543,10 +13535,10 @@
     </row>
     <row r="188" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="C188" s="3"/>
       <c r="D188" s="2"/>
@@ -13588,7 +13580,7 @@
       </c>
       <c r="U188" s="2"/>
       <c r="V188" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="W188" s="2" t="s">
         <v>280</v>
@@ -13605,10 +13597,10 @@
     </row>
     <row r="189" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>162</v>
+        <v>191</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C189" s="3"/>
       <c r="D189" s="2"/>
@@ -13630,47 +13622,45 @@
       <c r="J189" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="K189" s="2"/>
-      <c r="L189" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="M189" s="2"/>
-      <c r="N189" s="2"/>
-      <c r="O189" s="2"/>
-      <c r="P189" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q189" s="2"/>
-      <c r="R189" s="2"/>
-      <c r="S189" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="T189" s="2" t="s">
-        <v>282</v>
-      </c>
+      <c r="K189" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L189" s="2"/>
+      <c r="M189" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="N189" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="O189" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="P189" s="2"/>
+      <c r="Q189" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="R189" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="S189" s="2"/>
+      <c r="T189" s="2"/>
       <c r="U189" s="2"/>
-      <c r="V189" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="W189" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="X189" s="2"/>
-      <c r="Y189" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="Z189" s="2" t="s">
-        <v>280</v>
-      </c>
+      <c r="V189" s="2"/>
+      <c r="W189" s="2"/>
+      <c r="X189" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y189" s="2"/>
+      <c r="Z189" s="2"/>
       <c r="AA189" s="2"/>
       <c r="AB189" s="2"/>
     </row>
     <row r="190" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C190" s="3"/>
       <c r="D190" s="2"/>
@@ -13694,7 +13684,7 @@
       </c>
       <c r="K190" s="2"/>
       <c r="L190" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M190" s="2"/>
       <c r="N190" s="2"/>
@@ -13705,34 +13695,34 @@
       <c r="Q190" s="2"/>
       <c r="R190" s="2"/>
       <c r="S190" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="T190" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="U190" s="2"/>
       <c r="V190" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="W190" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="X190" s="2"/>
       <c r="Y190" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Z190" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AA190" s="2"/>
       <c r="AB190" s="2"/>
     </row>
     <row r="191" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C191" s="3"/>
       <c r="D191" s="2"/>
@@ -13755,24 +13745,24 @@
         <v>312</v>
       </c>
       <c r="K191" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L191" s="2"/>
       <c r="M191" s="2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="N191" s="2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="O191" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P191" s="2"/>
       <c r="Q191" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="R191" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S191" s="2"/>
       <c r="T191" s="2"/>
@@ -13780,7 +13770,7 @@
       <c r="V191" s="2"/>
       <c r="W191" s="2"/>
       <c r="X191" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
@@ -13789,16 +13779,14 @@
     </row>
     <row r="192" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
-        <v>192</v>
+        <v>269</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="2"/>
-      <c r="E192" s="2" t="s">
-        <v>239</v>
-      </c>
+      <c r="E192" s="2"/>
       <c r="F192" s="2" t="s">
         <v>308</v>
       </c>
@@ -13827,42 +13815,38 @@
       <c r="Q192" s="2"/>
       <c r="R192" s="2"/>
       <c r="S192" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="T192" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="U192" s="2"/>
       <c r="V192" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="W192" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="X192" s="2"/>
       <c r="Y192" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="Z192" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AA192" s="2"/>
       <c r="AB192" s="2"/>
     </row>
-    <row r="193" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:28" ht="232" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>46</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="2"/>
-      <c r="E193" s="2" t="s">
-        <v>239</v>
-      </c>
+      <c r="E193" s="2"/>
       <c r="F193" s="2" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="G193" s="2" t="s">
         <v>309</v>
@@ -13877,50 +13861,42 @@
         <v>312</v>
       </c>
       <c r="K193" s="2" t="s">
-        <v>281</v>
+        <v>337</v>
       </c>
       <c r="L193" s="2"/>
-      <c r="M193" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="N193" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="O193" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="P193" s="2"/>
-      <c r="Q193" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="R193" s="2" t="s">
-        <v>280</v>
-      </c>
+      <c r="M193" s="2"/>
+      <c r="N193" s="2"/>
+      <c r="O193" s="2"/>
+      <c r="P193" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q193" s="2"/>
+      <c r="R193" s="2"/>
       <c r="S193" s="2"/>
       <c r="T193" s="2"/>
-      <c r="U193" s="2"/>
+      <c r="U193" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="V193" s="2"/>
       <c r="W193" s="2"/>
-      <c r="X193" s="2" t="s">
-        <v>286</v>
-      </c>
+      <c r="X193" s="2"/>
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
       <c r="AA193" s="2"/>
-      <c r="AB193" s="2"/>
-    </row>
-    <row r="194" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AB193" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="194" spans="1:28" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>174</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>309</v>
@@ -13934,10 +13910,10 @@
       <c r="J194" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="K194" s="2"/>
-      <c r="L194" s="2" t="s">
-        <v>286</v>
-      </c>
+      <c r="K194" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="L194" s="2"/>
       <c r="M194" s="2"/>
       <c r="N194" s="2"/>
       <c r="O194" s="2"/>
@@ -13946,39 +13922,31 @@
       </c>
       <c r="Q194" s="2"/>
       <c r="R194" s="2"/>
-      <c r="S194" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="T194" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="U194" s="2"/>
-      <c r="V194" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="W194" s="2" t="s">
-        <v>276</v>
-      </c>
+      <c r="S194" s="2"/>
+      <c r="T194" s="2"/>
+      <c r="U194" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="V194" s="2"/>
+      <c r="W194" s="2"/>
       <c r="X194" s="2"/>
-      <c r="Y194" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="Z194" s="2" t="s">
-        <v>280</v>
-      </c>
+      <c r="Y194" s="2"/>
+      <c r="Z194" s="2"/>
       <c r="AA194" s="2"/>
-      <c r="AB194" s="2"/>
-    </row>
-    <row r="195" spans="1:28" ht="232" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AB194" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="195" spans="1:28" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>309</v>
@@ -14021,7 +13989,7 @@
     </row>
     <row r="196" spans="1:28" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -14069,25 +14037,27 @@
         <v>336</v>
       </c>
     </row>
-    <row r="197" spans="1:28" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:28" ht="232" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
-        <v>274</v>
+        <v>194</v>
       </c>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="2"/>
-      <c r="E197" s="2"/>
+      <c r="E197" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="F197" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>309</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>245</v>
+        <v>310</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>245</v>
+        <v>310</v>
       </c>
       <c r="J197" s="2" t="s">
         <v>312</v>
@@ -14119,25 +14089,27 @@
         <v>336</v>
       </c>
     </row>
-    <row r="198" spans="1:28" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:28" ht="232" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="s">
-        <v>275</v>
+        <v>195</v>
       </c>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="2"/>
-      <c r="E198" s="2"/>
+      <c r="E198" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="F198" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>309</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>245</v>
+        <v>310</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>245</v>
+        <v>310</v>
       </c>
       <c r="J198" s="2" t="s">
         <v>312</v>
@@ -14171,7 +14143,7 @@
     </row>
     <row r="199" spans="1:28" ht="232" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -14223,7 +14195,7 @@
     </row>
     <row r="200" spans="1:28" ht="232" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -14275,7 +14247,7 @@
     </row>
     <row r="201" spans="1:28" ht="232" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -14325,9 +14297,9 @@
         <v>336</v>
       </c>
     </row>
-    <row r="202" spans="1:28" ht="232" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -14336,10 +14308,10 @@
         <v>239</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="H202" s="2" t="s">
         <v>310</v>
@@ -14351,35 +14323,43 @@
         <v>312</v>
       </c>
       <c r="K202" s="2" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
       <c r="L202" s="2"/>
       <c r="M202" s="2"/>
-      <c r="N202" s="2"/>
+      <c r="N202" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="O202" s="2"/>
-      <c r="P202" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q202" s="2"/>
+      <c r="P202" s="2"/>
+      <c r="Q202" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="R202" s="2"/>
-      <c r="S202" s="2"/>
+      <c r="S202" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="T202" s="2"/>
       <c r="U202" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="V202" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="V202" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="W202" s="2"/>
       <c r="X202" s="2"/>
-      <c r="Y202" s="2"/>
+      <c r="Y202" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="Z202" s="2"/>
       <c r="AA202" s="2"/>
       <c r="AB202" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="203" spans="1:28" ht="232" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -14388,10 +14368,10 @@
         <v>239</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="H203" s="2" t="s">
         <v>310</v>
@@ -14403,26 +14383,34 @@
         <v>312</v>
       </c>
       <c r="K203" s="2" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
       <c r="L203" s="2"/>
       <c r="M203" s="2"/>
-      <c r="N203" s="2"/>
+      <c r="N203" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="O203" s="2"/>
-      <c r="P203" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q203" s="2"/>
+      <c r="P203" s="2"/>
+      <c r="Q203" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="R203" s="2"/>
-      <c r="S203" s="2"/>
+      <c r="S203" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="T203" s="2"/>
       <c r="U203" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="V203" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="V203" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="W203" s="2"/>
       <c r="X203" s="2"/>
-      <c r="Y203" s="2"/>
+      <c r="Y203" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="Z203" s="2"/>
       <c r="AA203" s="2"/>
       <c r="AB203" s="2" t="s">
@@ -14431,7 +14419,7 @@
     </row>
     <row r="204" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -14455,7 +14443,7 @@
         <v>312</v>
       </c>
       <c r="K204" s="2" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="L204" s="2"/>
       <c r="M204" s="2"/>
@@ -14491,7 +14479,7 @@
     </row>
     <row r="205" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -14515,7 +14503,7 @@
         <v>312</v>
       </c>
       <c r="K205" s="2" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="L205" s="2"/>
       <c r="M205" s="2"/>
@@ -14551,7 +14539,7 @@
     </row>
     <row r="206" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -14611,19 +14599,21 @@
     </row>
     <row r="207" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B207" s="3"/>
+        <v>204</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="C207" s="3"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2" t="s">
         <v>239</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="H207" s="2" t="s">
         <v>310</v>
@@ -14635,55 +14625,49 @@
         <v>312</v>
       </c>
       <c r="K207" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L207" s="2"/>
       <c r="M207" s="2"/>
-      <c r="N207" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="N207" s="2"/>
       <c r="O207" s="2"/>
-      <c r="P207" s="2"/>
-      <c r="Q207" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="P207" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q207" s="2"/>
       <c r="R207" s="2"/>
-      <c r="S207" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="S207" s="2"/>
       <c r="T207" s="2"/>
       <c r="U207" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="V207" s="2" t="s">
-        <v>290</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="V207" s="2"/>
       <c r="W207" s="2"/>
       <c r="X207" s="2"/>
-      <c r="Y207" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="Y207" s="2"/>
       <c r="Z207" s="2"/>
       <c r="AA207" s="2"/>
       <c r="AB207" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="208" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:28" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B208" s="3"/>
+        <v>206</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="C208" s="3"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2" t="s">
         <v>239</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="H208" s="2" t="s">
         <v>310</v>
@@ -14695,7 +14679,7 @@
         <v>312</v>
       </c>
       <c r="K208" s="2" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="L208" s="2"/>
       <c r="M208" s="2"/>
@@ -14731,7 +14715,7 @@
     </row>
     <row r="209" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>205</v>
@@ -14742,7 +14726,7 @@
         <v>239</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G209" s="2" t="s">
         <v>309</v>
@@ -14757,22 +14741,18 @@
         <v>312</v>
       </c>
       <c r="K209" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L209" s="2"/>
       <c r="M209" s="2"/>
       <c r="N209" s="2"/>
       <c r="O209" s="2"/>
-      <c r="P209" s="2" t="s">
-        <v>283</v>
-      </c>
+      <c r="P209" s="2"/>
       <c r="Q209" s="2"/>
       <c r="R209" s="2"/>
       <c r="S209" s="2"/>
       <c r="T209" s="2"/>
-      <c r="U209" s="2" t="s">
-        <v>344</v>
-      </c>
+      <c r="U209" s="2"/>
       <c r="V209" s="2"/>
       <c r="W209" s="2"/>
       <c r="X209" s="2"/>
@@ -14783,9 +14763,9 @@
         <v>336</v>
       </c>
     </row>
-    <row r="210" spans="1:28" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>205</v>
@@ -14796,7 +14776,7 @@
         <v>239</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G210" s="2" t="s">
         <v>309</v>
@@ -14811,43 +14791,31 @@
         <v>312</v>
       </c>
       <c r="K210" s="2" t="s">
-        <v>289</v>
+        <v>339</v>
       </c>
       <c r="L210" s="2"/>
       <c r="M210" s="2"/>
-      <c r="N210" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="N210" s="2"/>
       <c r="O210" s="2"/>
       <c r="P210" s="2"/>
-      <c r="Q210" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="Q210" s="2"/>
       <c r="R210" s="2"/>
-      <c r="S210" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="S210" s="2"/>
       <c r="T210" s="2"/>
-      <c r="U210" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="V210" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="U210" s="2"/>
+      <c r="V210" s="2"/>
       <c r="W210" s="2"/>
       <c r="X210" s="2"/>
-      <c r="Y210" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="Y210" s="2"/>
       <c r="Z210" s="2"/>
       <c r="AA210" s="2"/>
       <c r="AB210" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="211" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:28" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>205</v>
@@ -14858,7 +14826,7 @@
         <v>239</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G211" s="2" t="s">
         <v>309</v>
@@ -14873,13 +14841,15 @@
         <v>312</v>
       </c>
       <c r="K211" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L211" s="2"/>
       <c r="M211" s="2"/>
       <c r="N211" s="2"/>
       <c r="O211" s="2"/>
-      <c r="P211" s="2"/>
+      <c r="P211" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="Q211" s="2"/>
       <c r="R211" s="2"/>
       <c r="S211" s="2"/>
@@ -14887,7 +14857,9 @@
       <c r="U211" s="2"/>
       <c r="V211" s="2"/>
       <c r="W211" s="2"/>
-      <c r="X211" s="2"/>
+      <c r="X211" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="Y211" s="2"/>
       <c r="Z211" s="2"/>
       <c r="AA211" s="2"/>
@@ -14897,7 +14869,7 @@
     </row>
     <row r="212" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>205</v>
@@ -14908,7 +14880,7 @@
         <v>239</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G212" s="2" t="s">
         <v>309</v>
@@ -14923,22 +14895,34 @@
         <v>312</v>
       </c>
       <c r="K212" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L212" s="2"/>
       <c r="M212" s="2"/>
-      <c r="N212" s="2"/>
+      <c r="N212" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="O212" s="2"/>
       <c r="P212" s="2"/>
-      <c r="Q212" s="2"/>
+      <c r="Q212" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="R212" s="2"/>
-      <c r="S212" s="2"/>
+      <c r="S212" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="T212" s="2"/>
-      <c r="U212" s="2"/>
-      <c r="V212" s="2"/>
+      <c r="U212" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="V212" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="W212" s="2"/>
       <c r="X212" s="2"/>
-      <c r="Y212" s="2"/>
+      <c r="Y212" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="Z212" s="2"/>
       <c r="AA212" s="2"/>
       <c r="AB212" s="2" t="s">
@@ -14947,7 +14931,7 @@
     </row>
     <row r="213" spans="1:28" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>205</v>
@@ -14958,7 +14942,7 @@
         <v>239</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G213" s="2" t="s">
         <v>309</v>
@@ -14999,9 +14983,9 @@
         <v>336</v>
       </c>
     </row>
-    <row r="214" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:28" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>205</v>
@@ -15012,7 +14996,7 @@
         <v>239</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G214" s="2" t="s">
         <v>309</v>
@@ -15027,43 +15011,35 @@
         <v>312</v>
       </c>
       <c r="K214" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L214" s="2"/>
       <c r="M214" s="2"/>
-      <c r="N214" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="N214" s="2"/>
       <c r="O214" s="2"/>
-      <c r="P214" s="2"/>
-      <c r="Q214" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="P214" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q214" s="2"/>
       <c r="R214" s="2"/>
-      <c r="S214" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="S214" s="2"/>
       <c r="T214" s="2"/>
-      <c r="U214" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="V214" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="U214" s="2"/>
+      <c r="V214" s="2"/>
       <c r="W214" s="2"/>
-      <c r="X214" s="2"/>
-      <c r="Y214" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="X214" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y214" s="2"/>
       <c r="Z214" s="2"/>
       <c r="AA214" s="2"/>
       <c r="AB214" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="215" spans="1:28" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>205</v>
@@ -15074,7 +15050,7 @@
         <v>239</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G215" s="2" t="s">
         <v>309</v>
@@ -15089,35 +15065,43 @@
         <v>312</v>
       </c>
       <c r="K215" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L215" s="2"/>
       <c r="M215" s="2"/>
-      <c r="N215" s="2"/>
+      <c r="N215" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="O215" s="2"/>
-      <c r="P215" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q215" s="2"/>
+      <c r="P215" s="2"/>
+      <c r="Q215" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="R215" s="2"/>
-      <c r="S215" s="2"/>
+      <c r="S215" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="T215" s="2"/>
-      <c r="U215" s="2"/>
-      <c r="V215" s="2"/>
+      <c r="U215" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="V215" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="W215" s="2"/>
-      <c r="X215" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y215" s="2"/>
+      <c r="X215" s="2"/>
+      <c r="Y215" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="Z215" s="2"/>
       <c r="AA215" s="2"/>
       <c r="AB215" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="216" spans="1:28" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>205</v>
@@ -15143,35 +15127,43 @@
         <v>312</v>
       </c>
       <c r="K216" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L216" s="2"/>
       <c r="M216" s="2"/>
-      <c r="N216" s="2"/>
+      <c r="N216" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="O216" s="2"/>
-      <c r="P216" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q216" s="2"/>
+      <c r="P216" s="2"/>
+      <c r="Q216" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="R216" s="2"/>
-      <c r="S216" s="2"/>
+      <c r="S216" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="T216" s="2"/>
-      <c r="U216" s="2"/>
-      <c r="V216" s="2"/>
+      <c r="U216" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="V216" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="W216" s="2"/>
-      <c r="X216" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y216" s="2"/>
+      <c r="X216" s="2"/>
+      <c r="Y216" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="Z216" s="2"/>
       <c r="AA216" s="2"/>
       <c r="AB216" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="217" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:28" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>205</v>
@@ -15182,7 +15174,7 @@
         <v>239</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G217" s="2" t="s">
         <v>309</v>
@@ -15197,7 +15189,7 @@
         <v>312</v>
       </c>
       <c r="K217" s="2" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="L217" s="2"/>
       <c r="M217" s="2"/>
@@ -15233,7 +15225,7 @@
     </row>
     <row r="218" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>205</v>
@@ -15244,7 +15236,7 @@
         <v>239</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G218" s="2" t="s">
         <v>309</v>
@@ -15259,7 +15251,7 @@
         <v>312</v>
       </c>
       <c r="K218" s="2" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="L218" s="2"/>
       <c r="M218" s="2"/>
@@ -15293,9 +15285,9 @@
         <v>336</v>
       </c>
     </row>
-    <row r="219" spans="1:28" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:28" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>205</v>
@@ -15306,7 +15298,7 @@
         <v>239</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G219" s="2" t="s">
         <v>309</v>
@@ -15321,43 +15313,37 @@
         <v>312</v>
       </c>
       <c r="K219" s="2" t="s">
-        <v>289</v>
+        <v>341</v>
       </c>
       <c r="L219" s="2"/>
       <c r="M219" s="2"/>
-      <c r="N219" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="N219" s="2"/>
       <c r="O219" s="2"/>
-      <c r="P219" s="2"/>
-      <c r="Q219" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="P219" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q219" s="2"/>
       <c r="R219" s="2"/>
-      <c r="S219" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="S219" s="2"/>
       <c r="T219" s="2"/>
       <c r="U219" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="V219" s="2" t="s">
-        <v>290</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="V219" s="2"/>
       <c r="W219" s="2"/>
-      <c r="X219" s="2"/>
-      <c r="Y219" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="X219" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y219" s="2"/>
       <c r="Z219" s="2"/>
       <c r="AA219" s="2"/>
       <c r="AB219" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="220" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:28" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>205</v>
@@ -15368,7 +15354,7 @@
         <v>239</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G220" s="2" t="s">
         <v>309</v>
@@ -15419,7 +15405,7 @@
     </row>
     <row r="221" spans="1:28" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>205</v>
@@ -15445,7 +15431,7 @@
         <v>312</v>
       </c>
       <c r="K221" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="L221" s="2"/>
       <c r="M221" s="2"/>
@@ -15463,9 +15449,7 @@
       </c>
       <c r="V221" s="2"/>
       <c r="W221" s="2"/>
-      <c r="X221" s="2" t="s">
-        <v>341</v>
-      </c>
+      <c r="X221" s="2"/>
       <c r="Y221" s="2"/>
       <c r="Z221" s="2"/>
       <c r="AA221" s="2"/>
@@ -15473,9 +15457,9 @@
         <v>336</v>
       </c>
     </row>
-    <row r="222" spans="1:28" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:28" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>205</v>
@@ -15486,7 +15470,7 @@
         <v>239</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G222" s="2" t="s">
         <v>309</v>
@@ -15501,34 +15485,26 @@
         <v>312</v>
       </c>
       <c r="K222" s="2" t="s">
-        <v>289</v>
+        <v>337</v>
       </c>
       <c r="L222" s="2"/>
       <c r="M222" s="2"/>
-      <c r="N222" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="N222" s="2"/>
       <c r="O222" s="2"/>
-      <c r="P222" s="2"/>
-      <c r="Q222" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="P222" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q222" s="2"/>
       <c r="R222" s="2"/>
-      <c r="S222" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="S222" s="2"/>
       <c r="T222" s="2"/>
       <c r="U222" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="V222" s="2" t="s">
-        <v>290</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="V222" s="2"/>
       <c r="W222" s="2"/>
       <c r="X222" s="2"/>
-      <c r="Y222" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="Y222" s="2"/>
       <c r="Z222" s="2"/>
       <c r="AA222" s="2"/>
       <c r="AB222" s="2" t="s">
@@ -15537,7 +15513,7 @@
     </row>
     <row r="223" spans="1:28" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>205</v>
@@ -15577,7 +15553,7 @@
       <c r="S223" s="2"/>
       <c r="T223" s="2"/>
       <c r="U223" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="V223" s="2"/>
       <c r="W223" s="2"/>
@@ -15589,9 +15565,9 @@
         <v>336</v>
       </c>
     </row>
-    <row r="224" spans="1:28" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:28" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>205</v>
@@ -15602,7 +15578,7 @@
         <v>239</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G224" s="2" t="s">
         <v>309</v>
@@ -15617,7 +15593,7 @@
         <v>312</v>
       </c>
       <c r="K224" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L224" s="2"/>
       <c r="M224" s="2"/>
@@ -15630,12 +15606,12 @@
       <c r="R224" s="2"/>
       <c r="S224" s="2"/>
       <c r="T224" s="2"/>
-      <c r="U224" s="2" t="s">
-        <v>344</v>
-      </c>
+      <c r="U224" s="2"/>
       <c r="V224" s="2"/>
       <c r="W224" s="2"/>
-      <c r="X224" s="2"/>
+      <c r="X224" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="Y224" s="2"/>
       <c r="Z224" s="2"/>
       <c r="AA224" s="2"/>
@@ -15645,7 +15621,7 @@
     </row>
     <row r="225" spans="1:28" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>205</v>
@@ -15671,7 +15647,7 @@
         <v>312</v>
       </c>
       <c r="K225" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L225" s="2"/>
       <c r="M225" s="2"/>
@@ -15684,12 +15660,12 @@
       <c r="R225" s="2"/>
       <c r="S225" s="2"/>
       <c r="T225" s="2"/>
-      <c r="U225" s="2" t="s">
-        <v>344</v>
-      </c>
+      <c r="U225" s="2"/>
       <c r="V225" s="2"/>
       <c r="W225" s="2"/>
-      <c r="X225" s="2"/>
+      <c r="X225" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="Y225" s="2"/>
       <c r="Z225" s="2"/>
       <c r="AA225" s="2"/>
@@ -15699,7 +15675,7 @@
     </row>
     <row r="226" spans="1:28" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>205</v>
@@ -15725,26 +15701,34 @@
         <v>312</v>
       </c>
       <c r="K226" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L226" s="2"/>
       <c r="M226" s="2"/>
-      <c r="N226" s="2"/>
+      <c r="N226" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="O226" s="2"/>
-      <c r="P226" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q226" s="2"/>
+      <c r="P226" s="2"/>
+      <c r="Q226" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="R226" s="2"/>
-      <c r="S226" s="2"/>
+      <c r="S226" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="T226" s="2"/>
-      <c r="U226" s="2"/>
-      <c r="V226" s="2"/>
+      <c r="U226" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="V226" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="W226" s="2"/>
-      <c r="X226" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y226" s="2"/>
+      <c r="X226" s="2"/>
+      <c r="Y226" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="Z226" s="2"/>
       <c r="AA226" s="2"/>
       <c r="AB226" s="2" t="s">
@@ -15753,7 +15737,7 @@
     </row>
     <row r="227" spans="1:28" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>205</v>
@@ -15805,9 +15789,9 @@
         <v>336</v>
       </c>
     </row>
-    <row r="228" spans="1:28" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:28" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>205</v>
@@ -15818,7 +15802,7 @@
         <v>239</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G228" s="2" t="s">
         <v>309</v>
@@ -15833,43 +15817,35 @@
         <v>312</v>
       </c>
       <c r="K228" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L228" s="2"/>
       <c r="M228" s="2"/>
-      <c r="N228" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="N228" s="2"/>
       <c r="O228" s="2"/>
-      <c r="P228" s="2"/>
-      <c r="Q228" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="P228" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q228" s="2"/>
       <c r="R228" s="2"/>
-      <c r="S228" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="S228" s="2"/>
       <c r="T228" s="2"/>
       <c r="U228" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="V228" s="2" t="s">
-        <v>290</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="V228" s="2"/>
       <c r="W228" s="2"/>
       <c r="X228" s="2"/>
-      <c r="Y228" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="Y228" s="2"/>
       <c r="Z228" s="2"/>
       <c r="AA228" s="2"/>
       <c r="AB228" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="229" spans="1:28" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>205</v>
@@ -15880,7 +15856,7 @@
         <v>239</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G229" s="2" t="s">
         <v>309</v>
@@ -15895,7 +15871,7 @@
         <v>312</v>
       </c>
       <c r="K229" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L229" s="2"/>
       <c r="M229" s="2"/>
@@ -15912,7 +15888,7 @@
       <c r="V229" s="2"/>
       <c r="W229" s="2"/>
       <c r="X229" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Y229" s="2"/>
       <c r="Z229" s="2"/>
@@ -15923,7 +15899,7 @@
     </row>
     <row r="230" spans="1:28" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>205</v>
@@ -15949,7 +15925,7 @@
         <v>312</v>
       </c>
       <c r="K230" s="2" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="L230" s="2"/>
       <c r="M230" s="2"/>
@@ -15962,12 +15938,12 @@
       <c r="R230" s="2"/>
       <c r="S230" s="2"/>
       <c r="T230" s="2"/>
-      <c r="U230" s="2" t="s">
-        <v>344</v>
-      </c>
+      <c r="U230" s="2"/>
       <c r="V230" s="2"/>
       <c r="W230" s="2"/>
-      <c r="X230" s="2"/>
+      <c r="X230" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="Y230" s="2"/>
       <c r="Z230" s="2"/>
       <c r="AA230" s="2"/>
@@ -15977,7 +15953,7 @@
     </row>
     <row r="231" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>205</v>
@@ -16003,15 +15979,13 @@
         <v>312</v>
       </c>
       <c r="K231" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="L231" s="2"/>
       <c r="M231" s="2"/>
       <c r="N231" s="2"/>
       <c r="O231" s="2"/>
-      <c r="P231" s="2" t="s">
-        <v>283</v>
-      </c>
+      <c r="P231" s="2"/>
       <c r="Q231" s="2"/>
       <c r="R231" s="2"/>
       <c r="S231" s="2"/>
@@ -16031,7 +16005,7 @@
     </row>
     <row r="232" spans="1:28" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>205</v>
@@ -16083,9 +16057,9 @@
         <v>336</v>
       </c>
     </row>
-    <row r="233" spans="1:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:28" ht="232" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>205</v>
@@ -16096,7 +16070,7 @@
         <v>239</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="G233" s="2" t="s">
         <v>309</v>
@@ -16111,13 +16085,15 @@
         <v>312</v>
       </c>
       <c r="K233" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L233" s="2"/>
       <c r="M233" s="2"/>
       <c r="N233" s="2"/>
       <c r="O233" s="2"/>
-      <c r="P233" s="2"/>
+      <c r="P233" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="Q233" s="2"/>
       <c r="R233" s="2"/>
       <c r="S233" s="2"/>
@@ -16137,7 +16113,7 @@
     </row>
     <row r="234" spans="1:28" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>205</v>
@@ -16163,7 +16139,7 @@
         <v>312</v>
       </c>
       <c r="K234" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="L234" s="2"/>
       <c r="M234" s="2"/>
@@ -16176,12 +16152,12 @@
       <c r="R234" s="2"/>
       <c r="S234" s="2"/>
       <c r="T234" s="2"/>
-      <c r="U234" s="2"/>
+      <c r="U234" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="V234" s="2"/>
       <c r="W234" s="2"/>
-      <c r="X234" s="2" t="s">
-        <v>342</v>
-      </c>
+      <c r="X234" s="2"/>
       <c r="Y234" s="2"/>
       <c r="Z234" s="2"/>
       <c r="AA234" s="2"/>
@@ -16190,13 +16166,13 @@
       </c>
     </row>
     <row r="235" spans="1:28" ht="232" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A235" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B235" s="3" t="s">
+      <c r="A235" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B235" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C235" s="3"/>
+      <c r="C235" s="4"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2" t="s">
         <v>239</v>
@@ -16217,7 +16193,7 @@
         <v>312</v>
       </c>
       <c r="K235" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="L235" s="2"/>
       <c r="M235" s="2"/>
@@ -16230,124 +16206,16 @@
       <c r="R235" s="2"/>
       <c r="S235" s="2"/>
       <c r="T235" s="2"/>
-      <c r="U235" s="2"/>
+      <c r="U235" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="V235" s="2"/>
       <c r="W235" s="2"/>
-      <c r="X235" s="2" t="s">
-        <v>342</v>
-      </c>
+      <c r="X235" s="2"/>
       <c r="Y235" s="2"/>
       <c r="Z235" s="2"/>
       <c r="AA235" s="2"/>
       <c r="AB235" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="236" spans="1:28" ht="87" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A236" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B236" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C236" s="3"/>
-      <c r="D236" s="2"/>
-      <c r="E236" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="G236" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="H236" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="I236" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="J236" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="K236" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="L236" s="2"/>
-      <c r="M236" s="2"/>
-      <c r="N236" s="2"/>
-      <c r="O236" s="2"/>
-      <c r="P236" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q236" s="2"/>
-      <c r="R236" s="2"/>
-      <c r="S236" s="2"/>
-      <c r="T236" s="2"/>
-      <c r="U236" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="V236" s="2"/>
-      <c r="W236" s="2"/>
-      <c r="X236" s="2"/>
-      <c r="Y236" s="2"/>
-      <c r="Z236" s="2"/>
-      <c r="AA236" s="2"/>
-      <c r="AB236" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="237" spans="1:28" ht="232" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A237" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="B237" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C237" s="4"/>
-      <c r="D237" s="2"/>
-      <c r="E237" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="G237" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="H237" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="I237" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="J237" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="K237" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="L237" s="2"/>
-      <c r="M237" s="2"/>
-      <c r="N237" s="2"/>
-      <c r="O237" s="2"/>
-      <c r="P237" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q237" s="2"/>
-      <c r="R237" s="2"/>
-      <c r="S237" s="2"/>
-      <c r="T237" s="2"/>
-      <c r="U237" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="V237" s="2"/>
-      <c r="W237" s="2"/>
-      <c r="X237" s="2"/>
-      <c r="Y237" s="2"/>
-      <c r="Z237" s="2"/>
-      <c r="AA237" s="2"/>
-      <c r="AB237" s="2" t="s">
         <v>336</v>
       </c>
     </row>
